--- a/emlabpy/Yearly_results.xlsx
+++ b/emlabpy/Yearly_results.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,6 +610,56 @@
       </c>
       <c r="P3" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C4" t="n">
+        <v>544999999.1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20811313152.32112</v>
+      </c>
+      <c r="E4" t="n">
+        <v>38.1858957553916</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11</v>
+      </c>
+      <c r="G4" t="n">
+        <v>222307.2994627971</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.560297453063297</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4644.4034</v>
+      </c>
+      <c r="O4" t="n">
+        <v>711988264.0362152</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-153300.2632881147</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +673,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB3"/>
+  <dimension ref="A1:BB4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1223,6 +1273,170 @@
         <v>0</v>
       </c>
       <c r="BB3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4644.4034</v>
+      </c>
+      <c r="D4" t="n">
+        <v>25208582.8382924</v>
+      </c>
+      <c r="E4" t="n">
+        <v>954932128.661841</v>
+      </c>
+      <c r="F4" t="n">
+        <v>37.88123016623044</v>
+      </c>
+      <c r="G4" t="n">
+        <v>24845.77</v>
+      </c>
+      <c r="H4" t="n">
+        <v>59003.61621933627</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3332129.912351787</v>
+      </c>
+      <c r="J4" t="n">
+        <v>56.47331682121212</v>
+      </c>
+      <c r="K4" t="n">
+        <v>31358.329</v>
+      </c>
+      <c r="L4" t="n">
+        <v>217108263.1152519</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8460882562.993628</v>
+      </c>
+      <c r="N4" t="n">
+        <v>38.97079936797324</v>
+      </c>
+      <c r="O4" t="n">
+        <v>8194.3025</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1007081.087896536</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>53413355.2968122</v>
+      </c>
+      <c r="R4" t="n">
+        <v>53.03779004367492</v>
+      </c>
+      <c r="S4" t="n">
+        <v>8858.749999999998</v>
+      </c>
+      <c r="T4" t="n">
+        <v>18624635.99999999</v>
+      </c>
+      <c r="U4" t="n">
+        <v>705091697.2187846</v>
+      </c>
+      <c r="V4" t="n">
+        <v>37.85801221665675</v>
+      </c>
+      <c r="W4" t="n">
+        <v>8599</v>
+      </c>
+      <c r="X4" t="n">
+        <v>74259244.44886312</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>2846665877.166388</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>38.33416160228613</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>47547.50848700004</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>80823362.9723005</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>2945418492.530766</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>36.44266192610929</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>10271.8</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>40873004.28171189</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1517259559.244995</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>37.12131236518557</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>53555.51607579708</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>50877740.2720072</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>1831210598.874818</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>35.9923728743579</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>20779.02</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>36159080.46745713</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>1493106750.420732</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>41.29271903815462</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>3652.9</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1237,7 +1451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1589,7 +1803,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>20230300031</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1599,12 +1813,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CCGT</t>
+          <t>Fuel oil PGT</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>natural_gas</t>
+          <t>heavy_oil</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1613,24 +1827,24 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>-2</v>
+        <v>37</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>InPipeline</t>
+          <t>TobeDecommissioned</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0.61</v>
+        <v>0.3539907794712127</v>
       </c>
       <c r="J6" t="n">
-        <v>1000</v>
+        <v>3652.9</v>
       </c>
       <c r="K6" t="n">
-        <v>30649500</v>
+        <v>5150718.870612221</v>
       </c>
       <c r="L6" t="n">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -1642,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>-30649500</v>
+        <v>-5150718.870612221</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -1654,7 +1868,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1664,53 +1878,49 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Fuel oil PGT</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>heavy_oil</t>
-        </is>
-      </c>
+          <t>Hydropower_reservoir_medium</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>TobeDecommissioned</t>
+          <t>Operational</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0.3539907794712127</v>
+        <v>0.7811457116585705</v>
       </c>
       <c r="J7" t="n">
-        <v>3652.9</v>
+        <v>8858.749999999998</v>
       </c>
       <c r="K7" t="n">
-        <v>5150718.870612221</v>
+        <v>7384220.949805131</v>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>18624635.99999999</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>705091697.2187846</v>
       </c>
       <c r="P7" t="n">
-        <v>-5150718.870612221</v>
+        <v>697707476.2689794</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>37.85801221665675</v>
       </c>
     </row>
     <row r="8">
@@ -1719,7 +1929,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1729,17 +1939,21 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Hydropower_reservoir_medium</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+          <t>Lignite PSC</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>lignite</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1747,31 +1961,31 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0.7811457116585705</v>
+        <v>0.360040798965821</v>
       </c>
       <c r="J8" t="n">
-        <v>8858.749999999998</v>
+        <v>20779.02</v>
       </c>
       <c r="K8" t="n">
-        <v>7384220.949805131</v>
+        <v>190684909.5157455</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1345556085.273859</v>
       </c>
       <c r="N8" t="n">
-        <v>18624635.99999999</v>
+        <v>36159080.46745713</v>
       </c>
       <c r="O8" t="n">
-        <v>705091697.2187846</v>
+        <v>1493106750.420732</v>
       </c>
       <c r="P8" t="n">
-        <v>697707476.2689794</v>
+        <v>-43134244.36887294</v>
       </c>
       <c r="Q8" t="n">
-        <v>37.85801221665675</v>
+        <v>41.29271903815462</v>
       </c>
     </row>
     <row r="9">
@@ -1780,7 +1994,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1790,12 +2004,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Lignite PSC</t>
+          <t>Nuclear</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>lignite</t>
+          <t>nuclear</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1804,7 +2018,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1812,31 +2026,31 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0.360040798965821</v>
+        <v>0.33</v>
       </c>
       <c r="J9" t="n">
-        <v>20779.02</v>
+        <v>8599</v>
       </c>
       <c r="K9" t="n">
-        <v>190684909.5157455</v>
+        <v>165046505.4929781</v>
       </c>
       <c r="L9" t="n">
         <v>3.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1345556085.273859</v>
+        <v>450056026.9628067</v>
       </c>
       <c r="N9" t="n">
-        <v>36159080.46745713</v>
+        <v>74259244.44886312</v>
       </c>
       <c r="O9" t="n">
-        <v>1493106750.420732</v>
+        <v>2846665877.166388</v>
       </c>
       <c r="P9" t="n">
-        <v>-43134244.36887294</v>
+        <v>2231563344.710603</v>
       </c>
       <c r="Q9" t="n">
-        <v>41.29271903815462</v>
+        <v>38.33416160228613</v>
       </c>
     </row>
     <row r="10">
@@ -1845,7 +2059,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1855,12 +2069,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Nuclear</t>
+          <t>OCGT</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>nuclear</t>
+          <t>natural_gas</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1869,39 +2083,39 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Operational</t>
+          <t>TobeDecommissioned</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0.33</v>
+        <v>0.3741421697393409</v>
       </c>
       <c r="J10" t="n">
-        <v>8599</v>
+        <v>8194.3025</v>
       </c>
       <c r="K10" t="n">
-        <v>165046505.4929781</v>
+        <v>15418557.38030332</v>
       </c>
       <c r="L10" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M10" t="n">
-        <v>450056026.9628067</v>
+        <v>49274830.62694587</v>
       </c>
       <c r="N10" t="n">
-        <v>74259244.44886312</v>
+        <v>1007081.087896536</v>
       </c>
       <c r="O10" t="n">
-        <v>2846665877.166388</v>
+        <v>53413355.2968122</v>
       </c>
       <c r="P10" t="n">
-        <v>2231563344.710603</v>
+        <v>-11280032.71043699</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.33416160228613</v>
+        <v>53.03779004367492</v>
       </c>
     </row>
     <row r="11">
@@ -1910,7 +2124,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1920,53 +2134,49 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>OCGT</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>natural_gas</t>
-        </is>
-      </c>
+          <t>PV_utility_systems</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>TobeDecommissioned</t>
+          <t>Operational</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0.3741421697393409</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>8194.3025</v>
+        <v>53555.51607579708</v>
       </c>
       <c r="K11" t="n">
-        <v>15418557.38030332</v>
+        <v>227017807.7274436</v>
       </c>
       <c r="L11" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>49274830.62694587</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1007081.087896536</v>
+        <v>50877740.2720072</v>
       </c>
       <c r="O11" t="n">
-        <v>53413355.2968122</v>
+        <v>1831210598.874818</v>
       </c>
       <c r="P11" t="n">
-        <v>-11280032.71043699</v>
+        <v>1604192791.147375</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.03779004367492</v>
+        <v>35.9923728743579</v>
       </c>
     </row>
     <row r="12">
@@ -1975,7 +2185,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1985,7 +2195,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PV_utility_systems</t>
+          <t>WTG_offshore</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -1995,7 +2205,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -2006,88 +2216,27 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>53555.51607579708</v>
+        <v>10271.8</v>
       </c>
       <c r="K12" t="n">
-        <v>227017807.7274436</v>
+        <v>263186052.2797029</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>110357111.5606221</v>
       </c>
       <c r="N12" t="n">
-        <v>50877740.2720072</v>
+        <v>40873004.28171189</v>
       </c>
       <c r="O12" t="n">
-        <v>1831210598.874818</v>
+        <v>1517259559.244995</v>
       </c>
       <c r="P12" t="n">
-        <v>1604192791.147375</v>
+        <v>1143716395.40467</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.9923728743579</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>WTG_offshore</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>7</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>10271.8</v>
-      </c>
-      <c r="K13" t="n">
-        <v>263186052.2797029</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="M13" t="n">
-        <v>110357111.5606221</v>
-      </c>
-      <c r="N13" t="n">
-        <v>40873004.28171189</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1517259559.244995</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1143716395.40467</v>
-      </c>
-      <c r="Q13" t="n">
         <v>37.12131236518557</v>
       </c>
     </row>

--- a/emlabpy/Yearly_results.xlsx
+++ b/emlabpy/Yearly_results.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -660,6 +660,56 @@
       </c>
       <c r="P4" t="n">
         <v>-153300.2632881147</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C5" t="n">
+        <v>544999999.1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20811313152.32112</v>
+      </c>
+      <c r="E5" t="n">
+        <v>38.1858957553916</v>
+      </c>
+      <c r="F5" t="n">
+        <v>11</v>
+      </c>
+      <c r="G5" t="n">
+        <v>222307.2994627971</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.560297453063297</v>
+      </c>
+      <c r="J5" t="n">
+        <v>97504.61057238668</v>
+      </c>
+      <c r="K5" t="n">
+        <v>17769.20341851865</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.1822396224568984</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>711988264.0362152</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -673,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB4"/>
+  <dimension ref="A1:BB5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1437,6 +1487,170 @@
         <v>0</v>
       </c>
       <c r="BB4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4644.4034</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25208582.8382924</v>
+      </c>
+      <c r="E5" t="n">
+        <v>954932128.661841</v>
+      </c>
+      <c r="F5" t="n">
+        <v>37.88123016623044</v>
+      </c>
+      <c r="G5" t="n">
+        <v>24845.77</v>
+      </c>
+      <c r="H5" t="n">
+        <v>59003.61621933627</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3332129.912351787</v>
+      </c>
+      <c r="J5" t="n">
+        <v>56.47331682121212</v>
+      </c>
+      <c r="K5" t="n">
+        <v>31358.329</v>
+      </c>
+      <c r="L5" t="n">
+        <v>217108263.1152519</v>
+      </c>
+      <c r="M5" t="n">
+        <v>8460882562.993628</v>
+      </c>
+      <c r="N5" t="n">
+        <v>38.97079936797324</v>
+      </c>
+      <c r="O5" t="n">
+        <v>8194.3025</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1007081.087896536</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>53413355.2968122</v>
+      </c>
+      <c r="R5" t="n">
+        <v>53.03779004367492</v>
+      </c>
+      <c r="S5" t="n">
+        <v>8858.749999999998</v>
+      </c>
+      <c r="T5" t="n">
+        <v>18624635.99999999</v>
+      </c>
+      <c r="U5" t="n">
+        <v>705091697.2187846</v>
+      </c>
+      <c r="V5" t="n">
+        <v>37.85801221665675</v>
+      </c>
+      <c r="W5" t="n">
+        <v>8599</v>
+      </c>
+      <c r="X5" t="n">
+        <v>74259244.44886312</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>2846665877.166388</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>38.33416160228613</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>47547.50848700004</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>80823362.9723005</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>2945418492.530766</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>36.44266192610929</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>10271.8</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>40873004.28171189</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>1517259559.244995</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>37.12131236518557</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>53555.51607579708</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>50877740.2720072</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1831210598.874818</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>35.9923728743579</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>20779.02</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>36159080.46745713</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1493106750.420732</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>41.29271903815462</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>3652.9</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" t="n">
         <v>0</v>
       </c>
     </row>

--- a/emlabpy/Yearly_results.xlsx
+++ b/emlabpy/Yearly_results.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -709,6 +709,56 @@
         <v>711988264.0362152</v>
       </c>
       <c r="P5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C6" t="n">
+        <v>544999999.1000001</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15092109076.92337</v>
+      </c>
+      <c r="E6" t="n">
+        <v>27.69194330613967</v>
+      </c>
+      <c r="F6" t="n">
+        <v>115</v>
+      </c>
+      <c r="G6" t="n">
+        <v>326307.2994627971</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.758058101328214</v>
+      </c>
+      <c r="J6" t="n">
+        <v>97814.1034762051</v>
+      </c>
+      <c r="K6" t="n">
+        <v>108050.6009119608</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.104652571275121</v>
+      </c>
+      <c r="M6" t="n">
+        <v>34</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -723,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB5"/>
+  <dimension ref="A1:BB6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1651,6 +1701,170 @@
         <v>0</v>
       </c>
       <c r="BB5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C6" t="n">
+        <v>15644.4034</v>
+      </c>
+      <c r="D6" t="n">
+        <v>81863833.38541569</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2307738001.361345</v>
+      </c>
+      <c r="F6" t="n">
+        <v>28.1899577130293</v>
+      </c>
+      <c r="G6" t="n">
+        <v>24845.77</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>42358.329</v>
+      </c>
+      <c r="L6" t="n">
+        <v>116155690.9616435</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4371068692.000324</v>
+      </c>
+      <c r="N6" t="n">
+        <v>37.63111954147579</v>
+      </c>
+      <c r="O6" t="n">
+        <v>24194.3025</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>8858.749999999998</v>
+      </c>
+      <c r="T6" t="n">
+        <v>18624635.99999999</v>
+      </c>
+      <c r="U6" t="n">
+        <v>506842996.759607</v>
+      </c>
+      <c r="V6" t="n">
+        <v>27.21357865783832</v>
+      </c>
+      <c r="W6" t="n">
+        <v>8599</v>
+      </c>
+      <c r="X6" t="n">
+        <v>57322460.63826074</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1988214841.824931</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>34.68474346158592</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>69547.50848700004</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>116944315.5701335</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>2389435899.803787</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>20.43225348880512</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>21271.8</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>71039854.39782053</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1896322962.838988</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>26.69379011138804</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>86555.51607579709</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>82123852.80118555</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>1596200536.36079</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>19.43650330464947</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>20779.02</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>925355.345540453</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>36285145.97361655</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>39.21212121212121</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>3652.9</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1665,7 +1879,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1805,19 +2019,19 @@
         <v>1.9</v>
       </c>
       <c r="M2" t="n">
-        <v>47896307.39275556</v>
+        <v>46579368.38559171</v>
       </c>
       <c r="N2" t="n">
-        <v>25208582.8382924</v>
+        <v>24515457.04504827</v>
       </c>
       <c r="O2" t="n">
-        <v>954932128.661841</v>
+        <v>685508798.8436694</v>
       </c>
       <c r="P2" t="n">
-        <v>711988264.0362153</v>
+        <v>443881873.2252074</v>
       </c>
       <c r="Q2" t="n">
-        <v>37.88123016623044</v>
+        <v>27.96230955776251</v>
       </c>
     </row>
     <row r="3">
@@ -1870,19 +2084,19 @@
         <v>4.2</v>
       </c>
       <c r="M3" t="n">
-        <v>7488169619.082788</v>
+        <v>2965882257.372289</v>
       </c>
       <c r="N3" t="n">
-        <v>217108263.1152519</v>
+        <v>85991314.06712343</v>
       </c>
       <c r="O3" t="n">
-        <v>8460882562.993628</v>
+        <v>3235949419.188509</v>
       </c>
       <c r="P3" t="n">
-        <v>760921683.3949952</v>
+        <v>58275901.30037645</v>
       </c>
       <c r="Q3" t="n">
-        <v>38.97079936797324</v>
+        <v>37.63111954147578</v>
       </c>
     </row>
     <row r="4">
@@ -1931,19 +2145,19 @@
         <v>1.35</v>
       </c>
       <c r="M4" t="n">
-        <v>109111540.0126057</v>
+        <v>108474523.6176992</v>
       </c>
       <c r="N4" t="n">
-        <v>80823362.9723005</v>
+        <v>80351498.9760735</v>
       </c>
       <c r="O4" t="n">
-        <v>2945418492.530766</v>
+        <v>1634124707.259319</v>
       </c>
       <c r="P4" t="n">
-        <v>2548130279.139367</v>
+        <v>1237473510.262826</v>
       </c>
       <c r="Q4" t="n">
-        <v>36.44266192610929</v>
+        <v>20.33720251747783</v>
       </c>
     </row>
     <row r="5">
@@ -1996,19 +2210,19 @@
         <v>3.5</v>
       </c>
       <c r="M5" t="n">
-        <v>3184620.871803447</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>59003.61621933627</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>3332129.912351787</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>-320677945.3655468</v>
+        <v>-320825454.4060951</v>
       </c>
       <c r="Q5" t="n">
-        <v>56.47331682121212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2017,7 +2231,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>20212100934</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2027,53 +2241,49 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Fuel oil PGT</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>heavy_oil</t>
-        </is>
-      </c>
+          <t>PV_utility_systems</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>TobeDecommissioned</t>
+          <t>Operational</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0.3539907794712127</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>3652.9</v>
+        <v>1000</v>
       </c>
       <c r="K6" t="n">
-        <v>5150718.870612221</v>
+        <v>4673414.642579029</v>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>949046.4261931616</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>18441349.65312885</v>
       </c>
       <c r="P6" t="n">
-        <v>-5150718.870612221</v>
+        <v>13767935.01054982</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>19.43145155406279</v>
       </c>
     </row>
     <row r="7">
@@ -2082,7 +2292,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>20212100977</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2092,7 +2302,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Hydropower_reservoir_medium</t>
+          <t>PV_utility_systems</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -2102,7 +2312,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -2110,13 +2320,13 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0.7811457116585705</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>8858.749999999998</v>
+        <v>1000</v>
       </c>
       <c r="K7" t="n">
-        <v>7384220.949805131</v>
+        <v>4673414.642579029</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -2125,16 +2335,16 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>18624635.99999999</v>
+        <v>949999.9999999994</v>
       </c>
       <c r="O7" t="n">
-        <v>705091697.2187846</v>
+        <v>18441349.65312885</v>
       </c>
       <c r="P7" t="n">
-        <v>697707476.2689794</v>
+        <v>13767935.01054982</v>
       </c>
       <c r="Q7" t="n">
-        <v>37.85801221665675</v>
+        <v>19.41194700329354</v>
       </c>
     </row>
     <row r="8">
@@ -2143,7 +2353,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20212101021</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2153,21 +2363,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Lignite PSC</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>lignite</t>
-        </is>
-      </c>
+          <t>PV_utility_systems</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -2175,31 +2381,31 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0.360040798965821</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>20779.02</v>
+        <v>1000</v>
       </c>
       <c r="K8" t="n">
-        <v>190684909.5157455</v>
+        <v>4673414.642579029</v>
       </c>
       <c r="L8" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1345556085.273859</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>36159080.46745713</v>
+        <v>949999.9999999994</v>
       </c>
       <c r="O8" t="n">
-        <v>1493106750.420732</v>
+        <v>18441349.65312885</v>
       </c>
       <c r="P8" t="n">
-        <v>-43134244.36887294</v>
+        <v>13767935.01054982</v>
       </c>
       <c r="Q8" t="n">
-        <v>41.29271903815462</v>
+        <v>19.41194700329354</v>
       </c>
     </row>
     <row r="9">
@@ -2208,7 +2414,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>20212101066</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2218,21 +2424,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Nuclear</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>nuclear</t>
-        </is>
-      </c>
+          <t>PV_utility_systems</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -2240,31 +2442,31 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>8599</v>
+        <v>1000</v>
       </c>
       <c r="K9" t="n">
-        <v>165046505.4929781</v>
+        <v>4673414.642579029</v>
       </c>
       <c r="L9" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>450056026.9628067</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>74259244.44886312</v>
+        <v>947376.5918944274</v>
       </c>
       <c r="O9" t="n">
-        <v>2846665877.166388</v>
+        <v>18441349.65312885</v>
       </c>
       <c r="P9" t="n">
-        <v>2231563344.710603</v>
+        <v>13767935.01054982</v>
       </c>
       <c r="Q9" t="n">
-        <v>38.33416160228613</v>
+        <v>19.46570119096197</v>
       </c>
     </row>
     <row r="10">
@@ -2273,7 +2475,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>20212101112</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2283,53 +2485,49 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>OCGT</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>natural_gas</t>
-        </is>
-      </c>
+          <t>PV_utility_systems</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>TobeDecommissioned</t>
+          <t>Operational</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0.3741421697393409</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>8194.3025</v>
+        <v>1000</v>
       </c>
       <c r="K10" t="n">
-        <v>15418557.38030332</v>
+        <v>4673414.642579029</v>
       </c>
       <c r="L10" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>49274830.62694587</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1007081.087896536</v>
+        <v>949999.9999999994</v>
       </c>
       <c r="O10" t="n">
-        <v>53413355.2968122</v>
+        <v>18441349.65312885</v>
       </c>
       <c r="P10" t="n">
-        <v>-11280032.71043699</v>
+        <v>13767935.01054982</v>
       </c>
       <c r="Q10" t="n">
-        <v>53.03779004367492</v>
+        <v>19.41194700329354</v>
       </c>
     </row>
     <row r="11">
@@ -2338,7 +2536,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>20212101159</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2358,7 +2556,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -2369,10 +2567,10 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>53555.51607579708</v>
+        <v>1000</v>
       </c>
       <c r="K11" t="n">
-        <v>227017807.7274436</v>
+        <v>4673414.642579029</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -2381,16 +2579,16 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>50877740.2720072</v>
+        <v>949999.9999999994</v>
       </c>
       <c r="O11" t="n">
-        <v>1831210598.874818</v>
+        <v>18441349.65312885</v>
       </c>
       <c r="P11" t="n">
-        <v>1604192791.147375</v>
+        <v>13767935.01054982</v>
       </c>
       <c r="Q11" t="n">
-        <v>35.9923728743579</v>
+        <v>19.41194700329354</v>
       </c>
     </row>
     <row r="12">
@@ -2399,7 +2597,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>20212101207</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2409,7 +2607,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>WTG_offshore</t>
+          <t>PV_utility_systems</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2419,7 +2617,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -2430,28 +2628,6540 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4673414.642579029</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>946277.3707345148</v>
+      </c>
+      <c r="O12" t="n">
+        <v>18441349.65312885</v>
+      </c>
+      <c r="P12" t="n">
+        <v>13767935.01054982</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>19.48831307126619</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>20212101256</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>PV_utility_systems</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>9</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4673414.642579029</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>949999.9999999994</v>
+      </c>
+      <c r="O13" t="n">
+        <v>18441349.65312885</v>
+      </c>
+      <c r="P13" t="n">
+        <v>13767935.01054982</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>19.41194700329354</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>20212101306</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>PV_utility_systems</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>9</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4673414.642579029</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>949999.9999999994</v>
+      </c>
+      <c r="O14" t="n">
+        <v>18441349.65312885</v>
+      </c>
+      <c r="P14" t="n">
+        <v>13767935.01054982</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>19.41194700329354</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>20212101357</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>PV_utility_systems</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>9</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4673414.642579029</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>941438.6579524667</v>
+      </c>
+      <c r="O15" t="n">
+        <v>18441349.65312885</v>
+      </c>
+      <c r="P15" t="n">
+        <v>13767935.01054982</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>19.5884771645525</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>20212101409</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>PV_utility_systems</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>9</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4673414.642579029</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>949999.9999999994</v>
+      </c>
+      <c r="O16" t="n">
+        <v>18441349.65312885</v>
+      </c>
+      <c r="P16" t="n">
+        <v>13767935.01054982</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>19.41194700329354</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>20222101409</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>PV_utility_systems</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>8</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4907085.374707981</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>949999.9999999994</v>
+      </c>
+      <c r="O17" t="n">
+        <v>18441349.65312885</v>
+      </c>
+      <c r="P17" t="n">
+        <v>13534264.27842087</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>19.41194700329354</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>20222101415</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>PV_utility_systems</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>8</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4907085.374707981</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>937604.0977971556</v>
+      </c>
+      <c r="O18" t="n">
+        <v>18441349.65312885</v>
+      </c>
+      <c r="P18" t="n">
+        <v>13534264.27842087</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>19.66858900942913</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>20222101419</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>PV_utility_systems</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>8</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4907085.374707981</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>949999.9999999994</v>
+      </c>
+      <c r="O19" t="n">
+        <v>18441349.65312885</v>
+      </c>
+      <c r="P19" t="n">
+        <v>13534264.27842087</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>19.41194700329354</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>20222101424</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>PV_utility_systems</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>8</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4907085.374707981</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>943326.6627942568</v>
+      </c>
+      <c r="O20" t="n">
+        <v>18441349.65312885</v>
+      </c>
+      <c r="P20" t="n">
+        <v>13534264.27842087</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>19.54927214556108</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>20222101430</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>PV_utility_systems</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>8</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K21" t="n">
+        <v>4907085.374707981</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>949999.9999999994</v>
+      </c>
+      <c r="O21" t="n">
+        <v>18441349.65312885</v>
+      </c>
+      <c r="P21" t="n">
+        <v>13534264.27842087</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>19.41194700329354</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>20222101437</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>PV_utility_systems</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>8</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K22" t="n">
+        <v>4907085.374707981</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>944492.5740727638</v>
+      </c>
+      <c r="O22" t="n">
+        <v>18441349.65312885</v>
+      </c>
+      <c r="P22" t="n">
+        <v>13534264.27842087</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>19.52513991042573</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>20222101445</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>PV_utility_systems</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>8</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K23" t="n">
+        <v>4907085.374707981</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>938328.0323345304</v>
+      </c>
+      <c r="O23" t="n">
+        <v>18441349.65312885</v>
+      </c>
+      <c r="P23" t="n">
+        <v>13534264.27842087</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>19.65341438989876</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>20222101454</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>PV_utility_systems</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>8</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K24" t="n">
+        <v>4907085.374707981</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>949999.9999999994</v>
+      </c>
+      <c r="O24" t="n">
+        <v>18441349.65312885</v>
+      </c>
+      <c r="P24" t="n">
+        <v>13534264.27842087</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>19.41194700329354</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>20222101464</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>PV_utility_systems</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>8</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K25" t="n">
+        <v>4907085.374707981</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>939131.0895242204</v>
+      </c>
+      <c r="O25" t="n">
+        <v>18441349.65312885</v>
+      </c>
+      <c r="P25" t="n">
+        <v>13534264.27842087</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>19.63660862560896</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>20222101475</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>PV_utility_systems</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>8</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4907085.374707981</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>949999.9999999994</v>
+      </c>
+      <c r="O26" t="n">
+        <v>18441349.65312885</v>
+      </c>
+      <c r="P26" t="n">
+        <v>13534264.27842087</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>19.41194700329354</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>20222101487</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>PV_utility_systems</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>8</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K27" t="n">
+        <v>4907085.374707981</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>949999.9999999994</v>
+      </c>
+      <c r="O27" t="n">
+        <v>18441349.65312885</v>
+      </c>
+      <c r="P27" t="n">
+        <v>13534264.27842087</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>19.41194700329354</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>20222400527</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>WTG_onshore</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>8</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K28" t="n">
+        <v>8528175.961561456</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2261029.933924748</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1674836.988092406</v>
+      </c>
+      <c r="O28" t="n">
+        <v>34347888.57676506</v>
+      </c>
+      <c r="P28" t="n">
+        <v>23558682.68127885</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>20.50819800432421</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>20222400559</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>WTG_onshore</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>8</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K29" t="n">
+        <v>8528175.961561456</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2234190.423187745</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1654955.869027959</v>
+      </c>
+      <c r="O29" t="n">
+        <v>34321049.06602806</v>
+      </c>
+      <c r="P29" t="n">
+        <v>23558682.68127886</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>20.73834699059774</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>20222400592</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>WTG_onshore</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>8</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K30" t="n">
+        <v>8528175.961561456</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2289196.726539414</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1695701.278918084</v>
+      </c>
+      <c r="O30" t="n">
+        <v>34376055.36937972</v>
+      </c>
+      <c r="P30" t="n">
+        <v>23558682.68127885</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>20.27247121693086</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>20222400626</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>WTG_onshore</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>8</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K31" t="n">
+        <v>8528175.961561456</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2210361.13967353</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1637304.547906318</v>
+      </c>
+      <c r="O31" t="n">
+        <v>34297219.78251384</v>
+      </c>
+      <c r="P31" t="n">
+        <v>23558682.68127885</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>20.94736732171847</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>20222400661</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>WTG_onshore</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>8</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K32" t="n">
+        <v>8528175.961561456</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2215695.467625173</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1641255.901944572</v>
+      </c>
+      <c r="O32" t="n">
+        <v>34302554.11046548</v>
+      </c>
+      <c r="P32" t="n">
+        <v>23558682.68127885</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>20.9001862962525</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>20222400697</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>WTG_onshore</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>8</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K33" t="n">
+        <v>8528175.961561456</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2219722.446912363</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1644238.849564713</v>
+      </c>
+      <c r="O33" t="n">
+        <v>34306581.08975267</v>
+      </c>
+      <c r="P33" t="n">
+        <v>23558682.68127885</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>20.86471871093108</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>20222400734</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>WTG_onshore</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>8</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K34" t="n">
+        <v>8528175.961561456</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2250238.289435887</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1666843.177359917</v>
+      </c>
+      <c r="O34" t="n">
+        <v>34337096.9322762</v>
+      </c>
+      <c r="P34" t="n">
+        <v>23558682.68127885</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>20.60007647909752</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>20222400772</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>WTG_onshore</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>8</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K35" t="n">
+        <v>8528175.961561456</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2261516.076974005</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1675197.094054819</v>
+      </c>
+      <c r="O35" t="n">
+        <v>34348374.71981432</v>
+      </c>
+      <c r="P35" t="n">
+        <v>23558682.68127885</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>20.50407969409378</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>20222400811</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>WTG_onshore</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>8</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K36" t="n">
+        <v>8528175.961561456</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2253645.760742275</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1669367.230179463</v>
+      </c>
+      <c r="O36" t="n">
+        <v>34340504.40358259</v>
+      </c>
+      <c r="P36" t="n">
+        <v>23558682.68127886</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>20.57097071438911</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>20222400851</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>WTG_onshore</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>8</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K37" t="n">
+        <v>8528175.961561456</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2254404.748999371</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1669929.443703238</v>
+      </c>
+      <c r="O37" t="n">
+        <v>34341263.39183968</v>
+      </c>
+      <c r="P37" t="n">
+        <v>23558682.68127885</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>20.56449960884841</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>20222400892</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>WTG_onshore</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>8</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K38" t="n">
+        <v>8528175.961561456</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2224538.382520306</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1647806.209274301</v>
+      </c>
+      <c r="O38" t="n">
+        <v>34311397.02536061</v>
+      </c>
+      <c r="P38" t="n">
+        <v>23558682.68127885</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>20.82247101160729</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>20230300031</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>CCGT</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>natural_gas</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>7</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K39" t="n">
+        <v>19756940.97761738</v>
+      </c>
+      <c r="L39" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="M39" t="n">
+        <v>94580366.7463368</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2742216.081320003</v>
+      </c>
+      <c r="O39" t="n">
+        <v>103192661.1647103</v>
+      </c>
+      <c r="P39" t="n">
+        <v>-11144646.55924387</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>37.63111954147578</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>20230300032</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>CCGT</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>natural_gas</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>7</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K40" t="n">
+        <v>19756940.97761738</v>
+      </c>
+      <c r="L40" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="M40" t="n">
+        <v>94580366.7463368</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2742216.081320003</v>
+      </c>
+      <c r="O40" t="n">
+        <v>103192661.1647103</v>
+      </c>
+      <c r="P40" t="n">
+        <v>-11144646.55924387</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>37.63111954147578</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>20230300034</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>CCGT</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>natural_gas</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>7</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K41" t="n">
+        <v>19756940.97761738</v>
+      </c>
+      <c r="L41" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="M41" t="n">
+        <v>94580366.7463368</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2742216.081320003</v>
+      </c>
+      <c r="O41" t="n">
+        <v>103192661.1647103</v>
+      </c>
+      <c r="P41" t="n">
+        <v>-11144646.55924387</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>37.63111954147578</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>20230300037</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>CCGT</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>natural_gas</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>7</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K42" t="n">
+        <v>19756940.97761738</v>
+      </c>
+      <c r="L42" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="M42" t="n">
+        <v>94580366.7463368</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2742216.081320003</v>
+      </c>
+      <c r="O42" t="n">
+        <v>103192661.1647103</v>
+      </c>
+      <c r="P42" t="n">
+        <v>-11144646.55924387</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>37.63111954147578</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>20230300041</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>CCGT</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>natural_gas</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>7</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K43" t="n">
+        <v>19756940.97761738</v>
+      </c>
+      <c r="L43" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="M43" t="n">
+        <v>94580366.7463368</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2742216.081320003</v>
+      </c>
+      <c r="O43" t="n">
+        <v>103192661.1647103</v>
+      </c>
+      <c r="P43" t="n">
+        <v>-11144646.55924387</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>37.63111954147578</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>20230300046</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>CCGT</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>natural_gas</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>7</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K44" t="n">
+        <v>19756940.97761738</v>
+      </c>
+      <c r="L44" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="M44" t="n">
+        <v>94580366.7463368</v>
+      </c>
+      <c r="N44" t="n">
+        <v>2742216.081320003</v>
+      </c>
+      <c r="O44" t="n">
+        <v>103192661.1647103</v>
+      </c>
+      <c r="P44" t="n">
+        <v>-11144646.55924387</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>37.63111954147578</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>20230300052</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>CCGT</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>natural_gas</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>7</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K45" t="n">
+        <v>19756940.97761738</v>
+      </c>
+      <c r="L45" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="M45" t="n">
+        <v>94580366.7463368</v>
+      </c>
+      <c r="N45" t="n">
+        <v>2742216.081320003</v>
+      </c>
+      <c r="O45" t="n">
+        <v>103192661.1647103</v>
+      </c>
+      <c r="P45" t="n">
+        <v>-11144646.55924387</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>37.63111954147578</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>20230300059</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>CCGT</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>natural_gas</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>7</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K46" t="n">
+        <v>19756940.97761738</v>
+      </c>
+      <c r="L46" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="M46" t="n">
+        <v>94580366.7463368</v>
+      </c>
+      <c r="N46" t="n">
+        <v>2742216.081320003</v>
+      </c>
+      <c r="O46" t="n">
+        <v>103192661.1647103</v>
+      </c>
+      <c r="P46" t="n">
+        <v>-11144646.55924387</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>37.63111954147578</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>20230300067</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>CCGT</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>natural_gas</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>7</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K47" t="n">
+        <v>19756940.97761738</v>
+      </c>
+      <c r="L47" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="M47" t="n">
+        <v>94580366.7463368</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2742216.081320003</v>
+      </c>
+      <c r="O47" t="n">
+        <v>103192661.1647103</v>
+      </c>
+      <c r="P47" t="n">
+        <v>-11144646.55924387</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>37.63111954147578</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>20230300076</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>CCGT</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>natural_gas</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>7</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K48" t="n">
+        <v>19756940.97761738</v>
+      </c>
+      <c r="L48" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="M48" t="n">
+        <v>94580366.7463368</v>
+      </c>
+      <c r="N48" t="n">
+        <v>2742216.081320003</v>
+      </c>
+      <c r="O48" t="n">
+        <v>103192661.1647103</v>
+      </c>
+      <c r="P48" t="n">
+        <v>-11144646.55924387</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>37.63111954147578</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>20230300086</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>CCGT</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>natural_gas</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>7</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K49" t="n">
+        <v>19756940.97761738</v>
+      </c>
+      <c r="L49" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="M49" t="n">
+        <v>94580366.7463368</v>
+      </c>
+      <c r="N49" t="n">
+        <v>2742216.081320003</v>
+      </c>
+      <c r="O49" t="n">
+        <v>103192661.1647103</v>
+      </c>
+      <c r="P49" t="n">
+        <v>-11144646.55924387</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>37.63111954147578</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>20231700097</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>OCGT</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>natural_gas</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>7</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K50" t="n">
+        <v>5504226.90185779</v>
+      </c>
+      <c r="L50" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>-5504226.90185779</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>20231700109</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>OCGT</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>natural_gas</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>7</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K51" t="n">
+        <v>5504226.90185779</v>
+      </c>
+      <c r="L51" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>-5504226.90185779</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>20231700122</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>OCGT</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>natural_gas</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>7</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K52" t="n">
+        <v>5504226.90185779</v>
+      </c>
+      <c r="L52" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>-5504226.90185779</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>20231700136</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>OCGT</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>natural_gas</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>7</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K53" t="n">
+        <v>5504226.90185779</v>
+      </c>
+      <c r="L53" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>-5504226.90185779</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>20231700151</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>OCGT</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>natural_gas</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>7</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K54" t="n">
+        <v>5504226.90185779</v>
+      </c>
+      <c r="L54" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>-5504226.90185779</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>20231700167</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>OCGT</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>natural_gas</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>7</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K55" t="n">
+        <v>5504226.90185779</v>
+      </c>
+      <c r="L55" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>-5504226.90185779</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>20231700184</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>OCGT</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>natural_gas</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>7</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K56" t="n">
+        <v>5504226.90185779</v>
+      </c>
+      <c r="L56" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>-5504226.90185779</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>20231700202</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>OCGT</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>natural_gas</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>7</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K57" t="n">
+        <v>5504226.90185779</v>
+      </c>
+      <c r="L57" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>-5504226.90185779</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>20231700221</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>OCGT</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>natural_gas</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>7</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K58" t="n">
+        <v>5504226.90185779</v>
+      </c>
+      <c r="L58" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>-5504226.90185779</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>20231700241</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>OCGT</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>natural_gas</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>7</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K59" t="n">
+        <v>5504226.90185779</v>
+      </c>
+      <c r="L59" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>-5504226.90185779</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>20231700262</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>OCGT</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>natural_gas</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>7</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K60" t="n">
+        <v>5504226.90185779</v>
+      </c>
+      <c r="L60" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>-5504226.90185779</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>20232101740</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>PV_utility_systems</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>7</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K61" t="n">
+        <v>5152439.64344338</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>949999.9999999994</v>
+      </c>
+      <c r="O61" t="n">
+        <v>18441349.65312885</v>
+      </c>
+      <c r="P61" t="n">
+        <v>13288910.00968547</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>19.41194700329354</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>20232101763</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>PV_utility_systems</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>7</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K62" t="n">
+        <v>5152439.64344338</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>940655.5049153212</v>
+      </c>
+      <c r="O62" t="n">
+        <v>18441349.65312885</v>
+      </c>
+      <c r="P62" t="n">
+        <v>13288910.00968547</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>19.60478576563368</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>20232101787</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>PV_utility_systems</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>7</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K63" t="n">
+        <v>5152439.64344338</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>949999.9999999994</v>
+      </c>
+      <c r="O63" t="n">
+        <v>18441349.65312885</v>
+      </c>
+      <c r="P63" t="n">
+        <v>13288910.00968547</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>19.41194700329354</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>20232101812</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>PV_utility_systems</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>7</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K64" t="n">
+        <v>5152439.64344338</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>933572.5832845876</v>
+      </c>
+      <c r="O64" t="n">
+        <v>18441349.65312885</v>
+      </c>
+      <c r="P64" t="n">
+        <v>13288910.00968547</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>19.75352531052986</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>20232101838</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>PV_utility_systems</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>7</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K65" t="n">
+        <v>5152439.64344338</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>949999.9999999994</v>
+      </c>
+      <c r="O65" t="n">
+        <v>18441349.65312885</v>
+      </c>
+      <c r="P65" t="n">
+        <v>13288910.00968547</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>19.41194700329354</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>20232101865</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>PV_utility_systems</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>7</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K66" t="n">
+        <v>5152439.64344338</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>935191.3300048992</v>
+      </c>
+      <c r="O66" t="n">
+        <v>18441349.65312885</v>
+      </c>
+      <c r="P66" t="n">
+        <v>13288910.00968547</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>19.71933342563413</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>20232101893</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>PV_utility_systems</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>7</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K67" t="n">
+        <v>5152439.64344338</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>949999.9999999994</v>
+      </c>
+      <c r="O67" t="n">
+        <v>18441349.65312885</v>
+      </c>
+      <c r="P67" t="n">
+        <v>13288910.00968547</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>19.41194700329354</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>20232101922</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>PV_utility_systems</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>7</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K68" t="n">
+        <v>5152439.64344338</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>949671.6076760548</v>
+      </c>
+      <c r="O68" t="n">
+        <v>18441349.65312885</v>
+      </c>
+      <c r="P68" t="n">
+        <v>13288910.00968547</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>19.41865957039271</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>20232101952</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>PV_utility_systems</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>7</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K69" t="n">
+        <v>5152439.64344338</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>949999.9999999994</v>
+      </c>
+      <c r="O69" t="n">
+        <v>18441349.65312885</v>
+      </c>
+      <c r="P69" t="n">
+        <v>13288910.00968547</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>19.41194700329354</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>20232101983</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>PV_utility_systems</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>7</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K70" t="n">
+        <v>5152439.64344338</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>949999.9999999994</v>
+      </c>
+      <c r="O70" t="n">
+        <v>18441349.65312885</v>
+      </c>
+      <c r="P70" t="n">
+        <v>13288910.00968547</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>19.41194700329354</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>20232102015</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>PV_utility_systems</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>7</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K71" t="n">
+        <v>5152439.64344338</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>949999.9999999994</v>
+      </c>
+      <c r="O71" t="n">
+        <v>18441349.65312885</v>
+      </c>
+      <c r="P71" t="n">
+        <v>13288910.00968547</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>19.41194700329354</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>20240100284</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Biomass_CHP_wood_pellets_DH</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>wood_pellets</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>6</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K72" t="n">
+        <v>87307201.40648541</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M72" t="n">
+        <v>9769959.818772372</v>
+      </c>
+      <c r="N72" t="n">
+        <v>5142084.115143353</v>
+      </c>
+      <c r="O72" t="n">
+        <v>147339713.2252248</v>
+      </c>
+      <c r="P72" t="n">
+        <v>50262551.99996704</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>28.65369564673432</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>20240100307</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Biomass_CHP_wood_pellets_DH</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>wood_pellets</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>6</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K73" t="n">
+        <v>87307201.40648541</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M73" t="n">
+        <v>9969234.225779785</v>
+      </c>
+      <c r="N73" t="n">
+        <v>5246965.38198936</v>
+      </c>
+      <c r="O73" t="n">
+        <v>147538987.6322322</v>
+      </c>
+      <c r="P73" t="n">
+        <v>50262551.99996707</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>28.11891767738205</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>20240100331</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Biomass_CHP_wood_pellets_DH</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>wood_pellets</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>6</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K74" t="n">
+        <v>87307201.40648541</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M74" t="n">
+        <v>9730706.17188108</v>
+      </c>
+      <c r="N74" t="n">
+        <v>5121424.300990041</v>
+      </c>
+      <c r="O74" t="n">
+        <v>147300459.5783335</v>
+      </c>
+      <c r="P74" t="n">
+        <v>50262551.99996704</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>28.76161999501942</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>20240100356</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Biomass_CHP_wood_pellets_DH</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>wood_pellets</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>6</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K75" t="n">
+        <v>87307201.40648541</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M75" t="n">
+        <v>9926151.876014931</v>
+      </c>
+      <c r="N75" t="n">
+        <v>5224290.461060491</v>
+      </c>
+      <c r="O75" t="n">
+        <v>147495905.2824674</v>
+      </c>
+      <c r="P75" t="n">
+        <v>50262551.99996707</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>28.23271530973162</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>20240100382</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Biomass_CHP_wood_pellets_DH</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>wood_pellets</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>6</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K76" t="n">
+        <v>87307201.40648541</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M76" t="n">
+        <v>9809973.734413739</v>
+      </c>
+      <c r="N76" t="n">
+        <v>5163144.070744075</v>
+      </c>
+      <c r="O76" t="n">
+        <v>147379727.1408662</v>
+      </c>
+      <c r="P76" t="n">
+        <v>50262551.99996704</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>28.54456995999085</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>20240100409</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Biomass_CHP_wood_pellets_DH</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>wood_pellets</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>6</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K77" t="n">
+        <v>87307201.40648541</v>
+      </c>
+      <c r="L77" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M77" t="n">
+        <v>10099562.56102872</v>
+      </c>
+      <c r="N77" t="n">
+        <v>5315559.242646694</v>
+      </c>
+      <c r="O77" t="n">
+        <v>147669315.9674812</v>
+      </c>
+      <c r="P77" t="n">
+        <v>50262551.99996704</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>27.78057946993259</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>20240100437</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Biomass_CHP_wood_pellets_DH</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>wood_pellets</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>6</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K78" t="n">
+        <v>87307201.40648541</v>
+      </c>
+      <c r="L78" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M78" t="n">
+        <v>9950230.088843094</v>
+      </c>
+      <c r="N78" t="n">
+        <v>5236963.204654261</v>
+      </c>
+      <c r="O78" t="n">
+        <v>147519983.4952956</v>
+      </c>
+      <c r="P78" t="n">
+        <v>50262551.99996704</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>28.16899369546643</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>20240100466</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Biomass_CHP_wood_pellets_DH</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>wood_pellets</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>6</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K79" t="n">
+        <v>87307201.40648541</v>
+      </c>
+      <c r="L79" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M79" t="n">
+        <v>9844549.234787846</v>
+      </c>
+      <c r="N79" t="n">
+        <v>5181341.702519919</v>
+      </c>
+      <c r="O79" t="n">
+        <v>147414302.6412403</v>
+      </c>
+      <c r="P79" t="n">
+        <v>50262551.99996704</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>28.45099032351912</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>20240100496</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Biomass_CHP_wood_pellets_DH</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>wood_pellets</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>6</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K80" t="n">
+        <v>87307201.40648541</v>
+      </c>
+      <c r="L80" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M80" t="n">
+        <v>9903490.554368677</v>
+      </c>
+      <c r="N80" t="n">
+        <v>5212363.449667726</v>
+      </c>
+      <c r="O80" t="n">
+        <v>147473243.9608211</v>
+      </c>
+      <c r="P80" t="n">
+        <v>50262551.99996704</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>28.29297023986732</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>20242401487</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>WTG_onshore</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>6</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K81" t="n">
+        <v>9402313.997621506</v>
+      </c>
+      <c r="L81" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M81" t="n">
+        <v>2256847.292148401</v>
+      </c>
+      <c r="N81" t="n">
+        <v>1671738.734924741</v>
+      </c>
+      <c r="O81" t="n">
+        <v>34343705.93498871</v>
+      </c>
+      <c r="P81" t="n">
+        <v>22684544.6452188</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>20.5437041192533</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>20242401488</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>WTG_onshore</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>6</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K82" t="n">
+        <v>9402313.997621506</v>
+      </c>
+      <c r="L82" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M82" t="n">
+        <v>2241532.867012078</v>
+      </c>
+      <c r="N82" t="n">
+        <v>1660394.716305243</v>
+      </c>
+      <c r="O82" t="n">
+        <v>34328391.50985239</v>
+      </c>
+      <c r="P82" t="n">
+        <v>22684544.6452188</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>20.67483783990887</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>20242401578</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>WTG_onshore</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>6</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K83" t="n">
+        <v>9402313.997621506</v>
+      </c>
+      <c r="L83" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2229350.420452823</v>
+      </c>
+      <c r="N83" t="n">
+        <v>1651370.681816906</v>
+      </c>
+      <c r="O83" t="n">
+        <v>34316209.06329313</v>
+      </c>
+      <c r="P83" t="n">
+        <v>22684544.6452188</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>20.78043981351118</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>20242401592</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>WTG_onshore</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>6</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K84" t="n">
+        <v>9402313.997621506</v>
+      </c>
+      <c r="L84" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M84" t="n">
+        <v>2256131.897664619</v>
+      </c>
+      <c r="N84" t="n">
+        <v>1671208.813084903</v>
+      </c>
+      <c r="O84" t="n">
+        <v>34342990.54050493</v>
+      </c>
+      <c r="P84" t="n">
+        <v>22684544.64521881</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>20.54979023064797</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>20242401607</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>WTG_onshore</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>6</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K85" t="n">
+        <v>9402313.997621506</v>
+      </c>
+      <c r="L85" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M85" t="n">
+        <v>2256920.500653014</v>
+      </c>
+      <c r="N85" t="n">
+        <v>1671792.963446677</v>
+      </c>
+      <c r="O85" t="n">
+        <v>34343779.14349332</v>
+      </c>
+      <c r="P85" t="n">
+        <v>22684544.6452188</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>20.54308152648756</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>20242401623</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>WTG_onshore</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>6</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K86" t="n">
+        <v>9402313.997621506</v>
+      </c>
+      <c r="L86" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M86" t="n">
+        <v>2239558.700041581</v>
+      </c>
+      <c r="N86" t="n">
+        <v>1658932.370401171</v>
+      </c>
+      <c r="O86" t="n">
+        <v>34326417.34288189</v>
+      </c>
+      <c r="P86" t="n">
+        <v>22684544.6452188</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>20.69187264974576</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>20242401640</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>WTG_onshore</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>6</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K87" t="n">
+        <v>9402313.997621506</v>
+      </c>
+      <c r="L87" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2237818.577513038</v>
+      </c>
+      <c r="N87" t="n">
+        <v>1657643.390750399</v>
+      </c>
+      <c r="O87" t="n">
+        <v>34324677.22035335</v>
+      </c>
+      <c r="P87" t="n">
+        <v>22684544.6452188</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>20.70691284499672</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>20242401658</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>WTG_onshore</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>6</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K88" t="n">
+        <v>9402313.997621506</v>
+      </c>
+      <c r="L88" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2247407.636689803</v>
+      </c>
+      <c r="N88" t="n">
+        <v>1664746.397548001</v>
+      </c>
+      <c r="O88" t="n">
+        <v>34334266.27953011</v>
+      </c>
+      <c r="P88" t="n">
+        <v>22684544.6452188</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>20.6243223172616</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>20242401677</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>WTG_onshore</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>6</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K89" t="n">
+        <v>9402313.997621506</v>
+      </c>
+      <c r="L89" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M89" t="n">
+        <v>2257804.085174552</v>
+      </c>
+      <c r="N89" t="n">
+        <v>1672447.470499669</v>
+      </c>
+      <c r="O89" t="n">
+        <v>34344662.72801486</v>
+      </c>
+      <c r="P89" t="n">
+        <v>22684544.6452188</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>20.53557037444882</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>20242401697</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>WTG_onshore</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>6</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K90" t="n">
+        <v>9402313.997621506</v>
+      </c>
+      <c r="L90" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M90" t="n">
+        <v>2258611.961320586</v>
+      </c>
+      <c r="N90" t="n">
+        <v>1673045.897274508</v>
+      </c>
+      <c r="O90" t="n">
+        <v>34345470.6041609</v>
+      </c>
+      <c r="P90" t="n">
+        <v>22684544.6452188</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>20.52870794525824</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>20242401718</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>WTG_onshore</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>6</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K91" t="n">
+        <v>9402313.997621506</v>
+      </c>
+      <c r="L91" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M91" t="n">
+        <v>2243779.06677565</v>
+      </c>
+      <c r="N91" t="n">
+        <v>1662058.567981963</v>
+      </c>
+      <c r="O91" t="n">
+        <v>34330637.70961596</v>
+      </c>
+      <c r="P91" t="n">
+        <v>22684544.6452188</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>20.65549215350426</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>20250101410</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Biomass_CHP_wood_pellets_DH</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>wood_pellets</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>5</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K92" t="n">
+        <v>91672561.47680968</v>
+      </c>
+      <c r="L92" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M92" t="n">
+        <v>9873404.948821127</v>
+      </c>
+      <c r="N92" t="n">
+        <v>5196528.920432174</v>
+      </c>
+      <c r="O92" t="n">
+        <v>147443158.3552736</v>
+      </c>
+      <c r="P92" t="n">
+        <v>45897191.92964277</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>28.37339320397958</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>20250101412</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Biomass_CHP_wood_pellets_DH</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>wood_pellets</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>5</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K93" t="n">
+        <v>91672561.47680968</v>
+      </c>
+      <c r="L93" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M93" t="n">
+        <v>10084651.83198673</v>
+      </c>
+      <c r="N93" t="n">
+        <v>5307711.490519334</v>
+      </c>
+      <c r="O93" t="n">
+        <v>147654405.2384392</v>
+      </c>
+      <c r="P93" t="n">
+        <v>45897191.9296428</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>27.81884537284673</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>20252301490</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>WTG_offshore</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>5</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K94" t="n">
+        <v>28248468.87968735</v>
+      </c>
+      <c r="L94" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M94" t="n">
+        <v>9441868.592416424</v>
+      </c>
+      <c r="N94" t="n">
+        <v>3496988.367561639</v>
+      </c>
+      <c r="O94" t="n">
+        <v>89572151.68857545</v>
+      </c>
+      <c r="P94" t="n">
+        <v>51881814.21647168</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>25.6140833980045</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>20252301493</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>WTG_offshore</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>5</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K95" t="n">
+        <v>28248468.87968735</v>
+      </c>
+      <c r="L95" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M95" t="n">
+        <v>9508600.54756524</v>
+      </c>
+      <c r="N95" t="n">
+        <v>3521703.906505645</v>
+      </c>
+      <c r="O95" t="n">
+        <v>89638883.64372428</v>
+      </c>
+      <c r="P95" t="n">
+        <v>51881814.21647169</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>25.45327092324097</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>20252301497</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>WTG_offshore</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>5</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K96" t="n">
+        <v>28248468.87968735</v>
+      </c>
+      <c r="L96" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M96" t="n">
+        <v>9875055.941552009</v>
+      </c>
+      <c r="N96" t="n">
+        <v>3657428.126500745</v>
+      </c>
+      <c r="O96" t="n">
+        <v>90005339.03771102</v>
+      </c>
+      <c r="P96" t="n">
+        <v>51881814.21647166</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>24.60891531553455</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>20252301502</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>WTG_offshore</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>5</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K97" t="n">
+        <v>28248468.87968735</v>
+      </c>
+      <c r="L97" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M97" t="n">
+        <v>9647265.152626606</v>
+      </c>
+      <c r="N97" t="n">
+        <v>3573061.167639483</v>
+      </c>
+      <c r="O97" t="n">
+        <v>89777548.24878563</v>
+      </c>
+      <c r="P97" t="n">
+        <v>51881814.21647168</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>25.12622763413158</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>20252301508</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>WTG_offshore</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>5</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K98" t="n">
+        <v>28248468.87968735</v>
+      </c>
+      <c r="L98" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M98" t="n">
+        <v>8024437.190176172</v>
+      </c>
+      <c r="N98" t="n">
+        <v>2972013.774139323</v>
+      </c>
+      <c r="O98" t="n">
+        <v>88154720.2863352</v>
+      </c>
+      <c r="P98" t="n">
+        <v>51881814.21647168</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>29.66161228908311</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>20252301515</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>WTG_offshore</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>5</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K99" t="n">
+        <v>28248468.87968735</v>
+      </c>
+      <c r="L99" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M99" t="n">
+        <v>9787771.097637832</v>
+      </c>
+      <c r="N99" t="n">
+        <v>3625100.40653253</v>
+      </c>
+      <c r="O99" t="n">
+        <v>89918054.19379686</v>
+      </c>
+      <c r="P99" t="n">
+        <v>51881814.21647168</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>24.80429342915911</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>20252301523</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>WTG_offshore</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>5</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K100" t="n">
+        <v>28248468.87968735</v>
+      </c>
+      <c r="L100" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M100" t="n">
+        <v>9576965.694687501</v>
+      </c>
+      <c r="N100" t="n">
+        <v>3547024.331365741</v>
+      </c>
+      <c r="O100" t="n">
+        <v>89707248.79084653</v>
+      </c>
+      <c r="P100" t="n">
+        <v>51881814.21647168</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>25.29084675218616</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>20252301532</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>WTG_offshore</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>5</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K101" t="n">
+        <v>28248468.87968735</v>
+      </c>
+      <c r="L101" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M101" t="n">
+        <v>9280443.273198791</v>
+      </c>
+      <c r="N101" t="n">
+        <v>3437201.212295848</v>
+      </c>
+      <c r="O101" t="n">
+        <v>89410726.36935781</v>
+      </c>
+      <c r="P101" t="n">
+        <v>51881814.21647166</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>26.01265414707471</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>20252301542</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>WTG_offshore</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>5</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K102" t="n">
+        <v>28248468.87968735</v>
+      </c>
+      <c r="L102" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M102" t="n">
+        <v>9359792.624220934</v>
+      </c>
+      <c r="N102" t="n">
+        <v>3466589.860822568</v>
+      </c>
+      <c r="O102" t="n">
+        <v>89490075.72037998</v>
+      </c>
+      <c r="P102" t="n">
+        <v>51881814.21647169</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>25.81501686477135</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>20252301553</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>WTG_offshore</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>5</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K103" t="n">
+        <v>28248468.87968735</v>
+      </c>
+      <c r="L103" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M103" t="n">
+        <v>9710984.248792594</v>
+      </c>
+      <c r="N103" t="n">
+        <v>3596660.832886146</v>
+      </c>
+      <c r="O103" t="n">
+        <v>89841267.34495163</v>
+      </c>
+      <c r="P103" t="n">
+        <v>51881814.21647169</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>24.97907684913909</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>20252301565</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>WTG_offshore</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>5</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K104" t="n">
+        <v>28248468.87968735</v>
+      </c>
+      <c r="L104" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M104" t="n">
+        <v>7901589.12550572</v>
+      </c>
+      <c r="N104" t="n">
+        <v>2926514.490928044</v>
+      </c>
+      <c r="O104" t="n">
+        <v>88031872.22166163</v>
+      </c>
+      <c r="P104" t="n">
+        <v>51881814.21646857</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>30.08079149942816</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>20281702015</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>OCGT</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>natural_gas</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>2</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K105" t="n">
+        <v>7024943.310657596</v>
+      </c>
+      <c r="L105" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0</v>
+      </c>
+      <c r="O105" t="n">
+        <v>0</v>
+      </c>
+      <c r="P105" t="n">
+        <v>-7024943.310657596</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>20281702016</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>OCGT</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>natural_gas</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>2</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K106" t="n">
+        <v>7024943.310657596</v>
+      </c>
+      <c r="L106" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0</v>
+      </c>
+      <c r="O106" t="n">
+        <v>0</v>
+      </c>
+      <c r="P106" t="n">
+        <v>-7024943.310657596</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>20281702018</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>OCGT</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>natural_gas</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>2</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K107" t="n">
+        <v>7024943.310657596</v>
+      </c>
+      <c r="L107" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" t="n">
+        <v>0</v>
+      </c>
+      <c r="P107" t="n">
+        <v>-7024943.310657596</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>20281702021</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>OCGT</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>natural_gas</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>2</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K108" t="n">
+        <v>7024943.310657596</v>
+      </c>
+      <c r="L108" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0</v>
+      </c>
+      <c r="P108" t="n">
+        <v>-7024943.310657596</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>20281702025</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>OCGT</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>natural_gas</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>2</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K109" t="n">
+        <v>7024943.310657596</v>
+      </c>
+      <c r="L109" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" t="n">
+        <v>0</v>
+      </c>
+      <c r="P109" t="n">
+        <v>-7024943.310657596</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Fuel oil PGT</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>heavy_oil</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>37</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>TobeDecommissioned</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>0.3539907794712127</v>
+      </c>
+      <c r="J110" t="n">
+        <v>3652.9</v>
+      </c>
+      <c r="K110" t="n">
+        <v>5150718.870612221</v>
+      </c>
+      <c r="L110" t="n">
+        <v>6</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" t="n">
+        <v>0</v>
+      </c>
+      <c r="P110" t="n">
+        <v>-5150718.870612221</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Hydropower_reservoir_medium</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>57</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>0.7811457116585705</v>
+      </c>
+      <c r="J111" t="n">
+        <v>8858.749999999998</v>
+      </c>
+      <c r="K111" t="n">
+        <v>7384220.949805131</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>18624635.99999999</v>
+      </c>
+      <c r="O111" t="n">
+        <v>506842996.759607</v>
+      </c>
+      <c r="P111" t="n">
+        <v>499458775.8098018</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>27.21357865783832</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Lignite PSC</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>lignite</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>39</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>0.360040798965821</v>
+      </c>
+      <c r="J112" t="n">
+        <v>20779.02</v>
+      </c>
+      <c r="K112" t="n">
+        <v>190684909.5157455</v>
+      </c>
+      <c r="L112" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M112" t="n">
+        <v>34434435.28253563</v>
+      </c>
+      <c r="N112" t="n">
+        <v>925355.345540453</v>
+      </c>
+      <c r="O112" t="n">
+        <v>36285145.97361655</v>
+      </c>
+      <c r="P112" t="n">
+        <v>-188834198.8246645</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>39.21212121212121</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Nuclear</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>nuclear</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>36</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="J113" t="n">
+        <v>8599</v>
+      </c>
+      <c r="K113" t="n">
+        <v>165046505.4929781</v>
+      </c>
+      <c r="L113" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M113" t="n">
+        <v>347408852.3530954</v>
+      </c>
+      <c r="N113" t="n">
+        <v>57322460.63826074</v>
+      </c>
+      <c r="O113" t="n">
+        <v>1988214841.824931</v>
+      </c>
+      <c r="P113" t="n">
+        <v>1475759483.978858</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>34.68474346158592</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>OCGT</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>natural_gas</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>29</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>TobeDecommissioned</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>0.3741421697393409</v>
+      </c>
+      <c r="J114" t="n">
+        <v>8194.3025</v>
+      </c>
+      <c r="K114" t="n">
+        <v>15418557.38030332</v>
+      </c>
+      <c r="L114" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0</v>
+      </c>
+      <c r="O114" t="n">
+        <v>0</v>
+      </c>
+      <c r="P114" t="n">
+        <v>-15418557.38030332</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>PV_utility_systems</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>11</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>53555.51607579708</v>
+      </c>
+      <c r="K115" t="n">
+        <v>227017807.7274436</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>50877740.2720072</v>
+      </c>
+      <c r="O115" t="n">
+        <v>987635997.8075372</v>
+      </c>
+      <c r="P115" t="n">
+        <v>760618190.0800936</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>19.41194700329354</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>WTG_offshore</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>7</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
         <v>10271.8</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K116" t="n">
         <v>263186052.2797029</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L116" t="n">
         <v>2.7</v>
       </c>
-      <c r="M12" t="n">
-        <v>110357111.5606221</v>
-      </c>
-      <c r="N12" t="n">
-        <v>40873004.28171189</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1517259559.244995</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1143716395.40467</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>37.12131236518557</v>
+      <c r="M116" t="n">
+        <v>89692833.38573563</v>
+      </c>
+      <c r="N116" t="n">
+        <v>33219567.92064282</v>
+      </c>
+      <c r="O116" t="n">
+        <v>912775075.2928616</v>
+      </c>
+      <c r="P116" t="n">
+        <v>559896189.627423</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>27.47703032963467</v>
       </c>
     </row>
   </sheetData>

--- a/emlabpy/Yearly_results.xlsx
+++ b/emlabpy/Yearly_results.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Capacity" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Powerplants2022" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Powerplants2020" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -982,6 +982,59 @@
       </c>
       <c r="Q10" t="n">
         <v>39.05600352631885</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C11" t="n">
+        <v>544999999.1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>20811313152.32112</v>
+      </c>
+      <c r="E11" t="n">
+        <v>38.1858957553916</v>
+      </c>
+      <c r="F11" t="n">
+        <v>11</v>
+      </c>
+      <c r="G11" t="n">
+        <v>222307.2994627971</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.560297453063297</v>
+      </c>
+      <c r="J11" t="n">
+        <v>97504.61057238668</v>
+      </c>
+      <c r="K11" t="n">
+        <v>17769.20341851865</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.1822396224568984</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>37.85801221665666</v>
       </c>
     </row>
   </sheetData>
@@ -995,7 +1048,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB10"/>
+  <dimension ref="A1:BB11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2743,6 +2796,170 @@
         <v>0</v>
       </c>
       <c r="BB10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4644.4034</v>
+      </c>
+      <c r="D11" t="n">
+        <v>25208582.8382924</v>
+      </c>
+      <c r="E11" t="n">
+        <v>954932128.661841</v>
+      </c>
+      <c r="F11" t="n">
+        <v>37.88123016623044</v>
+      </c>
+      <c r="G11" t="n">
+        <v>24845.77</v>
+      </c>
+      <c r="H11" t="n">
+        <v>59003.61621933627</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3332129.912351787</v>
+      </c>
+      <c r="J11" t="n">
+        <v>56.47331682121212</v>
+      </c>
+      <c r="K11" t="n">
+        <v>31358.329</v>
+      </c>
+      <c r="L11" t="n">
+        <v>217108263.1152519</v>
+      </c>
+      <c r="M11" t="n">
+        <v>8460882562.993628</v>
+      </c>
+      <c r="N11" t="n">
+        <v>38.97079936797324</v>
+      </c>
+      <c r="O11" t="n">
+        <v>8194.3025</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1007081.087896536</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>53413355.2968122</v>
+      </c>
+      <c r="R11" t="n">
+        <v>53.03779004367492</v>
+      </c>
+      <c r="S11" t="n">
+        <v>8858.749999999998</v>
+      </c>
+      <c r="T11" t="n">
+        <v>18624635.99999999</v>
+      </c>
+      <c r="U11" t="n">
+        <v>705091697.2187846</v>
+      </c>
+      <c r="V11" t="n">
+        <v>37.85801221665675</v>
+      </c>
+      <c r="W11" t="n">
+        <v>8599</v>
+      </c>
+      <c r="X11" t="n">
+        <v>74259244.44886312</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>2846665877.166388</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>38.33416160228613</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>47547.50848700004</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>80823362.9723005</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>2945418492.530766</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>36.44266192610929</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>10271.8</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>40873004.28171189</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>1517259559.244995</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>37.12131236518557</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>53555.51607579708</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>50877740.2720072</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>1831210598.874818</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>35.9923728743579</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>20779.02</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>36159080.46745713</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>1493106750.420732</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>41.29271903815462</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>3652.9</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2757,7 +2974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2877,7 +3094,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -2891,25 +3108,25 @@
         <v>4644.4034</v>
       </c>
       <c r="K2" t="n">
-        <v>185759578.3170193</v>
+        <v>195047557.2328703</v>
       </c>
       <c r="L2" t="n">
         <v>1.9</v>
       </c>
       <c r="M2" t="n">
-        <v>47914090.5295249</v>
+        <v>47896307.39275556</v>
       </c>
       <c r="N2" t="n">
-        <v>25217942.38396047</v>
+        <v>25208582.8382924</v>
       </c>
       <c r="O2" t="n">
-        <v>985165696.2322724</v>
+        <v>954932128.661841</v>
       </c>
       <c r="P2" t="n">
-        <v>751492027.3857282</v>
+        <v>711988264.0362153</v>
       </c>
       <c r="Q2" t="n">
-        <v>39.0660618234608</v>
+        <v>37.88123016623044</v>
       </c>
     </row>
     <row r="3">
@@ -2942,7 +3159,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -2956,25 +3173,25 @@
         <v>31358.329</v>
       </c>
       <c r="K3" t="n">
-        <v>201705962.3960418</v>
+        <v>211791260.5158438</v>
       </c>
       <c r="L3" t="n">
         <v>4.2</v>
       </c>
       <c r="M3" t="n">
-        <v>8045730286.781103</v>
+        <v>7488169619.082788</v>
       </c>
       <c r="N3" t="n">
-        <v>233273899.6196489</v>
+        <v>217108263.1152519</v>
       </c>
       <c r="O3" t="n">
-        <v>9314667654.685669</v>
+        <v>8460882562.993628</v>
       </c>
       <c r="P3" t="n">
-        <v>1067231405.508524</v>
+        <v>760921683.3949952</v>
       </c>
       <c r="Q3" t="n">
-        <v>39.93017508548171</v>
+        <v>38.97079936797324</v>
       </c>
     </row>
     <row r="4">
@@ -3003,7 +3220,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -3017,25 +3234,25 @@
         <v>47547.50848700004</v>
       </c>
       <c r="K4" t="n">
-        <v>274453974.6464702</v>
+        <v>288176673.3787938</v>
       </c>
       <c r="L4" t="n">
         <v>1.35</v>
       </c>
       <c r="M4" t="n">
-        <v>109119819.4208839</v>
+        <v>109111540.0126057</v>
       </c>
       <c r="N4" t="n">
-        <v>80829495.86732137</v>
+        <v>80823362.9723005</v>
       </c>
       <c r="O4" t="n">
-        <v>3036297065.531121</v>
+        <v>2945418492.530766</v>
       </c>
       <c r="P4" t="n">
-        <v>2652723271.463767</v>
+        <v>2548130279.139367</v>
       </c>
       <c r="Q4" t="n">
-        <v>37.56422124066059</v>
+        <v>36.44266192610929</v>
       </c>
     </row>
     <row r="5">
@@ -3068,7 +3285,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -3082,25 +3299,25 @@
         <v>24845.77</v>
       </c>
       <c r="K5" t="n">
-        <v>305548051.8153288</v>
+        <v>320825454.4060951</v>
       </c>
       <c r="L5" t="n">
         <v>3.5</v>
       </c>
       <c r="M5" t="n">
-        <v>23346907.05528117</v>
+        <v>3184620.871803447</v>
       </c>
       <c r="N5" t="n">
-        <v>432563.8747127279</v>
+        <v>59003.61621933627</v>
       </c>
       <c r="O5" t="n">
-        <v>24428316.74206298</v>
+        <v>3332129.912351787</v>
       </c>
       <c r="P5" t="n">
-        <v>-304466642.128547</v>
+        <v>-320677945.3655468</v>
       </c>
       <c r="Q5" t="n">
-        <v>56.4733168212121</v>
+        <v>56.47331682121212</v>
       </c>
     </row>
     <row r="6">
@@ -3109,7 +3326,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>20230300031</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -3119,12 +3336,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CCGT</t>
+          <t>Fuel oil PGT</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>natural_gas</t>
+          <t>heavy_oil</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -3133,24 +3350,24 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>-2</v>
+        <v>37</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>InPipeline</t>
+          <t>TobeDecommissioned</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0.61</v>
+        <v>0.3539907794712127</v>
       </c>
       <c r="J6" t="n">
-        <v>1000</v>
+        <v>3652.9</v>
       </c>
       <c r="K6" t="n">
-        <v>30649500</v>
+        <v>5150718.870612221</v>
       </c>
       <c r="L6" t="n">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -3162,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>-30649500</v>
+        <v>-5150718.870612221</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -3174,7 +3391,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -3184,53 +3401,49 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Fuel oil PGT</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>heavy_oil</t>
-        </is>
-      </c>
+          <t>Hydropower_reservoir_medium</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>TobeDecommissioned</t>
+          <t>Operational</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0.3539907794712127</v>
+        <v>0.7811457116585705</v>
       </c>
       <c r="J7" t="n">
-        <v>3652.9</v>
+        <v>8858.749999999998</v>
       </c>
       <c r="K7" t="n">
-        <v>4905446.543440212</v>
+        <v>7384220.949805131</v>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>18624635.99999999</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>705091697.2187846</v>
       </c>
       <c r="P7" t="n">
-        <v>-4905446.543440212</v>
+        <v>697707476.2689794</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>37.85801221665675</v>
       </c>
     </row>
     <row r="8">
@@ -3239,7 +3452,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -3249,17 +3462,21 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Hydropower_reservoir_medium</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+          <t>Lignite PSC</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>lignite</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -3267,31 +3484,31 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0.7811457116585705</v>
+        <v>0.360040798965821</v>
       </c>
       <c r="J8" t="n">
-        <v>8858.749999999998</v>
+        <v>20779.02</v>
       </c>
       <c r="K8" t="n">
-        <v>7032591.380766791</v>
+        <v>190684909.5157455</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1345556085.273859</v>
       </c>
       <c r="N8" t="n">
-        <v>18624635.99999999</v>
+        <v>36159080.46745713</v>
       </c>
       <c r="O8" t="n">
-        <v>727403849.2924055</v>
+        <v>1493106750.420732</v>
       </c>
       <c r="P8" t="n">
-        <v>720371257.9116387</v>
+        <v>-43134244.36887294</v>
       </c>
       <c r="Q8" t="n">
-        <v>39.0560035263189</v>
+        <v>41.29271903815462</v>
       </c>
     </row>
     <row r="9">
@@ -3300,7 +3517,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -3310,12 +3527,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Lignite PSC</t>
+          <t>Nuclear</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>lignite</t>
+          <t>nuclear</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -3324,39 +3541,39 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>TobeDecommissioned</t>
+          <t>Operational</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0.360040798965821</v>
+        <v>0.33</v>
       </c>
       <c r="J9" t="n">
-        <v>20779.02</v>
+        <v>8599</v>
       </c>
       <c r="K9" t="n">
-        <v>181604675.7292814</v>
+        <v>165046505.4929781</v>
       </c>
       <c r="L9" t="n">
         <v>3.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1988462762.772219</v>
+        <v>450056026.9628067</v>
       </c>
       <c r="N9" t="n">
-        <v>53435888.57612642</v>
+        <v>74259244.44886312</v>
       </c>
       <c r="O9" t="n">
-        <v>2296405298.007108</v>
+        <v>2846665877.166388</v>
       </c>
       <c r="P9" t="n">
-        <v>126337859.5056076</v>
+        <v>2231563344.710603</v>
       </c>
       <c r="Q9" t="n">
-        <v>42.97496231835984</v>
+        <v>38.33416160228613</v>
       </c>
     </row>
     <row r="10">
@@ -3365,7 +3582,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3375,12 +3592,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Nuclear</t>
+          <t>OCGT</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>nuclear</t>
+          <t>natural_gas</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -3389,39 +3606,39 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Operational</t>
+          <t>TobeDecommissioned</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0.33</v>
+        <v>0.3741421697393409</v>
       </c>
       <c r="J10" t="n">
-        <v>8599</v>
+        <v>8194.3025</v>
       </c>
       <c r="K10" t="n">
-        <v>157187148.0885505</v>
+        <v>15418557.38030332</v>
       </c>
       <c r="L10" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M10" t="n">
-        <v>452773420.2718762</v>
+        <v>49274830.62694587</v>
       </c>
       <c r="N10" t="n">
-        <v>74707614.34485959</v>
+        <v>1007081.087896536</v>
       </c>
       <c r="O10" t="n">
-        <v>2938815938.078838</v>
+        <v>53413355.2968122</v>
       </c>
       <c r="P10" t="n">
-        <v>2328855369.718411</v>
+        <v>-11280032.71043699</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.33756905304057</v>
+        <v>53.03779004367492</v>
       </c>
     </row>
     <row r="11">
@@ -3430,7 +3647,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -3440,53 +3657,49 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>OCGT</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>natural_gas</t>
-        </is>
-      </c>
+          <t>PV_utility_systems</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>TobeDecommissioned</t>
+          <t>Operational</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0.3741421697393409</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>8194.3025</v>
+        <v>53555.51607579708</v>
       </c>
       <c r="K11" t="n">
-        <v>14684340.36219364</v>
+        <v>227017807.7274436</v>
       </c>
       <c r="L11" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>144231238.2927735</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>2947804.193752412</v>
+        <v>50877740.2720072</v>
       </c>
       <c r="O11" t="n">
-        <v>158176902.6289044</v>
+        <v>1831210598.874818</v>
       </c>
       <c r="P11" t="n">
-        <v>-738676.0260626953</v>
+        <v>1604192791.147375</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.65922979692652</v>
+        <v>35.9923728743579</v>
       </c>
     </row>
     <row r="12">
@@ -3495,7 +3708,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -3505,7 +3718,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PV_utility_systems</t>
+          <t>WTG_offshore</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -3515,7 +3728,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -3526,89 +3739,28 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>53555.51607579708</v>
+        <v>10271.8</v>
       </c>
       <c r="K12" t="n">
-        <v>216207435.9308987</v>
+        <v>263186052.2797029</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>110357111.5606221</v>
       </c>
       <c r="N12" t="n">
-        <v>50877740.2720072</v>
+        <v>40873004.28171189</v>
       </c>
       <c r="O12" t="n">
-        <v>1891203044.436941</v>
+        <v>1517259559.244995</v>
       </c>
       <c r="P12" t="n">
-        <v>1674995608.506042</v>
+        <v>1143716395.40467</v>
       </c>
       <c r="Q12" t="n">
-        <v>37.1715220512157</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>WTG_offshore</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>8</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>10271.8</v>
-      </c>
-      <c r="K13" t="n">
-        <v>250653383.1235266</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="M13" t="n">
-        <v>110661517.5505494</v>
-      </c>
-      <c r="N13" t="n">
-        <v>40985747.24094421</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1562311167.487423</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1200996266.813347</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>38.11840146046418</v>
+        <v>37.12131236518557</v>
       </c>
     </row>
   </sheetData>

--- a/emlabpy/Yearly_results.xlsx
+++ b/emlabpy/Yearly_results.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1088,6 +1088,59 @@
       </c>
       <c r="Q12" t="n">
         <v>2.444204839624269</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C13" t="n">
+        <v>544999999.1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>21553567663.10112</v>
+      </c>
+      <c r="E13" t="n">
+        <v>39.5478306398058</v>
+      </c>
+      <c r="F13" t="n">
+        <v>271</v>
+      </c>
+      <c r="G13" t="n">
+        <v>222307.299462797</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.560297453063296</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>16</v>
+      </c>
+      <c r="N13" t="n">
+        <v>5203.7934</v>
+      </c>
+      <c r="O13" t="n">
+        <v>425342433.9416635</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-81736.9947741706</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>39.2141766002183</v>
       </c>
     </row>
   </sheetData>
@@ -1101,7 +1154,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB12"/>
+  <dimension ref="A1:BB13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3177,6 +3230,170 @@
         <v>0</v>
       </c>
       <c r="BB12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4644.4034</v>
+      </c>
+      <c r="D13" t="n">
+        <v>25208582.83829241</v>
+      </c>
+      <c r="E13" t="n">
+        <v>989140946.3448787</v>
+      </c>
+      <c r="F13" t="n">
+        <v>39.23826074198631</v>
+      </c>
+      <c r="G13" t="n">
+        <v>24845.77</v>
+      </c>
+      <c r="H13" t="n">
+        <v>59003.61621933593</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3391133.528571104</v>
+      </c>
+      <c r="J13" t="n">
+        <v>57.47331682121212</v>
+      </c>
+      <c r="K13" t="n">
+        <v>31358.329</v>
+      </c>
+      <c r="L13" t="n">
+        <v>217108263.1152519</v>
+      </c>
+      <c r="M13" t="n">
+        <v>8757160973.791933</v>
+      </c>
+      <c r="N13" t="n">
+        <v>40.3354568275607</v>
+      </c>
+      <c r="O13" t="n">
+        <v>8194.3025</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1007081.087896532</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>54801062.39115681</v>
+      </c>
+      <c r="R13" t="n">
+        <v>54.41573975499684</v>
+      </c>
+      <c r="S13" t="n">
+        <v>8858.749999999998</v>
+      </c>
+      <c r="T13" t="n">
+        <v>18624636</v>
+      </c>
+      <c r="U13" t="n">
+        <v>730349765.2187846</v>
+      </c>
+      <c r="V13" t="n">
+        <v>39.21417660021837</v>
+      </c>
+      <c r="W13" t="n">
+        <v>8599</v>
+      </c>
+      <c r="X13" t="n">
+        <v>74259244.44886312</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>2947062642.512977</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>39.68613826312766</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>47547.50848700004</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>80823362.97230047</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>3053718290.852688</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>37.78261852206334</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>10271.8</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>40873004.28171186</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>1572438092.234704</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>38.47131180759015</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>53555.51607579708</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>50877740.2720072</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>1898471070.403504</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>37.31437481801915</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>20779.02</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>36159080.46745714</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>1547033685.821918</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>42.78409920335874</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>3652.9</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3331,19 +3548,19 @@
         <v>1.9</v>
       </c>
       <c r="M2" t="n">
-        <v>3052524.197287783</v>
+        <v>11606262.28848066</v>
       </c>
       <c r="N2" t="n">
-        <v>1606591.682783044</v>
+        <v>6108559.099200348</v>
       </c>
       <c r="O2" t="n">
-        <v>10369108.03587098</v>
+        <v>239722744.5054459</v>
       </c>
       <c r="P2" t="n">
-        <v>-86276736.06916916</v>
+        <v>134523162.3092129</v>
       </c>
       <c r="Q2" t="n">
-        <v>6.454102898073594</v>
+        <v>39.24374645680799</v>
       </c>
     </row>
     <row r="3">
@@ -3396,19 +3613,19 @@
         <v>1.9</v>
       </c>
       <c r="M3" t="n">
-        <v>2311296.94032469</v>
+        <v>7538369.082801425</v>
       </c>
       <c r="N3" t="n">
-        <v>1216472.0738551</v>
+        <v>3967562.675158645</v>
       </c>
       <c r="O3" t="n">
-        <v>7062916.330875805</v>
+        <v>155684378.7670586</v>
       </c>
       <c r="P3" t="n">
-        <v>-53136420.72567639</v>
+        <v>90257969.56802964</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.806065328316864</v>
+        <v>39.23929916515647</v>
       </c>
     </row>
     <row r="4">
@@ -3461,19 +3678,19 @@
         <v>1.9</v>
       </c>
       <c r="M4" t="n">
-        <v>847056.5150419589</v>
+        <v>2640227.840000001</v>
       </c>
       <c r="N4" t="n">
-        <v>445819.2184431363</v>
+        <v>1389593.6</v>
       </c>
       <c r="O4" t="n">
-        <v>2511098.326233591</v>
+        <v>54521730.54748289</v>
       </c>
       <c r="P4" t="n">
-        <v>-10188981.66937108</v>
+        <v>40028479.22692017</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.632548401575646</v>
+        <v>39.2357380945644</v>
       </c>
     </row>
     <row r="5">
@@ -3526,19 +3743,19 @@
         <v>4.5</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1681473.362143007</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>31471.54840810724</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1695525.526240289</v>
       </c>
       <c r="P5" t="n">
-        <v>-306595.2357313294</v>
+        <v>-292543.0716340475</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>53.87486831768062</v>
       </c>
     </row>
     <row r="6">
@@ -3591,19 +3808,19 @@
         <v>4.5</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1031534.772417522</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>19306.87530096175</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1040344.678405973</v>
       </c>
       <c r="P6" t="n">
-        <v>-174347.1550691004</v>
+        <v>-165537.2490806492</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>53.88467383710451</v>
       </c>
     </row>
     <row r="7">
@@ -3656,19 +3873,19 @@
         <v>4.5</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>743278.8194630112</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>13911.68951831513</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>749722.4283884487</v>
       </c>
       <c r="P7" t="n">
-        <v>-121446.0702370357</v>
+        <v>-115002.4613115982</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>53.89154404297323</v>
       </c>
     </row>
     <row r="8">
@@ -3721,19 +3938,19 @@
         <v>4.5</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>2514290.801148347</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>47059.10093012175</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>2536584.959938956</v>
       </c>
       <c r="P8" t="n">
-        <v>-400180.6479050883</v>
+        <v>-377886.4891144789</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>53.90211265841099</v>
       </c>
     </row>
     <row r="9">
@@ -3786,19 +4003,19 @@
         <v>4.5</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>4642741.488864882</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>86896.56750013515</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>4685516.85885013</v>
       </c>
       <c r="P9" t="n">
-        <v>-731256.043806536</v>
+        <v>-688480.673821288</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>53.92062072926922</v>
       </c>
     </row>
     <row r="10">
@@ -3851,19 +4068,19 @@
         <v>4.5</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>831560.9564128008</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>15564.03537709548</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>839521.4224299139</v>
       </c>
       <c r="P10" t="n">
-        <v>-129605.9344105606</v>
+        <v>-121645.4683934475</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>53.93983000484437</v>
       </c>
     </row>
     <row r="11">
@@ -3916,19 +4133,19 @@
         <v>4.5</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>3235384.275643382</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>60555.5551114819</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>3267068.386574299</v>
       </c>
       <c r="P11" t="n">
-        <v>-491290.7879587309</v>
+        <v>-459606.6770278136</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>53.95158843081652</v>
       </c>
     </row>
     <row r="12">
@@ -3981,19 +4198,19 @@
         <v>4.5</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1942636.807355104</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>36359.65320564345</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1962416.623830552</v>
       </c>
       <c r="P12" t="n">
-        <v>-292098.9893938579</v>
+        <v>-272319.1729184095</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>53.97236911836006</v>
       </c>
     </row>
     <row r="13">
@@ -4046,19 +4263,19 @@
         <v>4.5</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1133855.896597165</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>21221.98397011574</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1145636.294165387</v>
       </c>
       <c r="P13" t="n">
-        <v>-165683.1889650385</v>
+        <v>-153902.791396817</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>53.98346807624786</v>
       </c>
     </row>
     <row r="14">
@@ -4111,19 +4328,19 @@
         <v>4.5</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1394665.455711752</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>26103.46520542403</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1409275.82321877</v>
       </c>
       <c r="P14" t="n">
-        <v>-177505.4699362427</v>
+        <v>-162895.1024292246</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>53.98807446169779</v>
       </c>
     </row>
     <row r="15">
@@ -4176,19 +4393,19 @@
         <v>1.9</v>
       </c>
       <c r="M15" t="n">
-        <v>571278.9398515553</v>
+        <v>1747020.197626</v>
       </c>
       <c r="N15" t="n">
-        <v>300673.1262376607</v>
+        <v>919484.3145400002</v>
       </c>
       <c r="O15" t="n">
-        <v>1672363.706023076</v>
+        <v>36076645.74735145</v>
       </c>
       <c r="P15" t="n">
-        <v>-6368498.372416098</v>
+        <v>26860042.41113783</v>
       </c>
       <c r="Q15" t="n">
-        <v>5.562065778706115</v>
+        <v>39.23573809456433</v>
       </c>
     </row>
     <row r="16">
@@ -4241,19 +4458,19 @@
         <v>4.5</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>686382.5984142033</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>12846.78286246788</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>693723.0946008065</v>
       </c>
       <c r="P16" t="n">
-        <v>-84935.00539402987</v>
+        <v>-77594.50920742666</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>53.99975246935415</v>
       </c>
     </row>
     <row r="17">
@@ -4306,19 +4523,19 @@
         <v>4.5</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>5506992.253476115</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>103072.4465759364</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>5570214.85705715</v>
       </c>
       <c r="P17" t="n">
-        <v>-696697.7033228802</v>
+        <v>-633475.0997418456</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>54.04174483190729</v>
       </c>
     </row>
     <row r="18">
@@ -4371,19 +4588,19 @@
         <v>4.5</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1495316.870637141</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>27987.32251085987</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1514307.921424918</v>
       </c>
       <c r="P18" t="n">
-        <v>-180781.1314822268</v>
+        <v>-161790.0806944494</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>54.10692362005418</v>
       </c>
     </row>
     <row r="19">
@@ -4436,19 +4653,19 @@
         <v>4.5</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>928977.477142052</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>17387.34630006639</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>941206.985757976</v>
       </c>
       <c r="P19" t="n">
-        <v>-91215.07447033632</v>
+        <v>-78985.56585441239</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>54.13172139755346</v>
       </c>
     </row>
     <row r="20">
@@ -4501,19 +4718,19 @@
         <v>4.5</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>5289940.535655232</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>99009.96554099636</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>5365103.838261936</v>
       </c>
       <c r="P20" t="n">
-        <v>-508492.8678928062</v>
+        <v>-433329.5652861025</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>54.18751343813411</v>
       </c>
     </row>
     <row r="21">
@@ -4566,19 +4783,19 @@
         <v>4.5</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>4555009.224576319</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>85254.51341550102</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>4632635.903099902</v>
       </c>
       <c r="P21" t="n">
-        <v>-476333.8196367755</v>
+        <v>-398707.1411131921</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>54.33889324453752</v>
       </c>
     </row>
     <row r="22">
@@ -4631,19 +4848,19 @@
         <v>4.5</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>484837.8743555511</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>9074.540802369742</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>494266.6580374058</v>
       </c>
       <c r="P22" t="n">
-        <v>-55101.92692374767</v>
+        <v>-45673.14324189295</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>54.46740158007027</v>
       </c>
     </row>
     <row r="23">
@@ -4696,19 +4913,19 @@
         <v>4.5</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1123360.21641355</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>21025.53999757868</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1145567.00423568</v>
       </c>
       <c r="P23" t="n">
-        <v>-123596.8943683989</v>
+        <v>-101390.1065462697</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>54.48454614566875</v>
       </c>
     </row>
     <row r="24">
@@ -4761,19 +4978,19 @@
         <v>4.5</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1043418.833799702</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>19529.3051184627</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1064446.902313031</v>
       </c>
       <c r="P24" t="n">
-        <v>-106155.5245082317</v>
+        <v>-85127.45599490218</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>54.50510890460307</v>
       </c>
     </row>
     <row r="25">
@@ -4826,19 +5043,19 @@
         <v>4.5</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>869154.5491590236</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>16267.66149487085</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>887235.485691795</v>
       </c>
       <c r="P25" t="n">
-        <v>-56036.51889439725</v>
+        <v>-37955.58236162581</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>54.53982958592653</v>
       </c>
     </row>
     <row r="26">
@@ -4891,19 +5108,19 @@
         <v>1.9</v>
       </c>
       <c r="M26" t="n">
-        <v>287478.1580031714</v>
+        <v>837447.2680000002</v>
       </c>
       <c r="N26" t="n">
-        <v>151304.2936858797</v>
+        <v>440761.7200000001</v>
       </c>
       <c r="O26" t="n">
-        <v>815291.4199905184</v>
+        <v>17293611.40802964</v>
       </c>
       <c r="P26" t="n">
-        <v>-2882282.779047561</v>
+        <v>13046068.09899473</v>
       </c>
       <c r="Q26" t="n">
-        <v>5.388422232637569</v>
+        <v>39.23573809456419</v>
       </c>
     </row>
     <row r="27">
@@ -4956,19 +5173,19 @@
         <v>4.5</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>534095.1587223378</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>9996.472153946746</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>545574.7331921379</v>
       </c>
       <c r="P27" t="n">
-        <v>-25284.29930430228</v>
+        <v>-13804.72483450218</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>54.57672714836077</v>
       </c>
     </row>
     <row r="28">
@@ -5021,19 +5238,19 @@
         <v>4.5</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>737812.3418314266</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>13809.37536973712</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>754255.0727051888</v>
       </c>
       <c r="P28" t="n">
-        <v>-27024.84968617655</v>
+        <v>-10582.11881241439</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>54.61905788715966</v>
       </c>
     </row>
     <row r="29">
@@ -5088,13 +5305,13 @@
         <v>221382.72</v>
       </c>
       <c r="O29" t="n">
-        <v>541104.7156331843</v>
+        <v>8681341.078316702</v>
       </c>
       <c r="P29" t="n">
-        <v>-682335.5176029672</v>
+        <v>7457900.84508055</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.444204839624268</v>
+        <v>39.2141766002184</v>
       </c>
     </row>
     <row r="30">
@@ -5146,16 +5363,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1289047.598853433</v>
+        <v>1454019.84</v>
       </c>
       <c r="O30" t="n">
-        <v>3553922.329837701</v>
+        <v>57018190.78598101</v>
       </c>
       <c r="P30" t="n">
-        <v>-1144229.870285672</v>
+        <v>52320038.58585763</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.75701404121834</v>
+        <v>39.2141766002182</v>
       </c>
     </row>
     <row r="31">
@@ -5207,16 +5424,16 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>1714395.203522155</v>
+        <v>2211724.8</v>
       </c>
       <c r="O31" t="n">
-        <v>5405908.460077012</v>
+        <v>86730966.89828293</v>
       </c>
       <c r="P31" t="n">
-        <v>-193489.5913343821</v>
+        <v>81131568.84687154</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.153245207972347</v>
+        <v>39.2141766002185</v>
       </c>
     </row>
     <row r="32">
@@ -5268,16 +5485,16 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>241875.3575873038</v>
+        <v>290131.2</v>
       </c>
       <c r="O32" t="n">
-        <v>709140.0831659946</v>
+        <v>11377256.1140333</v>
       </c>
       <c r="P32" t="n">
-        <v>9595.514005418634</v>
+        <v>10677711.54487272</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.931840970653795</v>
+        <v>39.21417660021845</v>
       </c>
     </row>
     <row r="33">
@@ -5329,16 +5546,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>219269.1042354356</v>
+        <v>246821.7599999999</v>
       </c>
       <c r="O33" t="n">
-        <v>603282.9403165797</v>
+        <v>9678912.085416632</v>
       </c>
       <c r="P33" t="n">
-        <v>255328.7186489041</v>
+        <v>9330957.863748956</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.751335818241028</v>
+        <v>39.21417660021805</v>
       </c>
     </row>
     <row r="34">
@@ -5390,16 +5607,16 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>350496.2317349565</v>
+        <v>399035.5200000001</v>
       </c>
       <c r="O34" t="n">
-        <v>975324.5491659852</v>
+        <v>15647849.35104008</v>
       </c>
       <c r="P34" t="n">
-        <v>489384.9131475275</v>
+        <v>15161909.71502162</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.782696248510657</v>
+        <v>39.21417660021863</v>
       </c>
     </row>
     <row r="35">
@@ -5451,16 +5668,16 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>179828.5150540891</v>
+        <v>193000.32</v>
       </c>
       <c r="O35" t="n">
-        <v>471732.3161930335</v>
+        <v>7568348.632378624</v>
       </c>
       <c r="P35" t="n">
-        <v>287577.8305804088</v>
+        <v>7384194.146765999</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.623234229850283</v>
+        <v>39.2141766002182</v>
       </c>
     </row>
     <row r="36">
@@ -5512,16 +5729,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>106062.044206374</v>
+        <v>126774.72</v>
       </c>
       <c r="O36" t="n">
-        <v>309863.3841660112</v>
+        <v>4971366.258523237</v>
       </c>
       <c r="P36" t="n">
-        <v>194659.3642216055</v>
+        <v>4856162.238578831</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.921529435761991</v>
+        <v>39.21417660021837</v>
       </c>
     </row>
     <row r="37">
@@ -5574,19 +5791,19 @@
         <v>1.9</v>
       </c>
       <c r="M37" t="n">
-        <v>331945.5197224804</v>
+        <v>936562.7744</v>
       </c>
       <c r="N37" t="n">
-        <v>174708.1682749897</v>
+        <v>492927.7760000001</v>
       </c>
       <c r="O37" t="n">
-        <v>922160.3496295132</v>
+        <v>19338283.26596044</v>
       </c>
       <c r="P37" t="n">
-        <v>-2868524.494355666</v>
+        <v>14942981.16729774</v>
       </c>
       <c r="Q37" t="n">
-        <v>5.278289840335559</v>
+        <v>39.23147407696586</v>
       </c>
     </row>
     <row r="38">
@@ -5638,16 +5855,16 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>122572.8</v>
+        <v>147168.0000000001</v>
       </c>
       <c r="O38" t="n">
-        <v>359708.7378378249</v>
+        <v>5771071.941900929</v>
       </c>
       <c r="P38" t="n">
-        <v>232341.1093752426</v>
+        <v>5643704.313438348</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.934653837048879</v>
+        <v>39.2141766002183</v>
       </c>
     </row>
     <row r="39">
@@ -5699,16 +5916,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>2040501.911813221</v>
+        <v>2223077.76</v>
       </c>
       <c r="O39" t="n">
-        <v>5433657.419853073</v>
+        <v>87176163.87665743</v>
       </c>
       <c r="P39" t="n">
-        <v>3771652.016717533</v>
+        <v>85514158.47352189</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.662902391022336</v>
+        <v>39.21417660021817</v>
       </c>
     </row>
     <row r="40">
@@ -5760,16 +5977,16 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>320641.8021711464</v>
+        <v>377170.56</v>
       </c>
       <c r="O40" t="n">
-        <v>921882.1081157952</v>
+        <v>14790432.94824326</v>
       </c>
       <c r="P40" t="n">
-        <v>653331.42285679</v>
+        <v>14521882.26298426</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.875115165500878</v>
+        <v>39.21417660021839</v>
       </c>
     </row>
     <row r="41">
@@ -5821,16 +6038,16 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1932343.50444965</v>
+        <v>1948294.08</v>
       </c>
       <c r="O41" t="n">
-        <v>4762029.819347306</v>
+        <v>76400748.12228028</v>
       </c>
       <c r="P41" t="n">
-        <v>3563703.516590188</v>
+        <v>75202421.81952317</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.464380586775423</v>
+        <v>39.21417660021853</v>
       </c>
     </row>
     <row r="42">
@@ -5882,16 +6099,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>303241.5314741796</v>
+        <v>344793.6000000001</v>
       </c>
       <c r="O42" t="n">
-        <v>842746.1857914705</v>
+        <v>13520797.12102508</v>
       </c>
       <c r="P42" t="n">
-        <v>640774.5057880097</v>
+        <v>13318825.44102162</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.779125213141289</v>
+        <v>39.21417660021843</v>
       </c>
     </row>
     <row r="43">
@@ -5943,16 +6160,16 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>234281.3084622688</v>
+        <v>254600.6400000001</v>
       </c>
       <c r="O43" t="n">
-        <v>622296.1164594379</v>
+        <v>9983954.459488502</v>
       </c>
       <c r="P43" t="n">
-        <v>499599.2202504078</v>
+        <v>9861257.563279472</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.656191911100152</v>
+        <v>39.21417660021789</v>
       </c>
     </row>
     <row r="44">
@@ -6004,16 +6221,16 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>194794.221146684</v>
+        <v>228951.3600000001</v>
       </c>
       <c r="O44" t="n">
-        <v>559604.0221505583</v>
+        <v>8978139.063900217</v>
       </c>
       <c r="P44" t="n">
-        <v>464291.6197794034</v>
+        <v>8882826.661529062</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.872795809117793</v>
+        <v>39.21417660021855</v>
       </c>
     </row>
     <row r="45">
@@ -6068,13 +6285,13 @@
         <v>928630.0800000004</v>
       </c>
       <c r="O45" t="n">
-        <v>2269762.135756665</v>
+        <v>36415463.95339493</v>
       </c>
       <c r="P45" t="n">
-        <v>1901582.60777259</v>
+        <v>36047284.42541086</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.444204839624261</v>
+        <v>39.21417660021837</v>
       </c>
     </row>
     <row r="46">
@@ -6129,13 +6346,13 @@
         <v>979087.6800000002</v>
       </c>
       <c r="O46" t="n">
-        <v>2393090.845872497</v>
+        <v>38394117.19061818</v>
       </c>
       <c r="P46" t="n">
-        <v>2023391.079424286</v>
+        <v>38024417.42416997</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.444204839624268</v>
+        <v>39.21417660021845</v>
       </c>
     </row>
     <row r="47">
@@ -6187,16 +6404,16 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>708245.8644640659</v>
+        <v>714815.9999999999</v>
       </c>
       <c r="O47" t="n">
-        <v>1747156.726640874</v>
+        <v>28030920.86066158</v>
       </c>
       <c r="P47" t="n">
-        <v>1490097.87904352</v>
+        <v>27773862.01306422</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.466878825989274</v>
+        <v>39.21417660021821</v>
       </c>
     </row>
     <row r="48">
@@ -6249,19 +6466,19 @@
         <v>1.9</v>
       </c>
       <c r="M48" t="n">
-        <v>332275.0349370827</v>
+        <v>988022.762</v>
       </c>
       <c r="N48" t="n">
-        <v>174881.5973353067</v>
+        <v>520011.9799999999</v>
       </c>
       <c r="O48" t="n">
-        <v>954990.6814689536</v>
+        <v>20403053.85331573</v>
       </c>
       <c r="P48" t="n">
-        <v>-2852711.532662239</v>
+        <v>15939603.91212162</v>
       </c>
       <c r="Q48" t="n">
-        <v>5.460784302180842</v>
+        <v>39.23573809456416</v>
       </c>
     </row>
     <row r="49">
@@ -6313,16 +6530,16 @@
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>104764.185917738</v>
+        <v>132030.72</v>
       </c>
       <c r="O49" t="n">
-        <v>322710.1248030768</v>
+        <v>5177475.970733931</v>
       </c>
       <c r="P49" t="n">
-        <v>279644.1100528732</v>
+        <v>5134409.955983728</v>
       </c>
       <c r="Q49" t="n">
-        <v>3.080347754112004</v>
+        <v>39.21417660021798</v>
       </c>
     </row>
     <row r="50">
@@ -6374,16 +6591,16 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>191834.71999354</v>
+        <v>201199.68</v>
       </c>
       <c r="O50" t="n">
-        <v>491773.2315868548</v>
+        <v>7889879.783427414</v>
       </c>
       <c r="P50" t="n">
-        <v>432247.001224556</v>
+        <v>7830353.553065115</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.563525682959868</v>
+        <v>39.21417660021832</v>
       </c>
     </row>
     <row r="51">
@@ -6435,16 +6652,16 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>130012.5706036229</v>
+        <v>147798.72</v>
       </c>
       <c r="O51" t="n">
-        <v>361250.3467142725</v>
+        <v>5795805.107366224</v>
       </c>
       <c r="P51" t="n">
-        <v>319605.3848346923</v>
+        <v>5754160.145486644</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.778580140651461</v>
+        <v>39.21417660021834</v>
       </c>
     </row>
     <row r="52">
@@ -6496,16 +6713,16 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>738617.2352019353</v>
+        <v>821407.6800000002</v>
       </c>
       <c r="O52" t="n">
-        <v>2007688.626760537</v>
+        <v>32210825.82429565</v>
       </c>
       <c r="P52" t="n">
-        <v>1787263.420415594</v>
+        <v>31990400.61795071</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.718171917842727</v>
+        <v>39.21417660021835</v>
       </c>
     </row>
     <row r="53">
@@ -6557,16 +6774,16 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>680853.7050768682</v>
+        <v>713134.08</v>
       </c>
       <c r="O53" t="n">
-        <v>1743045.76963701</v>
+        <v>27964965.75275431</v>
       </c>
       <c r="P53" t="n">
-        <v>1577733.23254227</v>
+        <v>27799653.21565957</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.560088542721848</v>
+        <v>39.21417660021844</v>
       </c>
     </row>
     <row r="54">
@@ -6618,16 +6835,16 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>115127.6068948742</v>
+        <v>120677.76</v>
       </c>
       <c r="O54" t="n">
-        <v>294961.1650270164</v>
+        <v>4732278.99235878</v>
       </c>
       <c r="P54" t="n">
-        <v>268318.814315993</v>
+        <v>4705636.641647756</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.562036795365273</v>
+        <v>39.21417660021845</v>
       </c>
     </row>
     <row r="55">
@@ -6679,16 +6896,16 @@
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>206328.684703937</v>
+        <v>234417.6</v>
       </c>
       <c r="O55" t="n">
-        <v>572964.6324131044</v>
+        <v>9192493.164599365</v>
       </c>
       <c r="P55" t="n">
-        <v>523676.0625727343</v>
+        <v>9143204.594758995</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.776950927764876</v>
+        <v>39.21417660021843</v>
       </c>
     </row>
     <row r="56">
@@ -6740,16 +6957,16 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>428674.5047535442</v>
+        <v>513195.8400000003</v>
       </c>
       <c r="O56" t="n">
-        <v>1254355.755803037</v>
+        <v>20124552.30025753</v>
       </c>
       <c r="P56" t="n">
-        <v>1156483.289858054</v>
+        <v>20026679.83431255</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.926126331035707</v>
+        <v>39.21417660021859</v>
       </c>
     </row>
     <row r="57">
@@ -6801,16 +7018,16 @@
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>175815.1249255403</v>
+        <v>210240</v>
       </c>
       <c r="O57" t="n">
-        <v>513869.6254826069</v>
+        <v>8244388.488429889</v>
       </c>
       <c r="P57" t="n">
-        <v>479233.854919613</v>
+        <v>8209752.717866896</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.922783951040824</v>
+        <v>39.21417660021827</v>
       </c>
     </row>
     <row r="58">
@@ -6862,16 +7079,16 @@
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>136432.1676958785</v>
+        <v>176601.6</v>
       </c>
       <c r="O58" t="n">
-        <v>431650.4854053903</v>
+        <v>6925286.330281072</v>
       </c>
       <c r="P58" t="n">
-        <v>407714.7407122513</v>
+        <v>6901350.585587934</v>
       </c>
       <c r="Q58" t="n">
-        <v>3.163846860277001</v>
+        <v>39.21417660021807</v>
       </c>
     </row>
     <row r="59">
@@ -6924,19 +7141,19 @@
         <v>1.9</v>
       </c>
       <c r="M59" t="n">
-        <v>342536.9655644334</v>
+        <v>960286.2807999999</v>
       </c>
       <c r="N59" t="n">
-        <v>180282.6134549649</v>
+        <v>505413.832</v>
       </c>
       <c r="O59" t="n">
-        <v>947702.1711188912</v>
+        <v>19828129.64824799</v>
       </c>
       <c r="P59" t="n">
-        <v>-2611479.295717753</v>
+        <v>15651198.86617578</v>
       </c>
       <c r="Q59" t="n">
-        <v>5.256758557894047</v>
+        <v>39.2314740769659</v>
       </c>
     </row>
     <row r="60">
@@ -6988,16 +7205,16 @@
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>407715.4778571262</v>
+        <v>462527.9999999998</v>
       </c>
       <c r="O60" t="n">
-        <v>1130513.176061734</v>
+        <v>18137654.67454571</v>
       </c>
       <c r="P60" t="n">
-        <v>1070809.504491545</v>
+        <v>18077951.00297552</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.772799261885991</v>
+        <v>39.21417660021817</v>
       </c>
     </row>
     <row r="61">
@@ -7049,16 +7266,16 @@
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>184718.0969061987</v>
+        <v>192369.6</v>
       </c>
       <c r="O61" t="n">
-        <v>470190.7073165868</v>
+        <v>7543615.466913453</v>
       </c>
       <c r="P61" t="n">
-        <v>446541.8503959279</v>
+        <v>7519966.609992795</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.545450149128341</v>
+        <v>39.21417660021881</v>
       </c>
     </row>
     <row r="62">
@@ -7110,16 +7327,16 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>155042.5228233312</v>
+        <v>185221.44</v>
       </c>
       <c r="O62" t="n">
-        <v>452719.1400501749</v>
+        <v>7263306.258306769</v>
       </c>
       <c r="P62" t="n">
-        <v>433986.1211277872</v>
+        <v>7244573.239384381</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.919967579255931</v>
+        <v>39.21417660021846</v>
       </c>
     </row>
     <row r="63">
@@ -7171,16 +7388,16 @@
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>205134.1736823871</v>
+        <v>220331.52</v>
       </c>
       <c r="O63" t="n">
-        <v>538535.3675057687</v>
+        <v>8640119.135874532</v>
       </c>
       <c r="P63" t="n">
-        <v>521906.7037505487</v>
+        <v>8623490.472119313</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.625283529499052</v>
+        <v>39.21417660021831</v>
       </c>
     </row>
     <row r="64">
@@ -7232,16 +7449,16 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>271283.9999999999</v>
+        <v>273311.9999999999</v>
       </c>
       <c r="O64" t="n">
-        <v>668030.5131273879</v>
+        <v>10717705.03495881</v>
       </c>
       <c r="P64" t="n">
-        <v>651868.5941242327</v>
+        <v>10701543.11595565</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.462476641185577</v>
+        <v>39.2141766002181</v>
       </c>
     </row>
     <row r="65">
@@ -7293,16 +7510,16 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>309703.9218163831</v>
+        <v>344793.6000000001</v>
       </c>
       <c r="O65" t="n">
-        <v>842746.1857914705</v>
+        <v>13520797.12102508</v>
       </c>
       <c r="P65" t="n">
-        <v>825133.5025522957</v>
+        <v>13503184.4377859</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.721135014528866</v>
+        <v>39.21417660021843</v>
       </c>
     </row>
     <row r="66">
@@ -7354,16 +7571,16 @@
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>307535.8353764432</v>
+        <v>385895.5200000001</v>
       </c>
       <c r="O66" t="n">
-        <v>943207.697573325</v>
+        <v>15132575.07051305</v>
       </c>
       <c r="P66" t="n">
-        <v>925328.1112199677</v>
+        <v>15114695.48415969</v>
       </c>
       <c r="Q66" t="n">
-        <v>3.066984686252187</v>
+        <v>39.21417660021824</v>
       </c>
     </row>
     <row r="67">
@@ -7416,19 +7633,19 @@
         <v>3.5</v>
       </c>
       <c r="M67" t="n">
-        <v>16493325.31200229</v>
+        <v>149197971.7806353</v>
       </c>
       <c r="N67" t="n">
-        <v>1725133.867816405</v>
+        <v>15605493.0864056</v>
       </c>
       <c r="O67" t="n">
-        <v>17486799.88455556</v>
+        <v>616181710.7808185</v>
       </c>
       <c r="P67" t="n">
-        <v>-36990590.00347708</v>
+        <v>428999674.4241527</v>
       </c>
       <c r="Q67" t="n">
-        <v>10.13648865794371</v>
+        <v>39.48492414620288</v>
       </c>
     </row>
     <row r="68">
@@ -7481,19 +7698,19 @@
         <v>3.5</v>
       </c>
       <c r="M68" t="n">
-        <v>11672007.57179925</v>
+        <v>227503213.4590173</v>
       </c>
       <c r="N68" t="n">
-        <v>1220843.898159668</v>
+        <v>23795898.71362146</v>
       </c>
       <c r="O68" t="n">
-        <v>13191829.95410079</v>
+        <v>941897278.804144</v>
       </c>
       <c r="P68" t="n">
-        <v>-53821332.3203271</v>
+        <v>659052910.6424981</v>
       </c>
       <c r="Q68" t="n">
-        <v>10.80550099319536</v>
+        <v>39.58233686147668</v>
       </c>
     </row>
     <row r="69">
@@ -7546,19 +7763,19 @@
         <v>3.5</v>
       </c>
       <c r="M69" t="n">
-        <v>1918155.332857506</v>
+        <v>116228433.3337877</v>
       </c>
       <c r="N69" t="n">
-        <v>200631.1441657613</v>
+        <v>12157015.21399364</v>
       </c>
       <c r="O69" t="n">
-        <v>2698544.829960624</v>
+        <v>483051314.6654078</v>
       </c>
       <c r="P69" t="n">
-        <v>-24993988.78000541</v>
+        <v>341048503.0545115</v>
       </c>
       <c r="Q69" t="n">
-        <v>13.45027882476256</v>
+        <v>39.73436786600212</v>
       </c>
     </row>
     <row r="70">
@@ -7611,19 +7828,19 @@
         <v>1.9</v>
       </c>
       <c r="M70" t="n">
-        <v>428521.8207551309</v>
+        <v>1216087.5672</v>
       </c>
       <c r="N70" t="n">
-        <v>225537.8003974373</v>
+        <v>640046.0879999999</v>
       </c>
       <c r="O70" t="n">
-        <v>1194891.076768778</v>
+        <v>25109951.50943544</v>
       </c>
       <c r="P70" t="n">
-        <v>-3113149.814110578</v>
+        <v>20014344.87211122</v>
       </c>
       <c r="Q70" t="n">
-        <v>5.297963687963482</v>
+        <v>39.23147407696592</v>
       </c>
     </row>
     <row r="71">
@@ -7676,19 +7893,19 @@
         <v>3.5</v>
       </c>
       <c r="M71" t="n">
-        <v>867651.9304456103</v>
+        <v>111685644.8079712</v>
       </c>
       <c r="N71" t="n">
-        <v>90752.81681364543</v>
+        <v>11681858.25249777</v>
       </c>
       <c r="O71" t="n">
-        <v>1620368.041126632</v>
+        <v>465500622.5462713</v>
       </c>
       <c r="P71" t="n">
-        <v>-22923848.87200564</v>
+        <v>330138412.7556134</v>
       </c>
       <c r="Q71" t="n">
-        <v>17.85474102091998</v>
+        <v>39.84816563295823</v>
       </c>
     </row>
     <row r="72">
@@ -7741,19 +7958,19 @@
         <v>3.5</v>
       </c>
       <c r="M72" t="n">
-        <v>381960.1583603196</v>
+        <v>105348119.1524163</v>
       </c>
       <c r="N72" t="n">
-        <v>39951.45871914594</v>
+        <v>11018979.18234465</v>
       </c>
       <c r="O72" t="n">
-        <v>1094826.592593523</v>
+        <v>440431715.7163359</v>
       </c>
       <c r="P72" t="n">
-        <v>-20642466.68740574</v>
+        <v>313728263.4422807</v>
       </c>
       <c r="Q72" t="n">
-        <v>27.40392034969298</v>
+        <v>39.97028294799079</v>
       </c>
     </row>
     <row r="73">
@@ -7802,19 +8019,19 @@
         <v>1.35</v>
       </c>
       <c r="M73" t="n">
-        <v>538230.7173695364</v>
+        <v>917999.9999999984</v>
       </c>
       <c r="N73" t="n">
-        <v>398689.4202737306</v>
+        <v>679999.9999999987</v>
       </c>
       <c r="O73" t="n">
-        <v>814186.6813400186</v>
+        <v>25689912.08994826</v>
       </c>
       <c r="P73" t="n">
-        <v>-4524044.036029518</v>
+        <v>19971912.08994826</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.042157729645842</v>
+        <v>37.7792824852181</v>
       </c>
     </row>
     <row r="74">
@@ -7863,19 +8080,19 @@
         <v>1.35</v>
       </c>
       <c r="M74" t="n">
-        <v>984271.3534202004</v>
+        <v>1272806.999999998</v>
       </c>
       <c r="N74" t="n">
-        <v>729089.8914223704</v>
+        <v>942819.9999999984</v>
       </c>
       <c r="O74" t="n">
-        <v>1366884.297465273</v>
+        <v>35619063.11271326</v>
       </c>
       <c r="P74" t="n">
-        <v>-5955672.77024064</v>
+        <v>28007970.39842755</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.874781578439717</v>
+        <v>37.7792824852181</v>
       </c>
     </row>
     <row r="75">
@@ -7924,19 +8141,19 @@
         <v>1.35</v>
       </c>
       <c r="M75" t="n">
-        <v>794384.2016073188</v>
+        <v>1324214.999999998</v>
       </c>
       <c r="N75" t="n">
-        <v>588432.7419313474</v>
+        <v>980899.999999998</v>
       </c>
       <c r="O75" t="n">
-        <v>1192450.67963474</v>
+        <v>37057698.18975034</v>
       </c>
       <c r="P75" t="n">
-        <v>-5882205.630816116</v>
+        <v>29453211.08090681</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.026485942507025</v>
+        <v>37.77928248521808</v>
       </c>
     </row>
     <row r="76">
@@ -7985,19 +8202,19 @@
         <v>1.35</v>
       </c>
       <c r="M76" t="n">
-        <v>1710336.382746177</v>
+        <v>2039317.721999997</v>
       </c>
       <c r="N76" t="n">
-        <v>1266915.839071243</v>
+        <v>1510605.719999999</v>
       </c>
       <c r="O76" t="n">
-        <v>2323366.761631361</v>
+        <v>57069600.21966622</v>
       </c>
       <c r="P76" t="n">
-        <v>-8598155.626945727</v>
+        <v>45819096.49183531</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.833876166024246</v>
+        <v>37.7792824852181</v>
       </c>
     </row>
     <row r="77">
@@ -8046,19 +8263,19 @@
         <v>1.35</v>
       </c>
       <c r="M77" t="n">
-        <v>2896760.292952769</v>
+        <v>10543011.74549994</v>
       </c>
       <c r="N77" t="n">
-        <v>2145748.3651502</v>
+        <v>7809638.329999953</v>
       </c>
       <c r="O77" t="n">
-        <v>6066048.930623306</v>
+        <v>295042532.5764549</v>
       </c>
       <c r="P77" t="n">
-        <v>-42183714.52459189</v>
+        <v>239146517.6686926</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.827008529585289</v>
+        <v>37.77928248521808</v>
       </c>
     </row>
     <row r="78">
@@ -8107,19 +8324,19 @@
         <v>1.35</v>
       </c>
       <c r="M78" t="n">
-        <v>5685573.741012136</v>
+        <v>12051851.00400004</v>
       </c>
       <c r="N78" t="n">
-        <v>4211536.104453434</v>
+        <v>8927297.040000029</v>
       </c>
       <c r="O78" t="n">
-        <v>9308427.947371025</v>
+        <v>337266876.7036123</v>
       </c>
       <c r="P78" t="n">
-        <v>-45751998.68782786</v>
+        <v>275840172.8054255</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.210221571537271</v>
+        <v>37.77928248521808</v>
       </c>
     </row>
     <row r="79">
@@ -8168,19 +8385,19 @@
         <v>1.35</v>
       </c>
       <c r="M79" t="n">
-        <v>1819466.294996612</v>
+        <v>8965277.889468933</v>
       </c>
       <c r="N79" t="n">
-        <v>1347752.811108602</v>
+        <v>6640946.584791801</v>
       </c>
       <c r="O79" t="n">
-        <v>4515467.147906989</v>
+        <v>250978877.3124013</v>
       </c>
       <c r="P79" t="n">
-        <v>-32297362.2940137</v>
+        <v>207020236.2760083</v>
       </c>
       <c r="Q79" t="n">
-        <v>3.350367449200693</v>
+        <v>37.79263605088456</v>
       </c>
     </row>
     <row r="80">
@@ -8229,19 +8446,19 @@
         <v>1.35</v>
       </c>
       <c r="M80" t="n">
-        <v>1437170.867843095</v>
+        <v>7956990.885958201</v>
       </c>
       <c r="N80" t="n">
-        <v>1064571.013217107</v>
+        <v>5894067.322932</v>
       </c>
       <c r="O80" t="n">
-        <v>3830211.563681995</v>
+        <v>222774575.8805368</v>
       </c>
       <c r="P80" t="n">
-        <v>-27188885.12109994</v>
+        <v>185235659.1776398</v>
       </c>
       <c r="Q80" t="n">
-        <v>3.597892029867685</v>
+        <v>37.79640843493415</v>
       </c>
     </row>
     <row r="81">
@@ -8294,19 +8511,19 @@
         <v>1.9</v>
       </c>
       <c r="M81" t="n">
-        <v>644946.1523317947</v>
+        <v>1763791.128</v>
       </c>
       <c r="N81" t="n">
-        <v>339445.3433325235</v>
+        <v>928311.12</v>
       </c>
       <c r="O81" t="n">
-        <v>1756474.0809012</v>
+        <v>36419013.63963956</v>
       </c>
       <c r="P81" t="n">
-        <v>-3087264.466222202</v>
+        <v>30456430.11684795</v>
       </c>
       <c r="Q81" t="n">
-        <v>5.174541691033137</v>
+        <v>39.23147407696631</v>
       </c>
     </row>
     <row r="82">
@@ -8355,19 +8572,19 @@
         <v>1.35</v>
       </c>
       <c r="M82" t="n">
-        <v>7480501.709982617</v>
+        <v>9109094.237685056</v>
       </c>
       <c r="N82" t="n">
-        <v>5541112.377764901</v>
+        <v>6747477.21310004</v>
       </c>
       <c r="O82" t="n">
-        <v>10218746.67867363</v>
+        <v>254914847.6962786</v>
       </c>
       <c r="P82" t="n">
-        <v>-29499106.83519895</v>
+        <v>213568401.6547036</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.844168820628671</v>
+        <v>37.7792824852181</v>
       </c>
     </row>
     <row r="83">
@@ -8416,19 +8633,19 @@
         <v>1.35</v>
       </c>
       <c r="M83" t="n">
-        <v>4099344.508502032</v>
+        <v>6392565.567900011</v>
       </c>
       <c r="N83" t="n">
-        <v>3036551.487779282</v>
+        <v>4735233.754000007</v>
       </c>
       <c r="O83" t="n">
-        <v>6020985.677929441</v>
+        <v>178893733.6259061</v>
       </c>
       <c r="P83" t="n">
-        <v>-19624527.52377646</v>
+        <v>150954999.3648022</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.982836682388271</v>
+        <v>37.77928248521812</v>
       </c>
     </row>
     <row r="84">
@@ -8477,19 +8694,19 @@
         <v>1.35</v>
       </c>
       <c r="M84" t="n">
-        <v>1176345.119123641</v>
+        <v>4828490.258741856</v>
       </c>
       <c r="N84" t="n">
-        <v>871366.7549064008</v>
+        <v>3576659.450919894</v>
       </c>
       <c r="O84" t="n">
-        <v>2628024.635519062</v>
+        <v>135142315.8616289</v>
       </c>
       <c r="P84" t="n">
-        <v>-14050016.31395729</v>
+        <v>114812129.7725343</v>
       </c>
       <c r="Q84" t="n">
-        <v>3.015979919731222</v>
+        <v>37.78450750374658</v>
       </c>
     </row>
     <row r="85">
@@ -8538,19 +8755,19 @@
         <v>1.35</v>
       </c>
       <c r="M85" t="n">
-        <v>3126101.51629536</v>
+        <v>3980326.856129974</v>
       </c>
       <c r="N85" t="n">
-        <v>2315630.752811378</v>
+        <v>2948390.263799981</v>
       </c>
       <c r="O85" t="n">
-        <v>4322610.159542578</v>
+        <v>111388068.6527662</v>
       </c>
       <c r="P85" t="n">
-        <v>-10971934.11007948</v>
+        <v>95239299.04330948</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.866709601388111</v>
+        <v>37.77928248521809</v>
       </c>
     </row>
     <row r="86">
@@ -8599,19 +8816,19 @@
         <v>1.35</v>
       </c>
       <c r="M86" t="n">
-        <v>891900.4836982012</v>
+        <v>2494995.241319984</v>
       </c>
       <c r="N86" t="n">
-        <v>660667.0249616306</v>
+        <v>1848144.623199988</v>
       </c>
       <c r="O86" t="n">
-        <v>1641910.088186461</v>
+        <v>69821577.7934093</v>
       </c>
       <c r="P86" t="n">
-        <v>-6514339.198345302</v>
+        <v>60062233.74925575</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.485230874481466</v>
+        <v>37.7792824852181</v>
       </c>
     </row>
     <row r="87">
@@ -8660,19 +8877,19 @@
         <v>1.35</v>
       </c>
       <c r="M87" t="n">
-        <v>1558889.258796984</v>
+        <v>4704375.226499975</v>
       </c>
       <c r="N87" t="n">
-        <v>1154732.784294062</v>
+        <v>3484722.389999981</v>
       </c>
       <c r="O87" t="n">
-        <v>2973050.915123409</v>
+        <v>131650311.5543736</v>
       </c>
       <c r="P87" t="n">
-        <v>-11630704.35182905</v>
+        <v>113901070.3197182</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.574665719689393</v>
+        <v>37.77928248521809</v>
       </c>
     </row>
     <row r="88">
@@ -8721,19 +8938,19 @@
         <v>1.35</v>
       </c>
       <c r="M88" t="n">
-        <v>375007.2400056223</v>
+        <v>1723858.640111227</v>
       </c>
       <c r="N88" t="n">
-        <v>277783.1407449054</v>
+        <v>1276932.326008316</v>
       </c>
       <c r="O88" t="n">
-        <v>893398.797003092</v>
+        <v>48258638.65844175</v>
       </c>
       <c r="P88" t="n">
-        <v>-4035777.891357756</v>
+        <v>41980610.56997529</v>
       </c>
       <c r="Q88" t="n">
-        <v>3.216173575571746</v>
+        <v>37.79263605088456</v>
       </c>
     </row>
     <row r="89">
@@ -8782,19 +8999,19 @@
         <v>1.35</v>
       </c>
       <c r="M89" t="n">
-        <v>2338817.557533154</v>
+        <v>3075764.048999982</v>
       </c>
       <c r="N89" t="n">
-        <v>1732457.450024558</v>
+        <v>2278343.739999987</v>
       </c>
       <c r="O89" t="n">
-        <v>3263409.532574051</v>
+        <v>86074191.75188781</v>
       </c>
       <c r="P89" t="n">
-        <v>-6811330.102148678</v>
+        <v>75262505.62569825</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.883688128979901</v>
+        <v>37.7792824852181</v>
       </c>
     </row>
     <row r="90">
@@ -8843,19 +9060,19 @@
         <v>1.35</v>
       </c>
       <c r="M90" t="n">
-        <v>2643502.224312057</v>
+        <v>3809504.924999975</v>
       </c>
       <c r="N90" t="n">
-        <v>1958149.795786709</v>
+        <v>2821855.499999981</v>
       </c>
       <c r="O90" t="n">
-        <v>3788660.834147208</v>
+        <v>106607676.0669656</v>
       </c>
       <c r="P90" t="n">
-        <v>-7979955.634481062</v>
+        <v>93673056.89764944</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.934816653097303</v>
+        <v>37.7792824852181</v>
       </c>
     </row>
     <row r="91">
@@ -8904,19 +9121,19 @@
         <v>1.35</v>
       </c>
       <c r="M91" t="n">
-        <v>1667857.364558501</v>
+        <v>2954719.781999987</v>
       </c>
       <c r="N91" t="n">
-        <v>1235449.899672964</v>
+        <v>2188681.319999991</v>
       </c>
       <c r="O91" t="n">
-        <v>2556062.752036127</v>
+        <v>82686809.85839967</v>
       </c>
       <c r="P91" t="n">
-        <v>-5852366.919475947</v>
+        <v>72991517.7694461</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.06893274483469</v>
+        <v>37.77928248521809</v>
       </c>
     </row>
     <row r="92">
@@ -8969,19 +9186,19 @@
         <v>1.9</v>
       </c>
       <c r="M92" t="n">
-        <v>312213.7914970379</v>
+        <v>1273267.216</v>
       </c>
       <c r="N92" t="n">
-        <v>164323.0481563357</v>
+        <v>670140.6399999997</v>
       </c>
       <c r="O92" t="n">
-        <v>1114983.962130502</v>
+        <v>26302039.02996153</v>
       </c>
       <c r="P92" t="n">
-        <v>-1352343.370084291</v>
+        <v>22873658.27324377</v>
       </c>
       <c r="Q92" t="n">
-        <v>6.785316939043844</v>
+        <v>39.24853599381996</v>
       </c>
     </row>
     <row r="93">
@@ -9030,19 +9247,19 @@
         <v>1.35</v>
       </c>
       <c r="M93" t="n">
-        <v>2412301.579652882</v>
+        <v>3292569.944999973</v>
       </c>
       <c r="N93" t="n">
-        <v>1786890.059002134</v>
+        <v>2438940.69999998</v>
       </c>
       <c r="O93" t="n">
-        <v>3402066.626616614</v>
+        <v>92141429.66999485</v>
       </c>
       <c r="P93" t="n">
-        <v>-6163860.154308862</v>
+        <v>81695234.52372228</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.903903717790256</v>
+        <v>37.77928248521811</v>
       </c>
     </row>
     <row r="94">
@@ -9091,19 +9308,19 @@
         <v>1.35</v>
       </c>
       <c r="M94" t="n">
-        <v>1579969.507563464</v>
+        <v>4070026.439999965</v>
       </c>
       <c r="N94" t="n">
-        <v>1170347.783380344</v>
+        <v>3014834.399999974</v>
       </c>
       <c r="O94" t="n">
-        <v>2803442.350303706</v>
+        <v>113898280.443752</v>
       </c>
       <c r="P94" t="n">
-        <v>-7198214.311579131</v>
+        <v>101406566.8494327</v>
       </c>
       <c r="Q94" t="n">
-        <v>2.395392540674068</v>
+        <v>37.7792824852181</v>
       </c>
     </row>
     <row r="95">
@@ -9152,19 +9369,19 @@
         <v>1.35</v>
       </c>
       <c r="M95" t="n">
-        <v>1033178.627540032</v>
+        <v>4531514.856590645</v>
       </c>
       <c r="N95" t="n">
-        <v>765317.5018815049</v>
+        <v>3356677.671548626</v>
       </c>
       <c r="O95" t="n">
-        <v>2395870.626303557</v>
+        <v>126857142.153621</v>
       </c>
       <c r="P95" t="n">
-        <v>-7570633.890013654</v>
+        <v>113392301.4082532</v>
       </c>
       <c r="Q95" t="n">
-        <v>3.130557736381825</v>
+        <v>37.79247058151241</v>
       </c>
     </row>
     <row r="96">
@@ -9213,19 +9430,19 @@
         <v>1.35</v>
       </c>
       <c r="M96" t="n">
-        <v>3022112.247990203</v>
+        <v>3783535.393499954</v>
       </c>
       <c r="N96" t="n">
-        <v>2238601.665177928</v>
+        <v>2802618.809999966</v>
       </c>
       <c r="O96" t="n">
-        <v>4159464.270571596</v>
+        <v>105880927.7213745</v>
       </c>
       <c r="P96" t="n">
-        <v>-5963673.550467566</v>
+        <v>94996366.75482558</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.85806360071701</v>
+        <v>37.7792824852181</v>
       </c>
     </row>
     <row r="97">
@@ -9274,19 +9491,19 @@
         <v>1.35</v>
       </c>
       <c r="M97" t="n">
-        <v>593526.9527022324</v>
+        <v>1958523.164999999</v>
       </c>
       <c r="N97" t="n">
-        <v>439649.5945942462</v>
+        <v>1450757.899999999</v>
       </c>
       <c r="O97" t="n">
-        <v>1182270.033264428</v>
+        <v>54808592.52176175</v>
       </c>
       <c r="P97" t="n">
-        <v>-2912019.750681794</v>
+        <v>49349306.52551776</v>
       </c>
       <c r="Q97" t="n">
-        <v>2.689118897870355</v>
+        <v>37.7792824852181</v>
       </c>
     </row>
     <row r="98">
@@ -9335,19 +9552,19 @@
         <v>1.35</v>
       </c>
       <c r="M98" t="n">
-        <v>403625.6146359338</v>
+        <v>1294903.26</v>
       </c>
       <c r="N98" t="n">
-        <v>298981.9367673583</v>
+        <v>959187.6000000002</v>
       </c>
       <c r="O98" t="n">
-        <v>792880.8187337773</v>
+        <v>36237419.29671839</v>
       </c>
       <c r="P98" t="n">
-        <v>-1815102.156627445</v>
+        <v>32738158.6759931</v>
       </c>
       <c r="Q98" t="n">
-        <v>2.651935522615628</v>
+        <v>37.7792824852181</v>
       </c>
     </row>
     <row r="99">
@@ -9396,19 +9613,19 @@
         <v>1.35</v>
       </c>
       <c r="M99" t="n">
-        <v>315726.8403150273</v>
+        <v>578191.7429999984</v>
       </c>
       <c r="N99" t="n">
-        <v>233871.7335666869</v>
+        <v>428290.1799999988</v>
       </c>
       <c r="O99" t="n">
-        <v>489534.5307282497</v>
+        <v>16180495.69586486</v>
       </c>
       <c r="P99" t="n">
-        <v>-763597.3056374593</v>
+        <v>14664898.95681418</v>
       </c>
       <c r="Q99" t="n">
-        <v>2.093175277159616</v>
+        <v>37.77928248521809</v>
       </c>
     </row>
     <row r="100">
@@ -9457,19 +9674,19 @@
         <v>1.35</v>
       </c>
       <c r="M100" t="n">
-        <v>304332.0138073697</v>
+        <v>392146.6499999986</v>
       </c>
       <c r="N100" t="n">
-        <v>225431.1213387923</v>
+        <v>290478.9999999988</v>
       </c>
       <c r="O100" t="n">
-        <v>422213.5027164603</v>
+        <v>10974088.19702362</v>
       </c>
       <c r="P100" t="n">
-        <v>-487619.1262908672</v>
+        <v>9976440.931823669</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.872915772272324</v>
+        <v>37.7792824852181</v>
       </c>
     </row>
     <row r="101">
@@ -9518,19 +9735,19 @@
         <v>1.35</v>
       </c>
       <c r="M101" t="n">
-        <v>259036.3001943993</v>
+        <v>362369.1167999987</v>
       </c>
       <c r="N101" t="n">
-        <v>191878.7408847402</v>
+        <v>268421.567999999</v>
       </c>
       <c r="O101" t="n">
-        <v>367966.4951177935</v>
+        <v>10140774.24259713</v>
       </c>
       <c r="P101" t="n">
-        <v>-423948.0102117931</v>
+        <v>9245526.920661947</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.917703302727151</v>
+        <v>37.77928248521807</v>
       </c>
     </row>
     <row r="102">
@@ -9579,19 +9796,19 @@
         <v>1.35</v>
       </c>
       <c r="M102" t="n">
-        <v>333630.6758681607</v>
+        <v>396284.5349999981</v>
       </c>
       <c r="N102" t="n">
-        <v>247133.8339764153</v>
+        <v>293544.0999999986</v>
       </c>
       <c r="O102" t="n">
-        <v>452756.0362848479</v>
+        <v>11089885.47576906</v>
       </c>
       <c r="P102" t="n">
-        <v>-435876.7130240473</v>
+        <v>10138598.86732832</v>
       </c>
       <c r="Q102" t="n">
-        <v>1.832027727648395</v>
+        <v>37.7792824852181</v>
       </c>
     </row>
     <row r="103">
@@ -9644,19 +9861,19 @@
         <v>1.9</v>
       </c>
       <c r="M103" t="n">
-        <v>905552.8841352374</v>
+        <v>2605494.365587474</v>
       </c>
       <c r="N103" t="n">
-        <v>476606.7811238092</v>
+        <v>1371312.823993407</v>
       </c>
       <c r="O103" t="n">
-        <v>2547559.141655228</v>
+        <v>53799972.48643664</v>
       </c>
       <c r="P103" t="n">
-        <v>-2356291.549420159</v>
+        <v>47196180.31390902</v>
       </c>
       <c r="Q103" t="n">
-        <v>5.345201206848635</v>
+        <v>39.2324577916259</v>
       </c>
     </row>
     <row r="104">
@@ -9705,19 +9922,19 @@
         <v>1.35</v>
       </c>
       <c r="M104" t="n">
-        <v>228962.577573726</v>
+        <v>306308.8763999994</v>
       </c>
       <c r="N104" t="n">
-        <v>169601.9093138711</v>
+        <v>226895.4639999996</v>
       </c>
       <c r="O104" t="n">
-        <v>321040.7488805638</v>
+        <v>8571947.829070615</v>
       </c>
       <c r="P104" t="n">
-        <v>-316483.634549827</v>
+        <v>7857077.146813951</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.892907633996235</v>
+        <v>37.77928248521808</v>
       </c>
     </row>
     <row r="105">
@@ -9766,19 +9983,19 @@
         <v>2.7</v>
       </c>
       <c r="M105" t="n">
-        <v>1565702.718025742</v>
+        <v>12187108.68317718</v>
       </c>
       <c r="N105" t="n">
-        <v>579889.8955650895</v>
+        <v>4513743.95673229</v>
       </c>
       <c r="O105" t="n">
-        <v>2888445.950028512</v>
+        <v>173101704.825241</v>
       </c>
       <c r="P105" t="n">
-        <v>-35645888.51402897</v>
+        <v>123945964.3960321</v>
       </c>
       <c r="Q105" t="n">
-        <v>4.981024798188262</v>
+        <v>38.3499167175972</v>
       </c>
     </row>
     <row r="106">
@@ -9827,19 +10044,19 @@
         <v>2.7</v>
       </c>
       <c r="M106" t="n">
-        <v>552105.0880761952</v>
+        <v>10200857.34723625</v>
       </c>
       <c r="N106" t="n">
-        <v>204483.3659541464</v>
+        <v>3778095.313791201</v>
       </c>
       <c r="O106" t="n">
-        <v>1665994.125552212</v>
+        <v>145707885.6773953</v>
       </c>
       <c r="P106" t="n">
-        <v>-28535138.92926623</v>
+        <v>105858000.3634168</v>
       </c>
       <c r="Q106" t="n">
-        <v>8.147333245315398</v>
+        <v>38.56649278950613</v>
       </c>
     </row>
     <row r="107">
@@ -9888,19 +10105,19 @@
         <v>2.7</v>
       </c>
       <c r="M107" t="n">
-        <v>1515791.123929639</v>
+        <v>15664212.31179309</v>
       </c>
       <c r="N107" t="n">
-        <v>561404.1199739401</v>
+        <v>5801560.115478922</v>
       </c>
       <c r="O107" t="n">
-        <v>3218216.070912417</v>
+        <v>222767916.3247988</v>
       </c>
       <c r="P107" t="n">
-        <v>-41454173.38395957</v>
+        <v>163947105.6820633</v>
       </c>
       <c r="Q107" t="n">
-        <v>5.732441135383552</v>
+        <v>38.39793295090405</v>
       </c>
     </row>
     <row r="108">
@@ -9949,19 +10166,19 @@
         <v>2.7</v>
       </c>
       <c r="M108" t="n">
-        <v>466754.9349866446</v>
+        <v>7884315.62367728</v>
       </c>
       <c r="N108" t="n">
-        <v>172872.1981432016</v>
+        <v>2920116.897658252</v>
       </c>
       <c r="O108" t="n">
-        <v>1326742.794802687</v>
+        <v>112503712.4962265</v>
       </c>
       <c r="P108" t="n">
-        <v>-19902636.76675416</v>
+        <v>83856772.24597904</v>
       </c>
       <c r="Q108" t="n">
-        <v>7.674703098896546</v>
+        <v>38.5271262895151</v>
       </c>
     </row>
     <row r="109">
@@ -10010,19 +10227,19 @@
         <v>2.7</v>
       </c>
       <c r="M109" t="n">
-        <v>806483.2693442794</v>
+        <v>17357892.41645702</v>
       </c>
       <c r="N109" t="n">
-        <v>298697.5071645479</v>
+        <v>6428849.043132228</v>
       </c>
       <c r="O109" t="n">
-        <v>2704306.818489342</v>
+        <v>248232262.1134296</v>
       </c>
       <c r="P109" t="n">
-        <v>-41739335.04404815</v>
+        <v>187237211.1037794</v>
       </c>
       <c r="Q109" t="n">
-        <v>9.053663835900647</v>
+        <v>38.61223999008185</v>
       </c>
     </row>
     <row r="110">
@@ -10071,19 +10288,19 @@
         <v>2.7</v>
       </c>
       <c r="M110" t="n">
-        <v>665204.1046288495</v>
+        <v>7812238.330130106</v>
       </c>
       <c r="N110" t="n">
-        <v>246371.8906032776</v>
+        <v>2893421.603751892</v>
       </c>
       <c r="O110" t="n">
-        <v>1514661.500855308</v>
+        <v>111150581.3634236</v>
       </c>
       <c r="P110" t="n">
-        <v>-17752255.44427514</v>
+        <v>84736630.19279194</v>
       </c>
       <c r="Q110" t="n">
-        <v>6.147866532770593</v>
+        <v>38.4149275789242</v>
       </c>
     </row>
     <row r="111">
@@ -10132,19 +10349,19 @@
         <v>2.7</v>
       </c>
       <c r="M111" t="n">
-        <v>1921745.306763661</v>
+        <v>26885510.90508634</v>
       </c>
       <c r="N111" t="n">
-        <v>711757.5210235782</v>
+        <v>9957596.631513458</v>
       </c>
       <c r="O111" t="n">
-        <v>4849214.184668068</v>
+        <v>383018478.2181723</v>
       </c>
       <c r="P111" t="n">
-        <v>-58126559.09918466</v>
+        <v>295078939.3359969</v>
       </c>
       <c r="Q111" t="n">
-        <v>6.813014322201211</v>
+        <v>38.46495217591047</v>
       </c>
     </row>
     <row r="112">
@@ -10193,19 +10410,19 @@
         <v>2.7</v>
       </c>
       <c r="M112" t="n">
-        <v>490840.017927336</v>
+        <v>4322069.024158687</v>
       </c>
       <c r="N112" t="n">
-        <v>181792.5992323467</v>
+        <v>1600766.305243958</v>
       </c>
       <c r="O112" t="n">
-        <v>960030.6734188095</v>
+        <v>61400134.52877397</v>
       </c>
       <c r="P112" t="n">
-        <v>-8850083.532325024</v>
+        <v>47758791.31679879</v>
       </c>
       <c r="Q112" t="n">
-        <v>5.280911750383233</v>
+        <v>38.35671348630525</v>
       </c>
     </row>
     <row r="113">
@@ -10254,19 +10471,19 @@
         <v>2.7</v>
       </c>
       <c r="M113" t="n">
-        <v>467900.6619594464</v>
+        <v>4309848.813168112</v>
       </c>
       <c r="N113" t="n">
-        <v>173296.5414664616</v>
+        <v>1596240.301173375</v>
       </c>
       <c r="O113" t="n">
-        <v>935921.2659409662</v>
+        <v>61245575.00231054</v>
       </c>
       <c r="P113" t="n">
-        <v>-8385345.207980475</v>
+        <v>48082360.37718043</v>
       </c>
       <c r="Q113" t="n">
-        <v>5.400692120114219</v>
+        <v>38.36864346633131</v>
       </c>
     </row>
     <row r="114">
@@ -10319,19 +10536,19 @@
         <v>1.9</v>
       </c>
       <c r="M114" t="n">
-        <v>272753.3623779781</v>
+        <v>926036.6376</v>
       </c>
       <c r="N114" t="n">
-        <v>143554.4012515674</v>
+        <v>487387.7040000001</v>
       </c>
       <c r="O114" t="n">
-        <v>856468.0289600445</v>
+        <v>19125095.00920941</v>
       </c>
       <c r="P114" t="n">
-        <v>-6188933.372551841</v>
+        <v>11426410.3324755</v>
       </c>
       <c r="Q114" t="n">
-        <v>5.966156533641583</v>
+        <v>39.24000308635075</v>
       </c>
     </row>
     <row r="115">
@@ -10384,19 +10601,19 @@
         <v>1.9</v>
       </c>
       <c r="M115" t="n">
-        <v>831286.9101727569</v>
+        <v>2889481.8024</v>
       </c>
       <c r="N115" t="n">
-        <v>437519.4264067143</v>
+        <v>1520779.896</v>
       </c>
       <c r="O115" t="n">
-        <v>2652632.673828603</v>
+        <v>59675407.81269976</v>
       </c>
       <c r="P115" t="n">
-        <v>-1037488.899170491</v>
+        <v>53927091.34747342</v>
       </c>
       <c r="Q115" t="n">
-        <v>6.062891185459589</v>
+        <v>39.24000308635048</v>
       </c>
     </row>
     <row r="116">
@@ -10445,19 +10662,19 @@
         <v>2.7</v>
       </c>
       <c r="M116" t="n">
-        <v>165569.9638148416</v>
+        <v>1167794.456438836</v>
       </c>
       <c r="N116" t="n">
-        <v>61322.20882031169</v>
+        <v>432516.4653477172</v>
       </c>
       <c r="O116" t="n">
-        <v>292286.5423428381</v>
+        <v>16583142.32214915</v>
       </c>
       <c r="P116" t="n">
-        <v>-1943944.294888447</v>
+        <v>13344686.99229387</v>
       </c>
       <c r="Q116" t="n">
-        <v>4.766405972089256</v>
+        <v>38.34106594951778</v>
       </c>
     </row>
     <row r="117">
@@ -10506,19 +10723,19 @@
         <v>2.7</v>
       </c>
       <c r="M117" t="n">
-        <v>107585.623547619</v>
+        <v>2565263.649299151</v>
       </c>
       <c r="N117" t="n">
-        <v>39846.52723985889</v>
+        <v>950097.6478885744</v>
       </c>
       <c r="O117" t="n">
-        <v>388397.9859365128</v>
+        <v>36726699.36278375</v>
       </c>
       <c r="P117" t="n">
-        <v>-3881293.902604804</v>
+        <v>29999329.4484909</v>
       </c>
       <c r="Q117" t="n">
-        <v>9.747348460218996</v>
+        <v>38.65571022557777</v>
       </c>
     </row>
     <row r="118">
@@ -10570,16 +10787,16 @@
         <v>0</v>
       </c>
       <c r="N118" t="n">
-        <v>127273.9625020252</v>
+        <v>239209.9999999999</v>
       </c>
       <c r="O118" t="n">
-        <v>125500.5062326602</v>
+        <v>8925971.600218356</v>
       </c>
       <c r="P118" t="n">
-        <v>-1613118.541386387</v>
+        <v>7187352.552599308</v>
       </c>
       <c r="Q118" t="n">
-        <v>0.986065835976964</v>
+        <v>37.31437481801915</v>
       </c>
     </row>
     <row r="119">
@@ -10631,16 +10848,16 @@
         <v>0</v>
       </c>
       <c r="N119" t="n">
-        <v>138969.3340307912</v>
+        <v>185629.9999999999</v>
       </c>
       <c r="O119" t="n">
-        <v>97389.98775957827</v>
+        <v>6926667.397468893</v>
       </c>
       <c r="P119" t="n">
-        <v>-1187553.322898018</v>
+        <v>5641724.086811297</v>
       </c>
       <c r="Q119" t="n">
-        <v>0.7008020038291305</v>
+        <v>37.31437481801916</v>
       </c>
     </row>
     <row r="120">
@@ -10695,13 +10912,13 @@
         <v>393986.8499999997</v>
       </c>
       <c r="O120" t="n">
-        <v>206703.5204381555</v>
+        <v>14701372.99427069</v>
       </c>
       <c r="P120" t="n">
-        <v>-2390633.052286172</v>
+        <v>12104036.42154636</v>
       </c>
       <c r="Q120" t="n">
-        <v>0.5246457348466215</v>
+        <v>37.31437481801917</v>
       </c>
     </row>
     <row r="121">
@@ -10756,13 +10973,13 @@
         <v>3146233.867325084</v>
       </c>
       <c r="O121" t="n">
-        <v>1650658.179322095</v>
+        <v>117399749.7905141</v>
       </c>
       <c r="P121" t="n">
-        <v>-18103030.57824345</v>
+        <v>97646061.03294855</v>
       </c>
       <c r="Q121" t="n">
-        <v>0.5246457348466211</v>
+        <v>37.31437481801915</v>
       </c>
     </row>
     <row r="122">
@@ -10814,16 +11031,16 @@
         <v>0</v>
       </c>
       <c r="N122" t="n">
-        <v>5317500.996242012</v>
+        <v>5911157.309400378</v>
       </c>
       <c r="O122" t="n">
-        <v>3101263.470384337</v>
+        <v>220571139.4512393</v>
       </c>
       <c r="P122" t="n">
-        <v>-32244748.72823887</v>
+        <v>185225127.2526161</v>
       </c>
       <c r="Q122" t="n">
-        <v>0.5832182208477373</v>
+        <v>37.31437481801915</v>
       </c>
     </row>
     <row r="123">
@@ -10875,16 +11092,16 @@
         <v>0</v>
       </c>
       <c r="N123" t="n">
-        <v>1150922.232913875</v>
+        <v>1603906.676151671</v>
       </c>
       <c r="O123" t="n">
-        <v>841482.7967349956</v>
+        <v>59848774.88704673</v>
       </c>
       <c r="P123" t="n">
-        <v>-8292447.68717737</v>
+        <v>50714844.40313437</v>
       </c>
       <c r="Q123" t="n">
-        <v>0.7311378411767674</v>
+        <v>37.31437481801916</v>
       </c>
     </row>
     <row r="124">
@@ -10936,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="N124" t="n">
-        <v>940579.0382333188</v>
+        <v>1394223.897852643</v>
       </c>
       <c r="O124" t="n">
-        <v>731473.6214296204</v>
+        <v>52024593.10471317</v>
       </c>
       <c r="P124" t="n">
-        <v>-6830267.93976208</v>
+        <v>44462851.54352147</v>
       </c>
       <c r="Q124" t="n">
-        <v>0.7776843749394424</v>
+        <v>37.31437481801915</v>
       </c>
     </row>
     <row r="125">
@@ -10997,16 +11214,16 @@
         <v>0</v>
       </c>
       <c r="N125" t="n">
-        <v>742729.7936109867</v>
+        <v>1317834.487153446</v>
       </c>
       <c r="O125" t="n">
-        <v>691396.2429188398</v>
+        <v>49174170.00175571</v>
       </c>
       <c r="P125" t="n">
-        <v>-6115684.113077445</v>
+        <v>42367089.64575943</v>
       </c>
       <c r="Q125" t="n">
-        <v>0.9308852948491879</v>
+        <v>37.31437481801915</v>
       </c>
     </row>
     <row r="126">
@@ -11059,19 +11276,19 @@
         <v>3.5</v>
       </c>
       <c r="M126" t="n">
-        <v>0</v>
+        <v>3256894.118760395</v>
       </c>
       <c r="N126" t="n">
-        <v>0</v>
+        <v>56667.93390212601</v>
       </c>
       <c r="O126" t="n">
-        <v>0</v>
+        <v>3256894.118760395</v>
       </c>
       <c r="P126" t="n">
         <v>-197145917.776716</v>
       </c>
       <c r="Q126" t="n">
-        <v>0</v>
+        <v>57.47331682121211</v>
       </c>
     </row>
     <row r="127">
@@ -11123,16 +11340,16 @@
         <v>0</v>
       </c>
       <c r="N127" t="n">
-        <v>690216.2577673405</v>
+        <v>1645967.730451581</v>
       </c>
       <c r="O127" t="n">
-        <v>863549.949476595</v>
+        <v>61418256.83243461</v>
       </c>
       <c r="P127" t="n">
-        <v>-7233597.095476031</v>
+        <v>53321109.78748199</v>
       </c>
       <c r="Q127" t="n">
-        <v>1.251129540573184</v>
+        <v>37.31437481801915</v>
       </c>
     </row>
     <row r="128">
@@ -11184,16 +11401,16 @@
         <v>0</v>
       </c>
       <c r="N128" t="n">
-        <v>846219.818583102</v>
+        <v>2930502.365876785</v>
       </c>
       <c r="O128" t="n">
-        <v>1537475.567215188</v>
+        <v>109349863.6854183</v>
       </c>
       <c r="P128" t="n">
-        <v>-12192301.54235981</v>
+        <v>95620086.57584326</v>
       </c>
       <c r="Q128" t="n">
-        <v>1.816874922392523</v>
+        <v>37.31437481801916</v>
       </c>
     </row>
     <row r="129">
@@ -11245,16 +11462,16 @@
         <v>0</v>
       </c>
       <c r="N129" t="n">
-        <v>2256792.948983413</v>
+        <v>6444893.467625077</v>
       </c>
       <c r="O129" t="n">
-        <v>3381285.869330347</v>
+        <v>240487170.5131653</v>
       </c>
       <c r="P129" t="n">
-        <v>-25375997.3400846</v>
+        <v>211729887.3037503</v>
       </c>
       <c r="Q129" t="n">
-        <v>1.498270309136454</v>
+        <v>37.31437481801915</v>
       </c>
     </row>
     <row r="130">
@@ -11306,16 +11523,16 @@
         <v>0</v>
       </c>
       <c r="N130" t="n">
-        <v>8772958.509297865</v>
+        <v>8830577.334387776</v>
       </c>
       <c r="O130" t="n">
-        <v>4632924.734719793</v>
+        <v>329507472.5148499</v>
       </c>
       <c r="P130" t="n">
-        <v>-32893043.85292104</v>
+        <v>291981503.9272091</v>
       </c>
       <c r="Q130" t="n">
-        <v>0.5280914904373103</v>
+        <v>37.31437481801915</v>
       </c>
     </row>
     <row r="131">
@@ -11370,13 +11587,13 @@
         <v>7101711.024076262</v>
       </c>
       <c r="O131" t="n">
-        <v>3725882.398894841</v>
+        <v>264995907.0016403</v>
       </c>
       <c r="P131" t="n">
-        <v>-25016086.14932631</v>
+        <v>236253938.4534191</v>
       </c>
       <c r="Q131" t="n">
-        <v>0.5246457348466211</v>
+        <v>37.31437481801915</v>
       </c>
     </row>
     <row r="132">
@@ -11428,16 +11645,16 @@
         <v>0</v>
       </c>
       <c r="N132" t="n">
-        <v>1968773.830177725</v>
+        <v>4124216.750301574</v>
       </c>
       <c r="O132" t="n">
-        <v>2163752.727628713</v>
+        <v>153892569.6515058</v>
       </c>
       <c r="P132" t="n">
-        <v>-13732900.33599096</v>
+        <v>137995916.5878861</v>
       </c>
       <c r="Q132" t="n">
-        <v>1.099035701542918</v>
+        <v>37.31437481801914</v>
       </c>
     </row>
     <row r="133">
@@ -11489,16 +11706,16 @@
         <v>0</v>
       </c>
       <c r="N133" t="n">
-        <v>1103868.096074372</v>
+        <v>1827887.352025557</v>
       </c>
       <c r="O133" t="n">
-        <v>958993.3030202936</v>
+        <v>68206473.77859816</v>
       </c>
       <c r="P133" t="n">
-        <v>-5751034.86054474</v>
+        <v>61496445.61503313</v>
       </c>
       <c r="Q133" t="n">
-        <v>0.8687571517201297</v>
+        <v>37.31437481801915</v>
       </c>
     </row>
     <row r="134">
@@ -11550,16 +11767,16 @@
         <v>0</v>
       </c>
       <c r="N134" t="n">
-        <v>888568.4847041905</v>
+        <v>1159994.080474517</v>
       </c>
       <c r="O134" t="n">
-        <v>608585.9467682835</v>
+        <v>43284453.90550959</v>
       </c>
       <c r="P134" t="n">
-        <v>-3446885.884155052</v>
+        <v>39228982.07458626</v>
       </c>
       <c r="Q134" t="n">
-        <v>0.6849060677308235</v>
+        <v>37.31437481801916</v>
       </c>
     </row>
     <row r="135">
@@ -11611,16 +11828,16 @@
         <v>0</v>
       </c>
       <c r="N135" t="n">
-        <v>633304.599982169</v>
+        <v>788242.6193502008</v>
       </c>
       <c r="O135" t="n">
-        <v>413548.1282664115</v>
+        <v>29412780.54597059</v>
       </c>
       <c r="P135" t="n">
-        <v>-2211010.20642563</v>
+        <v>26788222.21127855</v>
       </c>
       <c r="Q135" t="n">
-        <v>0.6530003544551155</v>
+        <v>37.31437481801915</v>
       </c>
     </row>
     <row r="136">
@@ -11672,16 +11889,16 @@
         <v>0</v>
       </c>
       <c r="N136" t="n">
-        <v>266467.804810427</v>
+        <v>862076.5547499495</v>
       </c>
       <c r="O136" t="n">
-        <v>452284.7875608308</v>
+        <v>32167847.68576622</v>
       </c>
       <c r="P136" t="n">
-        <v>-2281427.797358243</v>
+        <v>29434135.10084715</v>
       </c>
       <c r="Q136" t="n">
-        <v>1.697333709348487</v>
+        <v>37.31437481801915</v>
       </c>
     </row>
     <row r="137">
@@ -11734,19 +11951,19 @@
         <v>3.5</v>
       </c>
       <c r="M137" t="n">
-        <v>0</v>
+        <v>133108.4133353671</v>
       </c>
       <c r="N137" t="n">
-        <v>0</v>
+        <v>2316.003681315983</v>
       </c>
       <c r="O137" t="n">
-        <v>0</v>
+        <v>133108.4133353671</v>
       </c>
       <c r="P137" t="n">
         <v>-63367339.17393106</v>
       </c>
       <c r="Q137" t="n">
-        <v>0</v>
+        <v>57.47331682121213</v>
       </c>
     </row>
     <row r="138">
@@ -11798,16 +12015,16 @@
         <v>0</v>
       </c>
       <c r="N138" t="n">
-        <v>376866.3822800267</v>
+        <v>601391.3335500241</v>
       </c>
       <c r="O138" t="n">
-        <v>315517.3981207419</v>
+        <v>22440541.63239398</v>
       </c>
       <c r="P138" t="n">
-        <v>-1500729.49453633</v>
+        <v>20624294.73973691</v>
       </c>
       <c r="Q138" t="n">
-        <v>0.8372129034483632</v>
+        <v>37.31437481801916</v>
       </c>
     </row>
     <row r="139">
@@ -11859,16 +12076,16 @@
         <v>0</v>
       </c>
       <c r="N139" t="n">
-        <v>50513.49743499684</v>
+        <v>116014.8578497278</v>
       </c>
       <c r="O139" t="n">
-        <v>60866.70034969679</v>
+        <v>4329021.890263957</v>
       </c>
       <c r="P139" t="n">
-        <v>-272822.408502011</v>
+        <v>3995332.781412249</v>
       </c>
       <c r="Q139" t="n">
-        <v>1.204959138456468</v>
+        <v>37.31437481801916</v>
       </c>
     </row>
     <row r="140">
@@ -11920,16 +12137,16 @@
         <v>0</v>
       </c>
       <c r="N140" t="n">
-        <v>46124.45655702091</v>
+        <v>88753.9200499552</v>
       </c>
       <c r="O140" t="n">
-        <v>46564.36560512701</v>
+        <v>3311797.039312533</v>
       </c>
       <c r="P140" t="n">
-        <v>-196558.9807324164</v>
+        <v>3068673.692974989</v>
       </c>
       <c r="Q140" t="n">
-        <v>1.009537435905879</v>
+        <v>37.31437481801915</v>
       </c>
     </row>
     <row r="141">
@@ -11981,16 +12198,16 @@
         <v>0</v>
       </c>
       <c r="N141" t="n">
-        <v>83910.19216100322</v>
+        <v>163327.7933549927</v>
       </c>
       <c r="O141" t="n">
-        <v>85689.23016560724</v>
+        <v>6094474.499448174</v>
       </c>
       <c r="P141" t="n">
-        <v>-340409.1824645856</v>
+        <v>5668376.086817981</v>
       </c>
       <c r="Q141" t="n">
-        <v>1.021201691460681</v>
+        <v>37.31437481801915</v>
       </c>
     </row>
     <row r="142">
@@ -12043,19 +12260,19 @@
         <v>3.5</v>
       </c>
       <c r="M142" t="n">
-        <v>0</v>
+        <v>396096851.5837685</v>
       </c>
       <c r="N142" t="n">
-        <v>0</v>
+        <v>9729211.836445371</v>
       </c>
       <c r="O142" t="n">
-        <v>0</v>
+        <v>406121499.1764324</v>
       </c>
       <c r="P142" t="n">
-        <v>-100019181.8285727</v>
+        <v>-89994534.23590885</v>
       </c>
       <c r="Q142" t="n">
-        <v>0</v>
+        <v>41.74248705893235</v>
       </c>
     </row>
     <row r="143">
@@ -12108,19 +12325,19 @@
         <v>3.5</v>
       </c>
       <c r="M143" t="n">
-        <v>0</v>
+        <v>12246883.24648486</v>
       </c>
       <c r="N143" t="n">
-        <v>0</v>
+        <v>300816.633519911</v>
       </c>
       <c r="O143" t="n">
-        <v>0</v>
+        <v>12588694.05531288</v>
       </c>
       <c r="P143" t="n">
-        <v>-3093295.267439595</v>
+        <v>-2751484.458611573</v>
       </c>
       <c r="Q143" t="n">
-        <v>0</v>
+        <v>41.84839750385559</v>
       </c>
     </row>
     <row r="144">
@@ -12173,19 +12390,19 @@
         <v>3.5</v>
       </c>
       <c r="M144" t="n">
-        <v>0</v>
+        <v>81540796.3095284</v>
       </c>
       <c r="N144" t="n">
-        <v>0</v>
+        <v>2002862.879206877</v>
       </c>
       <c r="O144" t="n">
-        <v>0</v>
+        <v>83877224.6230364</v>
       </c>
       <c r="P144" t="n">
-        <v>-20137184.38116192</v>
+        <v>-17800756.06765392</v>
       </c>
       <c r="Q144" t="n">
-        <v>0</v>
+        <v>41.87866553113778</v>
       </c>
     </row>
     <row r="145">
@@ -12238,19 +12455,19 @@
         <v>3.5</v>
       </c>
       <c r="M145" t="n">
-        <v>0</v>
+        <v>75228775.87352322</v>
       </c>
       <c r="N145" t="n">
-        <v>0</v>
+        <v>1847822.555881106</v>
       </c>
       <c r="O145" t="n">
-        <v>0</v>
+        <v>77493092.20204639</v>
       </c>
       <c r="P145" t="n">
-        <v>-18586348.89972029</v>
+        <v>-16322032.57119712</v>
       </c>
       <c r="Q145" t="n">
-        <v>0</v>
+        <v>41.93751827274074</v>
       </c>
     </row>
     <row r="146">
@@ -12303,19 +12520,19 @@
         <v>3.5</v>
       </c>
       <c r="M146" t="n">
-        <v>0</v>
+        <v>108194562.864654</v>
       </c>
       <c r="N146" t="n">
-        <v>0</v>
+        <v>2657551.599950564</v>
       </c>
       <c r="O146" t="n">
-        <v>0</v>
+        <v>111681970.5705046</v>
       </c>
       <c r="P146" t="n">
-        <v>-21361114.86932079</v>
+        <v>-17873707.16347016</v>
       </c>
       <c r="Q146" t="n">
-        <v>0</v>
+        <v>42.02438461499003</v>
       </c>
     </row>
     <row r="147">
@@ -12368,19 +12585,19 @@
         <v>3.5</v>
       </c>
       <c r="M147" t="n">
-        <v>0</v>
+        <v>172881196.9606897</v>
       </c>
       <c r="N147" t="n">
-        <v>0</v>
+        <v>4246430.591516756</v>
       </c>
       <c r="O147" t="n">
-        <v>0</v>
+        <v>179126094.8603747</v>
       </c>
       <c r="P147" t="n">
-        <v>-34695083.47922786</v>
+        <v>-28450185.5795429</v>
       </c>
       <c r="Q147" t="n">
-        <v>0</v>
+        <v>42.18274407174373</v>
       </c>
     </row>
     <row r="148">
@@ -12433,19 +12650,19 @@
         <v>3.5</v>
       </c>
       <c r="M148" t="n">
-        <v>0</v>
+        <v>1130.996475341615</v>
       </c>
       <c r="N148" t="n">
-        <v>0</v>
+        <v>19.67863589393869</v>
       </c>
       <c r="O148" t="n">
-        <v>0</v>
+        <v>1130.996475341615</v>
       </c>
       <c r="P148" t="n">
         <v>-72108567.06696494</v>
       </c>
       <c r="Q148" t="n">
-        <v>0</v>
+        <v>57.47331682121212</v>
       </c>
     </row>
     <row r="149">
@@ -12498,19 +12715,19 @@
         <v>3.5</v>
       </c>
       <c r="M149" t="n">
-        <v>0</v>
+        <v>83605088.78140503</v>
       </c>
       <c r="N149" t="n">
-        <v>0</v>
+        <v>2053567.495188959</v>
       </c>
       <c r="O149" t="n">
-        <v>0</v>
+        <v>87026802.46893449</v>
       </c>
       <c r="P149" t="n">
-        <v>-18104934.68700497</v>
+        <v>-14683220.99947551</v>
       </c>
       <c r="Q149" t="n">
-        <v>0</v>
+        <v>42.37835019925981</v>
       </c>
     </row>
     <row r="150">
@@ -12563,19 +12780,19 @@
         <v>3.5</v>
       </c>
       <c r="M150" t="n">
-        <v>0</v>
+        <v>60753005.83131887</v>
       </c>
       <c r="N150" t="n">
-        <v>0</v>
+        <v>1492258.423843337</v>
       </c>
       <c r="O150" t="n">
-        <v>0</v>
+        <v>63457205.26824942</v>
       </c>
       <c r="P150" t="n">
-        <v>-13627077.13909752</v>
+        <v>-10922877.70216697</v>
       </c>
       <c r="Q150" t="n">
-        <v>0</v>
+        <v>42.5242734464278</v>
       </c>
     </row>
     <row r="151">
@@ -12628,19 +12845,19 @@
         <v>3.5</v>
       </c>
       <c r="M151" t="n">
-        <v>0</v>
+        <v>56479070.21216819</v>
       </c>
       <c r="N151" t="n">
-        <v>0</v>
+        <v>1387278.985486826</v>
       </c>
       <c r="O151" t="n">
-        <v>0</v>
+        <v>59183269.64909875</v>
       </c>
       <c r="P151" t="n">
-        <v>-12978168.7039024</v>
+        <v>-10273969.26697184</v>
       </c>
       <c r="Q151" t="n">
-        <v>0</v>
+        <v>42.66140428006992</v>
       </c>
     </row>
     <row r="152">
@@ -12693,19 +12910,19 @@
         <v>3.5</v>
       </c>
       <c r="M152" t="n">
-        <v>0</v>
+        <v>173486970.5010092</v>
       </c>
       <c r="N152" t="n">
-        <v>0</v>
+        <v>4261310.030914256</v>
       </c>
       <c r="O152" t="n">
-        <v>0</v>
+        <v>183510536.4138985</v>
       </c>
       <c r="P152" t="n">
-        <v>-45814995.55155389</v>
+        <v>-35791429.63866465</v>
       </c>
       <c r="Q152" t="n">
-        <v>0</v>
+        <v>43.06434760263773</v>
       </c>
     </row>
     <row r="153">
@@ -12758,19 +12975,19 @@
         <v>3.5</v>
       </c>
       <c r="M153" t="n">
-        <v>0</v>
+        <v>25737098.76997933</v>
       </c>
       <c r="N153" t="n">
-        <v>0</v>
+        <v>632172.8763746318</v>
       </c>
       <c r="O153" t="n">
-        <v>0</v>
+        <v>27525475.99760273</v>
       </c>
       <c r="P153" t="n">
-        <v>-7414227.897215525</v>
+        <v>-5625850.669592125</v>
       </c>
       <c r="Q153" t="n">
-        <v>0</v>
+        <v>43.54105819195392</v>
       </c>
     </row>
     <row r="154">
@@ -12823,19 +13040,19 @@
         <v>3.5</v>
       </c>
       <c r="M154" t="n">
-        <v>0</v>
+        <v>23831113.26339613</v>
       </c>
       <c r="N154" t="n">
-        <v>0</v>
+        <v>585356.7083677503</v>
       </c>
       <c r="O154" t="n">
-        <v>0</v>
+        <v>25591727.37680039</v>
       </c>
       <c r="P154" t="n">
-        <v>-6951550.465073619</v>
+        <v>-5190936.351669364</v>
       </c>
       <c r="Q154" t="n">
-        <v>0</v>
+        <v>43.71988398008141</v>
       </c>
     </row>
     <row r="155">
@@ -12888,19 +13105,19 @@
         <v>3.5</v>
       </c>
       <c r="M155" t="n">
-        <v>0</v>
+        <v>29185210.20121939</v>
       </c>
       <c r="N155" t="n">
-        <v>0</v>
+        <v>716867.835236502</v>
       </c>
       <c r="O155" t="n">
-        <v>0</v>
+        <v>31538945.39112375</v>
       </c>
       <c r="P155" t="n">
-        <v>-8027997.048392808</v>
+        <v>-5674261.858488454</v>
       </c>
       <c r="Q155" t="n">
-        <v>0</v>
+        <v>43.9954812322117</v>
       </c>
     </row>
     <row r="156">
@@ -12953,19 +13170,19 @@
         <v>3.5</v>
       </c>
       <c r="M156" t="n">
-        <v>0</v>
+        <v>20415530.20871529</v>
       </c>
       <c r="N156" t="n">
-        <v>0</v>
+        <v>501460.7345646479</v>
       </c>
       <c r="O156" t="n">
-        <v>0</v>
+        <v>22212921.43446179</v>
       </c>
       <c r="P156" t="n">
-        <v>-5838522.013048283</v>
+        <v>-4041130.787301778</v>
       </c>
       <c r="Q156" t="n">
-        <v>0</v>
+        <v>44.29643220968505</v>
       </c>
     </row>
     <row r="157">
@@ -13018,19 +13235,19 @@
         <v>3.5</v>
       </c>
       <c r="M157" t="n">
-        <v>0</v>
+        <v>9034928.843755744</v>
       </c>
       <c r="N157" t="n">
-        <v>0</v>
+        <v>221922.3311082543</v>
       </c>
       <c r="O157" t="n">
-        <v>0</v>
+        <v>9874312.348978989</v>
       </c>
       <c r="P157" t="n">
-        <v>-2596757.748746506</v>
+        <v>-1757374.243523262</v>
       </c>
       <c r="Q157" t="n">
-        <v>0</v>
+        <v>44.49445127792152</v>
       </c>
     </row>
     <row r="158">
@@ -13083,19 +13300,19 @@
         <v>3.5</v>
       </c>
       <c r="M158" t="n">
-        <v>0</v>
+        <v>17163047.157808</v>
       </c>
       <c r="N158" t="n">
-        <v>0</v>
+        <v>421570.9387477961</v>
       </c>
       <c r="O158" t="n">
-        <v>0</v>
+        <v>18839650.80870494</v>
       </c>
       <c r="P158" t="n">
-        <v>-4939831.25988842</v>
+        <v>-3263227.608991476</v>
       </c>
       <c r="Q158" t="n">
-        <v>0</v>
+        <v>44.68915923062648</v>
       </c>
     </row>
     <row r="159">
@@ -13213,19 +13430,19 @@
         <v>3.5</v>
       </c>
       <c r="M160" t="n">
-        <v>0</v>
+        <v>12613640.73587467</v>
       </c>
       <c r="N160" t="n">
-        <v>0</v>
+        <v>309825.1911305279</v>
       </c>
       <c r="O160" t="n">
-        <v>0</v>
+        <v>13916343.74462535</v>
       </c>
       <c r="P160" t="n">
-        <v>-3481356.709721671</v>
+        <v>-2178653.700970994</v>
       </c>
       <c r="Q160" t="n">
-        <v>0</v>
+        <v>44.91675997631341</v>
       </c>
     </row>
     <row r="161">
@@ -13278,19 +13495,19 @@
         <v>3.5</v>
       </c>
       <c r="M161" t="n">
-        <v>0</v>
+        <v>1997793.510775036</v>
       </c>
       <c r="N161" t="n">
-        <v>0</v>
+        <v>49071.22132904816</v>
       </c>
       <c r="O161" t="n">
-        <v>0</v>
+        <v>2212326.666104861</v>
       </c>
       <c r="P161" t="n">
-        <v>-427820.6412668785</v>
+        <v>-213287.4859370543</v>
       </c>
       <c r="Q161" t="n">
-        <v>0</v>
+        <v>45.08399436953189</v>
       </c>
     </row>
     <row r="162">
@@ -13343,19 +13560,19 @@
         <v>3.5</v>
       </c>
       <c r="M162" t="n">
-        <v>0</v>
+        <v>19061796.60362364</v>
       </c>
       <c r="N162" t="n">
-        <v>0</v>
+        <v>468209.3694972683</v>
       </c>
       <c r="O162" t="n">
-        <v>0</v>
+        <v>21239578.55016504</v>
       </c>
       <c r="P162" t="n">
-        <v>-3751576.528301219</v>
+        <v>-1573794.58175982</v>
       </c>
       <c r="Q162" t="n">
-        <v>0</v>
+        <v>45.3634205846215</v>
       </c>
     </row>
     <row r="163">
@@ -13408,19 +13625,19 @@
         <v>3.5</v>
       </c>
       <c r="M163" t="n">
-        <v>0</v>
+        <v>33527320.39273942</v>
       </c>
       <c r="N163" t="n">
-        <v>0</v>
+        <v>823521.8257985867</v>
       </c>
       <c r="O163" t="n">
-        <v>0</v>
+        <v>38081192.24453048</v>
       </c>
       <c r="P163" t="n">
-        <v>-7471209.642454177</v>
+        <v>-2917337.790663123</v>
       </c>
       <c r="Q163" t="n">
-        <v>0</v>
+        <v>46.24187368392128</v>
       </c>
     </row>
     <row r="164">
@@ -13473,19 +13690,19 @@
         <v>3.5</v>
       </c>
       <c r="M164" t="n">
-        <v>0</v>
+        <v>14338099.48173873</v>
       </c>
       <c r="N164" t="n">
-        <v>0</v>
+        <v>352182.5700762026</v>
       </c>
       <c r="O164" t="n">
-        <v>0</v>
+        <v>16728611.78398534</v>
       </c>
       <c r="P164" t="n">
-        <v>-3735182.289293911</v>
+        <v>-1344669.987047303</v>
       </c>
       <c r="Q164" t="n">
-        <v>0</v>
+        <v>47.49982879722221</v>
       </c>
     </row>
     <row r="165">
@@ -13538,19 +13755,19 @@
         <v>3.5</v>
       </c>
       <c r="M165" t="n">
-        <v>0</v>
+        <v>5810513.685158788</v>
       </c>
       <c r="N165" t="n">
-        <v>0</v>
+        <v>142721.9587720432</v>
       </c>
       <c r="O165" t="n">
-        <v>0</v>
+        <v>6863348.665937083</v>
       </c>
       <c r="P165" t="n">
-        <v>-1566721.580799859</v>
+        <v>-513886.6000215644</v>
       </c>
       <c r="Q165" t="n">
-        <v>0</v>
+        <v>48.08894668338517</v>
       </c>
     </row>
     <row r="166">
@@ -13603,19 +13820,19 @@
         <v>3.5</v>
       </c>
       <c r="M166" t="n">
-        <v>0</v>
+        <v>10647168.61785445</v>
       </c>
       <c r="N166" t="n">
-        <v>0</v>
+        <v>261523.30806788</v>
       </c>
       <c r="O166" t="n">
-        <v>0</v>
+        <v>12767260.976408</v>
       </c>
       <c r="P166" t="n">
-        <v>-3004671.524821647</v>
+        <v>-884579.1662680944</v>
       </c>
       <c r="Q166" t="n">
-        <v>0</v>
+        <v>48.81882640110295</v>
       </c>
     </row>
     <row r="167">
@@ -13668,19 +13885,19 @@
         <v>3.5</v>
       </c>
       <c r="M167" t="n">
-        <v>0</v>
+        <v>5000215.850361962</v>
       </c>
       <c r="N167" t="n">
-        <v>0</v>
+        <v>122818.8485760661</v>
       </c>
       <c r="O167" t="n">
-        <v>0</v>
+        <v>6078290.025884943</v>
       </c>
       <c r="P167" t="n">
-        <v>-1455129.228898077</v>
+        <v>-377055.0533750954</v>
       </c>
       <c r="Q167" t="n">
-        <v>0</v>
+        <v>49.48987957756698</v>
       </c>
     </row>
     <row r="168">
@@ -13733,19 +13950,19 @@
         <v>3.5</v>
       </c>
       <c r="M168" t="n">
-        <v>0</v>
+        <v>4598845.858252137</v>
       </c>
       <c r="N168" t="n">
-        <v>0</v>
+        <v>112960.1141215635</v>
       </c>
       <c r="O168" t="n">
-        <v>0</v>
+        <v>5662497.636778154</v>
       </c>
       <c r="P168" t="n">
-        <v>-1367297.730609755</v>
+        <v>-303645.9520837376</v>
       </c>
       <c r="Q168" t="n">
-        <v>0</v>
+        <v>50.12829245802978</v>
       </c>
     </row>
     <row r="169">
@@ -13798,19 +14015,19 @@
         <v>3.5</v>
       </c>
       <c r="M169" t="n">
-        <v>0</v>
+        <v>4285280.913258929</v>
       </c>
       <c r="N169" t="n">
-        <v>0</v>
+        <v>105258.1095180831</v>
       </c>
       <c r="O169" t="n">
-        <v>0</v>
+        <v>5356143.890283426</v>
       </c>
       <c r="P169" t="n">
-        <v>-1248587.343068057</v>
+        <v>-177724.3660435597</v>
       </c>
       <c r="Q169" t="n">
-        <v>0</v>
+        <v>50.8858074195533</v>
       </c>
     </row>
     <row r="170">
@@ -13928,19 +14145,19 @@
         <v>3.5</v>
       </c>
       <c r="M171" t="n">
-        <v>0</v>
+        <v>4367260.274327287</v>
       </c>
       <c r="N171" t="n">
-        <v>0</v>
+        <v>107271.7447359884</v>
       </c>
       <c r="O171" t="n">
-        <v>0</v>
+        <v>5524657.633333564</v>
       </c>
       <c r="P171" t="n">
-        <v>-1285222.180935855</v>
+        <v>-127824.8219295782</v>
       </c>
       <c r="Q171" t="n">
-        <v>0</v>
+        <v>51.50151744926458</v>
       </c>
     </row>
     <row r="172">
@@ -13993,19 +14210,19 @@
         <v>3.5</v>
       </c>
       <c r="M172" t="n">
-        <v>0</v>
+        <v>7951293.600503672</v>
       </c>
       <c r="N172" t="n">
-        <v>0</v>
+        <v>195305.3135962941</v>
       </c>
       <c r="O172" t="n">
-        <v>0</v>
+        <v>10271496.71739008</v>
       </c>
       <c r="P172" t="n">
-        <v>-2336916.165984198</v>
+        <v>-16713.04909778479</v>
       </c>
       <c r="Q172" t="n">
-        <v>0</v>
+        <v>52.59199828337382</v>
       </c>
     </row>
     <row r="173">
@@ -14058,19 +14275,19 @@
         <v>3.5</v>
       </c>
       <c r="M173" t="n">
-        <v>0</v>
+        <v>935413.7532179672</v>
       </c>
       <c r="N173" t="n">
-        <v>0</v>
+        <v>22976.29613412201</v>
       </c>
       <c r="O173" t="n">
-        <v>0</v>
+        <v>1231072.891655707</v>
       </c>
       <c r="P173" t="n">
-        <v>-72346.70580872316</v>
+        <v>223312.4326290169</v>
       </c>
       <c r="Q173" t="n">
-        <v>0</v>
+        <v>53.58012816641259</v>
       </c>
     </row>
     <row r="174">
@@ -14123,19 +14340,19 @@
         <v>3.5</v>
       </c>
       <c r="M174" t="n">
-        <v>0</v>
+        <v>1098093.022849353</v>
       </c>
       <c r="N174" t="n">
-        <v>0</v>
+        <v>26972.13974992829</v>
       </c>
       <c r="O174" t="n">
-        <v>0</v>
+        <v>1451441.749274945</v>
       </c>
       <c r="P174" t="n">
-        <v>-34216.39902862121</v>
+        <v>319132.3273969702</v>
       </c>
       <c r="Q174" t="n">
-        <v>0</v>
+        <v>53.81262898427641</v>
       </c>
     </row>
     <row r="175">
@@ -15553,19 +15770,19 @@
         <v>1.9</v>
       </c>
       <c r="M196" t="n">
-        <v>310855.5837446188</v>
+        <v>918407.3795000002</v>
       </c>
       <c r="N196" t="n">
-        <v>163608.201970852</v>
+        <v>483372.3050000001</v>
       </c>
       <c r="O196" t="n">
-        <v>889695.1278329596</v>
+        <v>18965469.16114617</v>
       </c>
       <c r="P196" t="n">
-        <v>-5512846.267009884</v>
+        <v>11955375.97054794</v>
       </c>
       <c r="Q196" t="n">
-        <v>5.437961649327736</v>
+        <v>39.23573809456495</v>
       </c>
     </row>
     <row r="197">
@@ -16268,19 +16485,19 @@
         <v>1.9</v>
       </c>
       <c r="M207" t="n">
-        <v>488085.3878842538</v>
+        <v>1318201.790400001</v>
       </c>
       <c r="N207" t="n">
-        <v>256887.0462548704</v>
+        <v>693790.4160000002</v>
       </c>
       <c r="O207" t="n">
-        <v>1318806.260815077</v>
+        <v>27218420.72015145</v>
       </c>
       <c r="P207" t="n">
-        <v>-7098962.154728008</v>
+        <v>17970535.90209262</v>
       </c>
       <c r="Q207" t="n">
-        <v>5.133798220041908</v>
+        <v>39.23147407696598</v>
       </c>
     </row>
     <row r="208">
@@ -16983,19 +17200,19 @@
         <v>1.9</v>
       </c>
       <c r="M218" t="n">
-        <v>631679.5814828794</v>
+        <v>2245999.7736</v>
       </c>
       <c r="N218" t="n">
-        <v>332462.937622568</v>
+        <v>1182105.144</v>
       </c>
       <c r="O218" t="n">
-        <v>2047415.153660766</v>
+        <v>46385809.49895078</v>
       </c>
       <c r="P218" t="n">
-        <v>-11454709.04682571</v>
+        <v>31269365.10634718</v>
       </c>
       <c r="Q218" t="n">
-        <v>6.158326002596761</v>
+        <v>39.24000308635047</v>
       </c>
     </row>
     <row r="219">
@@ -17243,19 +17460,19 @@
         <v>4.2</v>
       </c>
       <c r="M222" t="n">
-        <v>103284.2537248787</v>
+        <v>46416236.58957574</v>
       </c>
       <c r="N222" t="n">
-        <v>2669.5</v>
+        <v>1199680.872032345</v>
       </c>
       <c r="O222" t="n">
-        <v>103284.2537248787</v>
+        <v>48016376.03808794</v>
       </c>
       <c r="P222" t="n">
-        <v>-3374063.276104092</v>
+        <v>-1773923.827591888</v>
       </c>
       <c r="Q222" t="n">
-        <v>38.69048650491803</v>
+        <v>40.02429075721179</v>
       </c>
     </row>
     <row r="223">
@@ -17308,19 +17525,19 @@
         <v>4.2</v>
       </c>
       <c r="M223" t="n">
-        <v>640651.083512346</v>
+        <v>368454024.5820168</v>
       </c>
       <c r="N223" t="n">
-        <v>16558.36205189385</v>
+        <v>9523116.86582648</v>
       </c>
       <c r="O223" t="n">
-        <v>640651.083512346</v>
+        <v>381181112.3664466</v>
       </c>
       <c r="P223" t="n">
-        <v>-22078381.54248742</v>
+        <v>-9351293.758057687</v>
       </c>
       <c r="Q223" t="n">
-        <v>38.69048650491804</v>
+        <v>40.02692792044877</v>
       </c>
     </row>
     <row r="224">
@@ -17373,19 +17590,19 @@
         <v>4.2</v>
       </c>
       <c r="M224" t="n">
-        <v>103243.0321576638</v>
+        <v>97447786.86043388</v>
       </c>
       <c r="N224" t="n">
-        <v>2668.434581316014</v>
+        <v>2518649.819718527</v>
       </c>
       <c r="O224" t="n">
-        <v>103243.0321576638</v>
+        <v>100822315.8183995</v>
       </c>
       <c r="P224" t="n">
-        <v>-5575220.582540979</v>
+        <v>-2200691.624575351</v>
       </c>
       <c r="Q224" t="n">
-        <v>38.69048650491803</v>
+        <v>40.03030315253073</v>
       </c>
     </row>
     <row r="225">
@@ -17438,19 +17655,19 @@
         <v>4.2</v>
       </c>
       <c r="M225" t="n">
-        <v>300118.3083128169</v>
+        <v>690503708.303674</v>
       </c>
       <c r="N225" t="n">
-        <v>7756.901900798489</v>
+        <v>17846860.31838608</v>
       </c>
       <c r="O225" t="n">
-        <v>300118.3083128169</v>
+        <v>714539966.7099729</v>
       </c>
       <c r="P225" t="n">
-        <v>-36019457.02041807</v>
+        <v>-11983198.61411919</v>
       </c>
       <c r="Q225" t="n">
-        <v>38.69048650491802</v>
+        <v>40.03729249641989</v>
       </c>
     </row>
     <row r="226">
@@ -17503,19 +17720,19 @@
         <v>4.2</v>
       </c>
       <c r="M226" t="n">
-        <v>0</v>
+        <v>1116346086.173594</v>
       </c>
       <c r="N226" t="n">
-        <v>0</v>
+        <v>28853244.99684678</v>
       </c>
       <c r="O226" t="n">
-        <v>0</v>
+        <v>1155865544.43934</v>
       </c>
       <c r="P226" t="n">
-        <v>-56401672.30101225</v>
+        <v>-16882214.03526565</v>
       </c>
       <c r="Q226" t="n">
-        <v>0</v>
+        <v>40.06015768991178</v>
       </c>
     </row>
     <row r="227">
@@ -17568,19 +17785,19 @@
         <v>4.2</v>
       </c>
       <c r="M227" t="n">
-        <v>0</v>
+        <v>202348095.593342</v>
       </c>
       <c r="N227" t="n">
-        <v>0</v>
+        <v>5229918.614944817</v>
       </c>
       <c r="O227" t="n">
-        <v>0</v>
+        <v>209625598.1385328</v>
       </c>
       <c r="P227" t="n">
-        <v>-9891771.263989799</v>
+        <v>-2614268.718799047</v>
       </c>
       <c r="Q227" t="n">
-        <v>0</v>
+        <v>40.08200004097858</v>
       </c>
     </row>
     <row r="228">
@@ -17633,19 +17850,19 @@
         <v>4.2</v>
       </c>
       <c r="M228" t="n">
-        <v>0</v>
+        <v>1317003746.362241</v>
       </c>
       <c r="N228" t="n">
-        <v>0</v>
+        <v>34039472.36990245</v>
       </c>
       <c r="O228" t="n">
-        <v>0</v>
+        <v>1365628624.47913</v>
       </c>
       <c r="P228" t="n">
-        <v>-62944954.78292636</v>
+        <v>-14320076.66603784</v>
       </c>
       <c r="Q228" t="n">
-        <v>0</v>
+        <v>40.11897157626369</v>
       </c>
     </row>
     <row r="229">
@@ -17698,19 +17915,19 @@
         <v>1.9</v>
       </c>
       <c r="M229" t="n">
-        <v>321695.5681770234</v>
+        <v>943675.1850000002</v>
       </c>
       <c r="N229" t="n">
-        <v>169313.4569352755</v>
+        <v>496671.1500000001</v>
       </c>
       <c r="O229" t="n">
-        <v>916460.5124115346</v>
+        <v>19487259.16052623</v>
       </c>
       <c r="P229" t="n">
-        <v>-4554763.599378369</v>
+        <v>13394055.43191335</v>
       </c>
       <c r="Q229" t="n">
-        <v>5.412803736928458</v>
+        <v>39.23573809456463</v>
       </c>
     </row>
     <row r="230">
@@ -17763,19 +17980,19 @@
         <v>4.2</v>
       </c>
       <c r="M230" t="n">
-        <v>0</v>
+        <v>58838402.88182487</v>
       </c>
       <c r="N230" t="n">
-        <v>0</v>
+        <v>1520746.007532002</v>
       </c>
       <c r="O230" t="n">
-        <v>0</v>
+        <v>61070625.88473158</v>
       </c>
       <c r="P230" t="n">
-        <v>-2752014.262281981</v>
+        <v>-519791.2593752714</v>
       </c>
       <c r="Q230" t="n">
-        <v>0</v>
+        <v>40.15833385868445</v>
       </c>
     </row>
     <row r="231">
@@ -17828,19 +18045,19 @@
         <v>4.2</v>
       </c>
       <c r="M231" t="n">
-        <v>0</v>
+        <v>464137648.2980672</v>
       </c>
       <c r="N231" t="n">
-        <v>0</v>
+        <v>11996169.86566115</v>
       </c>
       <c r="O231" t="n">
-        <v>0</v>
+        <v>482006821.2141928</v>
       </c>
       <c r="P231" t="n">
-        <v>-20981099.98795155</v>
+        <v>-3111927.071825955</v>
       </c>
       <c r="Q231" t="n">
-        <v>0</v>
+        <v>40.18005968671132</v>
       </c>
     </row>
     <row r="232">
@@ -17893,19 +18110,19 @@
         <v>4.2</v>
       </c>
       <c r="M232" t="n">
-        <v>0</v>
+        <v>437801572.1464288</v>
       </c>
       <c r="N232" t="n">
-        <v>0</v>
+        <v>11315483.77120507</v>
       </c>
       <c r="O232" t="n">
-        <v>0</v>
+        <v>455078522.6332117</v>
       </c>
       <c r="P232" t="n">
-        <v>-19319753.97233452</v>
+        <v>-2042803.485551666</v>
       </c>
       <c r="Q232" t="n">
-        <v>0</v>
+        <v>40.21732802898509</v>
       </c>
     </row>
     <row r="233">
@@ -17958,19 +18175,19 @@
         <v>4.2</v>
       </c>
       <c r="M233" t="n">
-        <v>0</v>
+        <v>339614624.9009334</v>
       </c>
       <c r="N233" t="n">
-        <v>0</v>
+        <v>8777729.503550291</v>
       </c>
       <c r="O233" t="n">
-        <v>0</v>
+        <v>353369662.7670945</v>
       </c>
       <c r="P233" t="n">
-        <v>-13951396.93473828</v>
+        <v>-196359.0685771704</v>
       </c>
       <c r="Q233" t="n">
-        <v>0</v>
+        <v>40.25752475331674</v>
       </c>
     </row>
     <row r="234">
@@ -18023,19 +18240,19 @@
         <v>4.2</v>
       </c>
       <c r="M234" t="n">
-        <v>0</v>
+        <v>376726949.25546</v>
       </c>
       <c r="N234" t="n">
-        <v>0</v>
+        <v>9736940.09269109</v>
       </c>
       <c r="O234" t="n">
-        <v>0</v>
+        <v>392391232.5115717</v>
       </c>
       <c r="P234" t="n">
-        <v>-15131331.06856349</v>
+        <v>532952.1875481922</v>
       </c>
       <c r="Q234" t="n">
-        <v>0</v>
+        <v>40.299234541467</v>
       </c>
     </row>
     <row r="235">
@@ -18088,19 +18305,19 @@
         <v>4.2</v>
       </c>
       <c r="M235" t="n">
-        <v>0</v>
+        <v>65965547.31508519</v>
       </c>
       <c r="N235" t="n">
-        <v>0</v>
+        <v>1704955.229929719</v>
       </c>
       <c r="O235" t="n">
-        <v>0</v>
+        <v>68761064.95943967</v>
       </c>
       <c r="P235" t="n">
-        <v>-2571813.930554986</v>
+        <v>223703.7137994915</v>
       </c>
       <c r="Q235" t="n">
-        <v>0</v>
+        <v>40.33012935024347</v>
       </c>
     </row>
     <row r="236">
@@ -18153,19 +18370,19 @@
         <v>4.2</v>
       </c>
       <c r="M236" t="n">
-        <v>0</v>
+        <v>36321189.85695577</v>
       </c>
       <c r="N236" t="n">
-        <v>0</v>
+        <v>938762.81065473</v>
       </c>
       <c r="O236" t="n">
-        <v>0</v>
+        <v>37867801.50896969</v>
       </c>
       <c r="P236" t="n">
-        <v>-1290565.307321058</v>
+        <v>256046.34469287</v>
       </c>
       <c r="Q236" t="n">
-        <v>0</v>
+        <v>40.33798642125502</v>
       </c>
     </row>
     <row r="237">
@@ -18218,19 +18435,19 @@
         <v>4.2</v>
       </c>
       <c r="M237" t="n">
-        <v>0</v>
+        <v>325791345.9288666</v>
       </c>
       <c r="N237" t="n">
-        <v>0</v>
+        <v>8420451.003826341</v>
       </c>
       <c r="O237" t="n">
-        <v>0</v>
+        <v>339904461.9758154</v>
       </c>
       <c r="P237" t="n">
-        <v>-11215853.34758577</v>
+        <v>2897262.699363083</v>
       </c>
       <c r="Q237" t="n">
-        <v>0</v>
+        <v>40.36653877819125</v>
       </c>
     </row>
     <row r="238">
@@ -18283,19 +18500,19 @@
         <v>4.2</v>
       </c>
       <c r="M238" t="n">
-        <v>0</v>
+        <v>199844378.2296079</v>
       </c>
       <c r="N238" t="n">
-        <v>0</v>
+        <v>5165207.168025796</v>
       </c>
       <c r="O238" t="n">
-        <v>0</v>
+        <v>208711770.2197261</v>
       </c>
       <c r="P238" t="n">
-        <v>-6711444.723500782</v>
+        <v>2155947.266617424</v>
       </c>
       <c r="Q238" t="n">
-        <v>0</v>
+        <v>40.40724087732927</v>
       </c>
     </row>
     <row r="239">
@@ -18348,19 +18565,19 @@
         <v>4.2</v>
       </c>
       <c r="M239" t="n">
-        <v>0</v>
+        <v>201185999.7879729</v>
       </c>
       <c r="N239" t="n">
-        <v>0</v>
+        <v>5199882.915982455</v>
       </c>
       <c r="O239" t="n">
-        <v>0</v>
+        <v>210292558.5284025</v>
       </c>
       <c r="P239" t="n">
-        <v>-6564249.875736945</v>
+        <v>2542308.864692665</v>
       </c>
       <c r="Q239" t="n">
-        <v>0</v>
+        <v>40.44178723371702</v>
       </c>
     </row>
     <row r="240">
@@ -18413,19 +18630,19 @@
         <v>1.9</v>
       </c>
       <c r="M240" t="n">
-        <v>201091.2999676093</v>
+        <v>688649.5173600001</v>
       </c>
       <c r="N240" t="n">
-        <v>105837.5262987417</v>
+        <v>362447.1143999999</v>
       </c>
       <c r="O240" t="n">
-        <v>635172.2068089281</v>
+        <v>14222425.88769471</v>
       </c>
       <c r="P240" t="n">
-        <v>-3145263.523473207</v>
+        <v>9954431.940020185</v>
       </c>
       <c r="Q240" t="n">
-        <v>6.001389384480348</v>
+        <v>39.24000308635017</v>
       </c>
     </row>
     <row r="241">
@@ -18478,19 +18695,19 @@
         <v>4.2</v>
       </c>
       <c r="M241" t="n">
-        <v>0</v>
+        <v>386752576.9610513</v>
       </c>
       <c r="N241" t="n">
-        <v>0</v>
+        <v>9996063.939694587</v>
       </c>
       <c r="O241" t="n">
-        <v>0</v>
+        <v>404940638.8775921</v>
       </c>
       <c r="P241" t="n">
-        <v>-12486132.41329224</v>
+        <v>5701929.503248559</v>
       </c>
       <c r="Q241" t="n">
-        <v>0</v>
+        <v>40.51000887154833</v>
       </c>
     </row>
     <row r="242">
@@ -18543,19 +18760,19 @@
         <v>4.2</v>
       </c>
       <c r="M242" t="n">
-        <v>0</v>
+        <v>406239703.6305661</v>
       </c>
       <c r="N242" t="n">
-        <v>0</v>
+        <v>10499731.07934241</v>
       </c>
       <c r="O242" t="n">
-        <v>0</v>
+        <v>426557488.5141658</v>
       </c>
       <c r="P242" t="n">
-        <v>-13283990.95048058</v>
+        <v>7033793.933119059</v>
       </c>
       <c r="Q242" t="n">
-        <v>0</v>
+        <v>40.6255631968891</v>
       </c>
     </row>
     <row r="243">
@@ -18608,19 +18825,19 @@
         <v>4.2</v>
       </c>
       <c r="M243" t="n">
-        <v>0</v>
+        <v>179674255.1148775</v>
       </c>
       <c r="N243" t="n">
-        <v>0</v>
+        <v>4643887.201884594</v>
       </c>
       <c r="O243" t="n">
-        <v>0</v>
+        <v>189172591.7701029</v>
       </c>
       <c r="P243" t="n">
-        <v>-5914396.995889816</v>
+        <v>3583939.65933561</v>
       </c>
       <c r="Q243" t="n">
-        <v>0</v>
+        <v>40.73582831497983</v>
       </c>
     </row>
     <row r="244">
@@ -18673,19 +18890,19 @@
         <v>4.2</v>
       </c>
       <c r="M244" t="n">
-        <v>0</v>
+        <v>108328492.4943642</v>
       </c>
       <c r="N244" t="n">
-        <v>0</v>
+        <v>2799874.136516591</v>
       </c>
       <c r="O244" t="n">
-        <v>0</v>
+        <v>114239327.8949182</v>
       </c>
       <c r="P244" t="n">
-        <v>-3505278.109931271</v>
+        <v>2405557.290622686</v>
       </c>
       <c r="Q244" t="n">
-        <v>0</v>
+        <v>40.80159404488332</v>
       </c>
     </row>
     <row r="245">
@@ -18738,19 +18955,19 @@
         <v>4.2</v>
       </c>
       <c r="M245" t="n">
-        <v>0</v>
+        <v>17343194.91239382</v>
       </c>
       <c r="N245" t="n">
-        <v>0</v>
+        <v>448254.7643899305</v>
       </c>
       <c r="O245" t="n">
-        <v>0</v>
+        <v>18305670.24900426</v>
       </c>
       <c r="P245" t="n">
-        <v>-543593.0875682022</v>
+        <v>418882.249042238</v>
       </c>
       <c r="Q245" t="n">
-        <v>0</v>
+        <v>40.83764792532225</v>
       </c>
     </row>
     <row r="246">
@@ -18803,19 +19020,19 @@
         <v>4.2</v>
       </c>
       <c r="M246" t="n">
-        <v>0</v>
+        <v>45814118.92264873</v>
       </c>
       <c r="N246" t="n">
-        <v>0</v>
+        <v>1184118.450328228</v>
       </c>
       <c r="O246" t="n">
-        <v>0</v>
+        <v>48376619.81884265</v>
       </c>
       <c r="P246" t="n">
-        <v>-1250202.735205607</v>
+        <v>1312298.160988315</v>
       </c>
       <c r="Q246" t="n">
-        <v>0</v>
+        <v>40.85454441270893</v>
       </c>
     </row>
     <row r="247">
@@ -18868,19 +19085,19 @@
         <v>4.2</v>
       </c>
       <c r="M247" t="n">
-        <v>0</v>
+        <v>34045325.89982884</v>
       </c>
       <c r="N247" t="n">
-        <v>0</v>
+        <v>879940.4963672723</v>
       </c>
       <c r="O247" t="n">
-        <v>0</v>
+        <v>35970048.79519226</v>
       </c>
       <c r="P247" t="n">
-        <v>-811179.0653747402</v>
+        <v>1113543.82998868</v>
       </c>
       <c r="Q247" t="n">
-        <v>0</v>
+        <v>40.8778195158539</v>
       </c>
     </row>
     <row r="248">
@@ -18933,19 +19150,19 @@
         <v>4.2</v>
       </c>
       <c r="M248" t="n">
-        <v>0</v>
+        <v>20590913.68861833</v>
       </c>
       <c r="N248" t="n">
-        <v>0</v>
+        <v>532195.7811515494</v>
       </c>
       <c r="O248" t="n">
-        <v>0</v>
+        <v>21763969.65443155</v>
       </c>
       <c r="P248" t="n">
-        <v>-448423.8013852231</v>
+        <v>724632.1644280001</v>
       </c>
       <c r="Q248" t="n">
-        <v>0</v>
+        <v>40.89466776181374</v>
       </c>
     </row>
     <row r="249">
@@ -18998,19 +19215,19 @@
         <v>4.2</v>
       </c>
       <c r="M249" t="n">
-        <v>0</v>
+        <v>9957117.099258607</v>
       </c>
       <c r="N249" t="n">
-        <v>0</v>
+        <v>257353.1118041883</v>
       </c>
       <c r="O249" t="n">
-        <v>0</v>
+        <v>10526561.74285726</v>
       </c>
       <c r="P249" t="n">
-        <v>-197443.4983973859</v>
+        <v>372001.1452012637</v>
       </c>
       <c r="Q249" t="n">
-        <v>0</v>
+        <v>40.90318422443082</v>
       </c>
     </row>
     <row r="250">
@@ -19063,19 +19280,19 @@
         <v>4.2</v>
       </c>
       <c r="M250" t="n">
-        <v>0</v>
+        <v>24760414.57811795</v>
       </c>
       <c r="N250" t="n">
-        <v>0</v>
+        <v>639961.313874164</v>
       </c>
       <c r="O250" t="n">
-        <v>0</v>
+        <v>26184026.18711458</v>
       </c>
       <c r="P250" t="n">
-        <v>-447717.6834407844</v>
+        <v>975893.9255558415</v>
       </c>
       <c r="Q250" t="n">
-        <v>0</v>
+        <v>40.91501411015472</v>
       </c>
     </row>
     <row r="251">
@@ -19128,19 +19345,19 @@
         <v>1.9</v>
       </c>
       <c r="M251" t="n">
-        <v>572619.8712819939</v>
+        <v>1721511.0588</v>
       </c>
       <c r="N251" t="n">
-        <v>301378.8796221021</v>
+        <v>906058.4519999996</v>
       </c>
       <c r="O251" t="n">
-        <v>1657627.133485536</v>
+        <v>35549872.12103847</v>
       </c>
       <c r="P251" t="n">
-        <v>-7435709.980028955</v>
+        <v>25307643.82000597</v>
       </c>
       <c r="Q251" t="n">
-        <v>5.500143658255115</v>
+        <v>39.23573809456444</v>
       </c>
     </row>
     <row r="252">
@@ -19193,19 +19410,19 @@
         <v>4.2</v>
       </c>
       <c r="M252" t="n">
-        <v>0</v>
+        <v>61983922.69199426</v>
       </c>
       <c r="N252" t="n">
-        <v>0</v>
+        <v>1602045.574798222</v>
       </c>
       <c r="O252" t="n">
-        <v>0</v>
+        <v>65590785.06454812</v>
       </c>
       <c r="P252" t="n">
-        <v>-1080321.450252925</v>
+        <v>2526540.92230093</v>
       </c>
       <c r="Q252" t="n">
-        <v>0</v>
+        <v>40.94189709478726</v>
       </c>
     </row>
     <row r="253">
@@ -19258,19 +19475,19 @@
         <v>4.2</v>
       </c>
       <c r="M253" t="n">
-        <v>0</v>
+        <v>132399911.4869776</v>
       </c>
       <c r="N253" t="n">
-        <v>0</v>
+        <v>3422027.569235861</v>
       </c>
       <c r="O253" t="n">
-        <v>0</v>
+        <v>140315192.0329988</v>
       </c>
       <c r="P253" t="n">
-        <v>-2150359.848768609</v>
+        <v>5764920.6972526</v>
       </c>
       <c r="Q253" t="n">
-        <v>0</v>
+        <v>41.00352472155306</v>
       </c>
     </row>
     <row r="254">
@@ -19323,19 +19540,19 @@
         <v>4.2</v>
       </c>
       <c r="M254" t="n">
-        <v>0</v>
+        <v>200770495.4983378</v>
       </c>
       <c r="N254" t="n">
-        <v>0</v>
+        <v>5189143.731051752</v>
       </c>
       <c r="O254" t="n">
-        <v>0</v>
+        <v>213377999.9076119</v>
       </c>
       <c r="P254" t="n">
-        <v>-3106671.694594495</v>
+        <v>9500832.714679576</v>
       </c>
       <c r="Q254" t="n">
-        <v>0</v>
+        <v>41.12007895074508</v>
       </c>
     </row>
     <row r="255">
@@ -19388,19 +19605,19 @@
         <v>4.2</v>
       </c>
       <c r="M255" t="n">
-        <v>0</v>
+        <v>57591405.39353591</v>
       </c>
       <c r="N255" t="n">
-        <v>0</v>
+        <v>1488515.927196091</v>
       </c>
       <c r="O255" t="n">
-        <v>0</v>
+        <v>61372517.82703093</v>
       </c>
       <c r="P255" t="n">
-        <v>-887353.2091068719</v>
+        <v>2893759.224388143</v>
       </c>
       <c r="Q255" t="n">
-        <v>0</v>
+        <v>41.23067594086011</v>
       </c>
     </row>
     <row r="256">
@@ -19453,19 +19670,19 @@
         <v>4.2</v>
       </c>
       <c r="M256" t="n">
-        <v>0</v>
+        <v>80210616.68985033</v>
       </c>
       <c r="N256" t="n">
-        <v>0</v>
+        <v>2073135.386386381</v>
       </c>
       <c r="O256" t="n">
-        <v>0</v>
+        <v>85620340.80403747</v>
       </c>
       <c r="P256" t="n">
-        <v>-1209101.475403799</v>
+        <v>4200622.638783338</v>
       </c>
       <c r="Q256" t="n">
-        <v>0</v>
+        <v>41.2999273304961</v>
       </c>
     </row>
     <row r="257">
@@ -19518,19 +19735,19 @@
         <v>4.2</v>
       </c>
       <c r="M257" t="n">
-        <v>0</v>
+        <v>268361743.0691642</v>
       </c>
       <c r="N257" t="n">
-        <v>0</v>
+        <v>6936117.048697544</v>
       </c>
       <c r="O257" t="n">
-        <v>0</v>
+        <v>287700083.1657743</v>
       </c>
       <c r="P257" t="n">
-        <v>-4116399.609495037</v>
+        <v>15221940.48711506</v>
       </c>
       <c r="Q257" t="n">
-        <v>0</v>
+        <v>41.47855077212088</v>
       </c>
     </row>
     <row r="258">
@@ -19583,19 +19800,19 @@
         <v>4.2</v>
       </c>
       <c r="M258" t="n">
-        <v>0</v>
+        <v>20452772.96918152</v>
       </c>
       <c r="N258" t="n">
-        <v>0</v>
+        <v>528625.3758163969</v>
       </c>
       <c r="O258" t="n">
-        <v>0</v>
+        <v>22013051.29264181</v>
       </c>
       <c r="P258" t="n">
-        <v>-9900.813424478589</v>
+        <v>1550377.51003581</v>
       </c>
       <c r="Q258" t="n">
-        <v>0</v>
+        <v>41.64206316930087</v>
       </c>
     </row>
     <row r="259">
@@ -19648,19 +19865,19 @@
         <v>4.5</v>
       </c>
       <c r="M259" t="n">
-        <v>0</v>
+        <v>2649480.488171189</v>
       </c>
       <c r="N259" t="n">
-        <v>0</v>
+        <v>49589.39898610391</v>
       </c>
       <c r="O259" t="n">
-        <v>0</v>
+        <v>2714426.241408366</v>
       </c>
       <c r="P259" t="n">
-        <v>-3410203.773119225</v>
+        <v>-3345258.019882047</v>
       </c>
       <c r="Q259" t="n">
-        <v>0</v>
+        <v>54.73803467892424</v>
       </c>
     </row>
     <row r="260">
@@ -19713,19 +19930,19 @@
         <v>4.5</v>
       </c>
       <c r="M260" t="n">
-        <v>0</v>
+        <v>700993.8166261493</v>
       </c>
       <c r="N260" t="n">
-        <v>0</v>
+        <v>13120.25591985406</v>
       </c>
       <c r="O260" t="n">
-        <v>0</v>
+        <v>721313.7555748012</v>
       </c>
       <c r="P260" t="n">
-        <v>-1016161.349584645</v>
+        <v>-995841.4106359934</v>
       </c>
       <c r="Q260" t="n">
-        <v>0</v>
+        <v>54.97711020127909</v>
       </c>
     </row>
     <row r="261">
@@ -19778,19 +19995,19 @@
         <v>4.5</v>
       </c>
       <c r="M261" t="n">
-        <v>0</v>
+        <v>835185.7292632975</v>
       </c>
       <c r="N261" t="n">
-        <v>0</v>
+        <v>15631.87898187754</v>
       </c>
       <c r="O261" t="n">
-        <v>0</v>
+        <v>861906.683790253</v>
       </c>
       <c r="P261" t="n">
-        <v>-1272632.30197854</v>
+        <v>-1245911.347451584</v>
       </c>
       <c r="Q261" t="n">
-        <v>0</v>
+        <v>55.13775309989828</v>
       </c>
     </row>
     <row r="262">
@@ -19843,19 +20060,19 @@
         <v>1.9</v>
       </c>
       <c r="M262" t="n">
-        <v>766586.5964462584</v>
+        <v>2131505.4772</v>
       </c>
       <c r="N262" t="n">
-        <v>403466.629708557</v>
+        <v>1121844.988</v>
       </c>
       <c r="O262" t="n">
-        <v>2109845.347550756</v>
+        <v>44011632.56509604</v>
       </c>
       <c r="P262" t="n">
-        <v>-8703220.418314248</v>
+        <v>31833647.9184773</v>
       </c>
       <c r="Q262" t="n">
-        <v>5.229293310018717</v>
+        <v>39.23147407696582</v>
       </c>
     </row>
     <row r="263">
@@ -19908,19 +20125,19 @@
         <v>4.5</v>
       </c>
       <c r="M263" t="n">
-        <v>0</v>
+        <v>1979432.388859156</v>
       </c>
       <c r="N263" t="n">
-        <v>0</v>
+        <v>37048.34322630092</v>
       </c>
       <c r="O263" t="n">
-        <v>0</v>
+        <v>2049124.084564768</v>
       </c>
       <c r="P263" t="n">
-        <v>-3161132.552005947</v>
+        <v>-3091440.856300336</v>
       </c>
       <c r="Q263" t="n">
-        <v>0</v>
+        <v>55.309466122363</v>
       </c>
     </row>
     <row r="264">
@@ -19973,19 +20190,19 @@
         <v>4.5</v>
       </c>
       <c r="M264" t="n">
-        <v>0</v>
+        <v>450635.1668504302</v>
       </c>
       <c r="N264" t="n">
-        <v>0</v>
+        <v>8434.3806968514</v>
       </c>
       <c r="O264" t="n">
-        <v>0</v>
+        <v>467818.12398493</v>
       </c>
       <c r="P264" t="n">
-        <v>-706937.4415447284</v>
+        <v>-689754.4844102286</v>
       </c>
       <c r="Q264" t="n">
-        <v>0</v>
+        <v>55.46561636227412</v>
       </c>
     </row>
     <row r="265">
@@ -20038,19 +20255,19 @@
         <v>4.5</v>
       </c>
       <c r="M265" t="n">
-        <v>0</v>
+        <v>1309335.096698269</v>
       </c>
       <c r="N265" t="n">
-        <v>0</v>
+        <v>24506.36674116324</v>
       </c>
       <c r="O265" t="n">
-        <v>0</v>
+        <v>1364456.469924082</v>
       </c>
       <c r="P265" t="n">
-        <v>-2159801.341453305</v>
+        <v>-2104679.968227492</v>
       </c>
       <c r="Q265" t="n">
-        <v>0</v>
+        <v>55.67763203478914</v>
       </c>
     </row>
     <row r="266">
@@ -20103,19 +20320,19 @@
         <v>4.5</v>
       </c>
       <c r="M266" t="n">
-        <v>0</v>
+        <v>677947.2727257328</v>
       </c>
       <c r="N266" t="n">
-        <v>0</v>
+        <v>12688.90182389793</v>
       </c>
       <c r="O266" t="n">
-        <v>0</v>
+        <v>711412.7806251135</v>
       </c>
       <c r="P266" t="n">
-        <v>-1248825.906896275</v>
+        <v>-1215360.398996895</v>
       </c>
       <c r="Q266" t="n">
-        <v>0</v>
+        <v>56.06574867537066</v>
       </c>
     </row>
     <row r="267">
@@ -20168,19 +20385,19 @@
         <v>4.5</v>
       </c>
       <c r="M267" t="n">
-        <v>0</v>
+        <v>363181.2878133046</v>
       </c>
       <c r="N267" t="n">
-        <v>0</v>
+        <v>6797.537051534362</v>
       </c>
       <c r="O267" t="n">
-        <v>0</v>
+        <v>382354.3614520827</v>
       </c>
       <c r="P267" t="n">
-        <v>-560595.6505760961</v>
+        <v>-541422.5769373181</v>
       </c>
       <c r="Q267" t="n">
-        <v>0</v>
+        <v>56.24895584287789</v>
       </c>
     </row>
     <row r="268">
@@ -20233,19 +20450,19 @@
         <v>4.5</v>
       </c>
       <c r="M268" t="n">
-        <v>0</v>
+        <v>1543324.625784988</v>
       </c>
       <c r="N268" t="n">
-        <v>0</v>
+        <v>28885.86686137783</v>
       </c>
       <c r="O268" t="n">
-        <v>0</v>
+        <v>1633852.47724469</v>
       </c>
       <c r="P268" t="n">
-        <v>-2520872.599545065</v>
+        <v>-2430344.748085362</v>
       </c>
       <c r="Q268" t="n">
-        <v>0</v>
+        <v>56.56234881526962</v>
       </c>
     </row>
     <row r="269">
@@ -20298,19 +20515,19 @@
         <v>4.5</v>
       </c>
       <c r="M269" t="n">
-        <v>0</v>
+        <v>280845.5410571209</v>
       </c>
       <c r="N269" t="n">
-        <v>0</v>
+        <v>5256.487696787275</v>
       </c>
       <c r="O269" t="n">
-        <v>0</v>
+        <v>300734.5712431698</v>
       </c>
       <c r="P269" t="n">
-        <v>-527464.2046523846</v>
+        <v>-507575.1744663357</v>
       </c>
       <c r="Q269" t="n">
-        <v>0</v>
+        <v>57.21207555131851</v>
       </c>
     </row>
     <row r="270">
@@ -20363,19 +20580,19 @@
         <v>4.5</v>
       </c>
       <c r="M270" t="n">
-        <v>0</v>
+        <v>216619.9613399516</v>
       </c>
       <c r="N270" t="n">
-        <v>0</v>
+        <v>4054.4</v>
       </c>
       <c r="O270" t="n">
-        <v>0</v>
+        <v>231994.8248211742</v>
       </c>
       <c r="P270" t="n">
-        <v>-388330.3682818044</v>
+        <v>-372955.5048005818</v>
       </c>
       <c r="Q270" t="n">
-        <v>0</v>
+        <v>57.22050730593287</v>
       </c>
     </row>
     <row r="271">
@@ -20428,19 +20645,19 @@
         <v>4.5</v>
       </c>
       <c r="M271" t="n">
-        <v>0</v>
+        <v>188622.1248663581</v>
       </c>
       <c r="N271" t="n">
-        <v>0</v>
+        <v>3530.374293890699</v>
       </c>
       <c r="O271" t="n">
-        <v>0</v>
+        <v>202037.208985136</v>
       </c>
       <c r="P271" t="n">
-        <v>-322696.4499083209</v>
+        <v>-309281.365789543</v>
       </c>
       <c r="Q271" t="n">
-        <v>0</v>
+        <v>57.22826878010095</v>
       </c>
     </row>
     <row r="272">
@@ -20493,19 +20710,19 @@
         <v>4.5</v>
       </c>
       <c r="M272" t="n">
-        <v>0</v>
+        <v>204371.4524845236</v>
       </c>
       <c r="N272" t="n">
-        <v>0</v>
+        <v>3825.148946697886</v>
       </c>
       <c r="O272" t="n">
-        <v>0</v>
+        <v>219479.3491176092</v>
       </c>
       <c r="P272" t="n">
-        <v>-346111.0724609503</v>
+        <v>-331003.1758278647</v>
       </c>
       <c r="Q272" t="n">
-        <v>0</v>
+        <v>57.37798767472254</v>
       </c>
     </row>
   </sheetData>

--- a/emlabpy/Yearly_results.xlsx
+++ b/emlabpy/Yearly_results.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Capacity" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Powerplants2029" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Powerplants2020" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1671,6 +1671,59 @@
       </c>
       <c r="Q23" t="n">
         <v>39.01170075357827</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C24" t="n">
+        <v>544999999.1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>21553567663.10111</v>
+      </c>
+      <c r="E24" t="n">
+        <v>39.5478306398058</v>
+      </c>
+      <c r="F24" t="n">
+        <v>11</v>
+      </c>
+      <c r="G24" t="n">
+        <v>222307.2994627971</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.560297453063297</v>
+      </c>
+      <c r="J24" t="n">
+        <v>94924.0547907234</v>
+      </c>
+      <c r="K24" t="n">
+        <v>103941.9889161604</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.095001568836462</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>39.2141766002183</v>
       </c>
     </row>
   </sheetData>
@@ -1684,7 +1737,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB23"/>
+  <dimension ref="A1:BB24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5564,6 +5617,170 @@
         <v>0</v>
       </c>
       <c r="BB23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4644.4034</v>
+      </c>
+      <c r="D24" t="n">
+        <v>25208582.8382924</v>
+      </c>
+      <c r="E24" t="n">
+        <v>989140946.3448792</v>
+      </c>
+      <c r="F24" t="n">
+        <v>39.23826074198633</v>
+      </c>
+      <c r="G24" t="n">
+        <v>24845.77</v>
+      </c>
+      <c r="H24" t="n">
+        <v>59003.61621933627</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3391133.528571123</v>
+      </c>
+      <c r="J24" t="n">
+        <v>57.47331682121211</v>
+      </c>
+      <c r="K24" t="n">
+        <v>31358.329</v>
+      </c>
+      <c r="L24" t="n">
+        <v>217108263.1152519</v>
+      </c>
+      <c r="M24" t="n">
+        <v>8757160973.791931</v>
+      </c>
+      <c r="N24" t="n">
+        <v>40.3354568275607</v>
+      </c>
+      <c r="O24" t="n">
+        <v>8194.3025</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1007081.087896535</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>54801062.39115697</v>
+      </c>
+      <c r="R24" t="n">
+        <v>54.41573975499686</v>
+      </c>
+      <c r="S24" t="n">
+        <v>8858.749999999998</v>
+      </c>
+      <c r="T24" t="n">
+        <v>18624635.99999999</v>
+      </c>
+      <c r="U24" t="n">
+        <v>730349765.2187814</v>
+      </c>
+      <c r="V24" t="n">
+        <v>39.21417660021822</v>
+      </c>
+      <c r="W24" t="n">
+        <v>8599</v>
+      </c>
+      <c r="X24" t="n">
+        <v>74259244.44886312</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>2947062642.512977</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>39.68613826312766</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>47547.50848700004</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>80823362.9723005</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>3053718290.852691</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>37.78261852206337</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>10271.8</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>40873004.28171189</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1572438092.234706</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>38.47131180759017</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>53555.51607579708</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>50877740.2720072</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1898471070.403504</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>37.31437481801915</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>20779.02</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>36159080.46745713</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1547033685.821918</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>42.78409920335875</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>3652.9</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5578,7 +5795,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q83"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5698,11 +5915,11 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>TobeDecommissioned</t>
+          <t>Operational</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -5712,25 +5929,25 @@
         <v>4644.4034</v>
       </c>
       <c r="K2" t="n">
-        <v>125729394.4788093</v>
+        <v>669675862.1922266</v>
       </c>
       <c r="L2" t="n">
         <v>1.9</v>
       </c>
       <c r="M2" t="n">
-        <v>47831635.88394887</v>
+        <v>47896307.39275556</v>
       </c>
       <c r="N2" t="n">
-        <v>25174545.20207836</v>
+        <v>25208582.8382924</v>
       </c>
       <c r="O2" t="n">
-        <v>983976804.346156</v>
+        <v>989140946.3448792</v>
       </c>
       <c r="P2" t="n">
-        <v>810415773.9833978</v>
+        <v>271568776.759897</v>
       </c>
       <c r="Q2" t="n">
-        <v>39.08617996661647</v>
+        <v>39.23826074198633</v>
       </c>
     </row>
     <row r="3">
@@ -5763,7 +5980,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -5777,25 +5994,25 @@
         <v>31358.329</v>
       </c>
       <c r="K3" t="n">
-        <v>136522534.9055192</v>
+        <v>1163369162.846145</v>
       </c>
       <c r="L3" t="n">
         <v>4.2</v>
       </c>
       <c r="M3" t="n">
-        <v>7985192172.914192</v>
+        <v>8400024324.166846</v>
       </c>
       <c r="N3" t="n">
-        <v>206386450.3719585</v>
+        <v>217108263.1152519</v>
       </c>
       <c r="O3" t="n">
-        <v>8384773726.791971</v>
+        <v>8757160973.791931</v>
       </c>
       <c r="P3" t="n">
-        <v>263059018.9722598</v>
+        <v>-806232513.2210605</v>
       </c>
       <c r="Q3" t="n">
-        <v>40.62657074473917</v>
+        <v>40.3354568275607</v>
       </c>
     </row>
     <row r="4">
@@ -5824,7 +6041,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -5838,25 +6055,25 @@
         <v>47547.50848700004</v>
       </c>
       <c r="K4" t="n">
-        <v>185761253.1059544</v>
+        <v>695534883.8583421</v>
       </c>
       <c r="L4" t="n">
         <v>1.35</v>
       </c>
       <c r="M4" t="n">
-        <v>109086961.3773964</v>
+        <v>109111540.0126057</v>
       </c>
       <c r="N4" t="n">
-        <v>80805156.57584918</v>
+        <v>80823362.9723005</v>
       </c>
       <c r="O4" t="n">
-        <v>2988959176.846355</v>
+        <v>3053718290.852691</v>
       </c>
       <c r="P4" t="n">
-        <v>2694110962.363005</v>
+        <v>2249071866.981743</v>
       </c>
       <c r="Q4" t="n">
-        <v>36.98970837387979</v>
+        <v>37.78261852206337</v>
       </c>
     </row>
     <row r="5">
@@ -5865,7 +6082,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>20212100241</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -5875,17 +6092,21 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PV_utility_systems</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+          <t>Coal PSC</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>hard_coal</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -5893,31 +6114,31 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0.40383904661803</v>
       </c>
       <c r="J5" t="n">
-        <v>150</v>
+        <v>24845.77</v>
       </c>
       <c r="K5" t="n">
-        <v>736062.8062061971</v>
+        <v>2101891768.249022</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>3391133.528571123</v>
       </c>
       <c r="N5" t="n">
-        <v>142499.9999999999</v>
+        <v>59003.61621933627</v>
       </c>
       <c r="O5" t="n">
-        <v>5157709.386361896</v>
+        <v>3391133.528571123</v>
       </c>
       <c r="P5" t="n">
-        <v>4421646.580155699</v>
+        <v>-2101891768.249022</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.19445183411858</v>
+        <v>57.47331682121211</v>
       </c>
     </row>
     <row r="6">
@@ -5926,7 +6147,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>20212100262</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -5936,49 +6157,53 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PV_utility_systems</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
+          <t>Fuel oil PGT</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>heavy_oil</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Operational</t>
+          <t>TobeDecommissioned</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0.3539907794712127</v>
       </c>
       <c r="J6" t="n">
-        <v>150</v>
+        <v>3652.9</v>
       </c>
       <c r="K6" t="n">
-        <v>736062.8062061971</v>
+        <v>45265022.64924459</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>142499.9999999999</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>5157709.386361896</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>4421646.580155699</v>
+        <v>-45265022.64924459</v>
       </c>
       <c r="Q6" t="n">
-        <v>36.19445183411858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -5987,7 +6212,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>20212100284</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -5997,7 +6222,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PV_utility_systems</t>
+          <t>Hydropower_reservoir_medium</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -6007,7 +6232,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -6015,13 +6240,13 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0.7811457116585705</v>
       </c>
       <c r="J7" t="n">
-        <v>150</v>
+        <v>8858.749999999998</v>
       </c>
       <c r="K7" t="n">
-        <v>736062.8062061971</v>
+        <v>210093702.9708235</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -6030,16 +6255,16 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>142499.9999999999</v>
+        <v>18624635.99999999</v>
       </c>
       <c r="O7" t="n">
-        <v>5157709.386361896</v>
+        <v>730349765.2187814</v>
       </c>
       <c r="P7" t="n">
-        <v>4421646.580155699</v>
+        <v>520256062.2479579</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.19445183411858</v>
+        <v>39.21417660021822</v>
       </c>
     </row>
     <row r="8">
@@ -6048,7 +6273,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>20212100307</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -6058,17 +6283,21 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PV_utility_systems</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+          <t>Lignite PSC</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>lignite</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -6076,31 +6305,31 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0.360040798965821</v>
       </c>
       <c r="J8" t="n">
-        <v>150</v>
+        <v>20779.02</v>
       </c>
       <c r="K8" t="n">
-        <v>736062.8062061971</v>
+        <v>1884658060.750033</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1472112866.909959</v>
       </c>
       <c r="N8" t="n">
-        <v>142499.9999999999</v>
+        <v>36159080.46745713</v>
       </c>
       <c r="O8" t="n">
-        <v>5157709.386361896</v>
+        <v>1547033685.821918</v>
       </c>
       <c r="P8" t="n">
-        <v>4421646.580155699</v>
+        <v>-1809737241.838075</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.19445183411858</v>
+        <v>42.78409920335875</v>
       </c>
     </row>
     <row r="9">
@@ -6109,7 +6338,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>20212100331</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -6119,17 +6348,21 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PV_utility_systems</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+          <t>Nuclear</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>nuclear</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -6137,31 +6370,31 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="J9" t="n">
-        <v>150</v>
+        <v>8599</v>
       </c>
       <c r="K9" t="n">
-        <v>736062.8062061971</v>
+        <v>1367699084.443613</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>709963382.5338277</v>
       </c>
       <c r="N9" t="n">
-        <v>142499.9999999999</v>
+        <v>74259244.44886312</v>
       </c>
       <c r="O9" t="n">
-        <v>5157709.386361896</v>
+        <v>2947062642.512977</v>
       </c>
       <c r="P9" t="n">
-        <v>4421646.580155699</v>
+        <v>869400175.5355361</v>
       </c>
       <c r="Q9" t="n">
-        <v>36.19445183411858</v>
+        <v>39.68613826312766</v>
       </c>
     </row>
     <row r="10">
@@ -6170,7 +6403,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>20222100331</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -6180,49 +6413,53 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PV_utility_systems</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+          <t>OCGT</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>natural_gas</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Operational</t>
+          <t>TobeDecommissioned</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0.3741421697393409</v>
       </c>
       <c r="J10" t="n">
-        <v>150</v>
+        <v>8194.3025</v>
       </c>
       <c r="K10" t="n">
-        <v>772865.9465165071</v>
+        <v>84694118.86085288</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>53806695.52248025</v>
       </c>
       <c r="N10" t="n">
-        <v>142499.9999999999</v>
+        <v>1007081.087896535</v>
       </c>
       <c r="O10" t="n">
-        <v>5157709.386361896</v>
+        <v>54801062.39115697</v>
       </c>
       <c r="P10" t="n">
-        <v>4384843.439845389</v>
+        <v>-83699751.99217616</v>
       </c>
       <c r="Q10" t="n">
-        <v>36.19445183411858</v>
+        <v>54.41573975499686</v>
       </c>
     </row>
     <row r="11">
@@ -6231,7 +6468,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>20222100332</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -6251,7 +6488,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -6262,10 +6499,10 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>150</v>
+        <v>53555.51607579708</v>
       </c>
       <c r="K11" t="n">
-        <v>772865.9465165071</v>
+        <v>433188907.0444192</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -6274,16 +6511,16 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>142499.9999999999</v>
+        <v>50877740.2720072</v>
       </c>
       <c r="O11" t="n">
-        <v>5157709.386361896</v>
+        <v>1898471070.403504</v>
       </c>
       <c r="P11" t="n">
-        <v>4384843.439845389</v>
+        <v>1465282163.359085</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.19445183411858</v>
+        <v>37.31437481801915</v>
       </c>
     </row>
     <row r="12">
@@ -6292,7 +6529,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>20222100334</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -6302,7 +6539,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PV_utility_systems</t>
+          <t>WTG_offshore</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -6323,4443 +6560,28 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>150</v>
+        <v>10271.8</v>
       </c>
       <c r="K12" t="n">
-        <v>772865.9465165071</v>
+        <v>397043033.0270382</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>110357111.5606221</v>
       </c>
       <c r="N12" t="n">
-        <v>142499.9999999999</v>
+        <v>40873004.28171189</v>
       </c>
       <c r="O12" t="n">
-        <v>5157709.386361896</v>
+        <v>1572438092.234706</v>
       </c>
       <c r="P12" t="n">
-        <v>4384843.439845389</v>
+        <v>1065037947.647046</v>
       </c>
       <c r="Q12" t="n">
-        <v>36.19445183411858</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>20222100359</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>PV_utility_systems</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>7</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>150</v>
-      </c>
-      <c r="K13" t="n">
-        <v>772865.9465165071</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>142499.9999999999</v>
-      </c>
-      <c r="O13" t="n">
-        <v>5157709.386361896</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4384843.439845389</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>36.19445183411858</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>20222100367</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>PV_utility_systems</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>7</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>150</v>
-      </c>
-      <c r="K14" t="n">
-        <v>772865.9465165071</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>142499.9999999999</v>
-      </c>
-      <c r="O14" t="n">
-        <v>5157709.386361896</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4384843.439845389</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>36.19445183411858</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>20222400184</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>WTG_onshore</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>7</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>300</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2686375.427891859</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M15" t="n">
-        <v>687333.6232397885</v>
-      </c>
-      <c r="N15" t="n">
-        <v>509136.0172146581</v>
-      </c>
-      <c r="O15" t="n">
-        <v>18857826.5077808</v>
-      </c>
-      <c r="P15" t="n">
-        <v>15484117.45664915</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>37.03887737297931</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>20222400202</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>WTG_onshore</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>7</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>300</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2686375.427891859</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M16" t="n">
-        <v>688499.9999999987</v>
-      </c>
-      <c r="N16" t="n">
-        <v>509999.9999999991</v>
-      </c>
-      <c r="O16" t="n">
-        <v>18858992.88454101</v>
-      </c>
-      <c r="P16" t="n">
-        <v>15484117.45664915</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>36.97841742066871</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>20222400221</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>WTG_onshore</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>7</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>300</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2686375.427891859</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M17" t="n">
-        <v>687159.1024801761</v>
-      </c>
-      <c r="N17" t="n">
-        <v>509006.7425779082</v>
-      </c>
-      <c r="O17" t="n">
-        <v>18857651.98702119</v>
-      </c>
-      <c r="P17" t="n">
-        <v>15484117.45664915</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>37.04794143102112</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>20230300031</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>CCGT</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>natural_gas</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>6</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="J18" t="n">
-        <v>300</v>
-      </c>
-      <c r="K18" t="n">
-        <v>6223436.407949474</v>
-      </c>
-      <c r="L18" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="M18" t="n">
-        <v>39547106.96156299</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1022140.338207845</v>
-      </c>
-      <c r="O18" t="n">
-        <v>43369838.27365979</v>
-      </c>
-      <c r="P18" t="n">
-        <v>-2400705.095852677</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>42.43041454532717</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>20230300032</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>CCGT</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>natural_gas</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="J19" t="n">
-        <v>300</v>
-      </c>
-      <c r="K19" t="n">
-        <v>6223436.407949474</v>
-      </c>
-      <c r="L19" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="M19" t="n">
-        <v>38775382.82789412</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1002194.242839653</v>
-      </c>
-      <c r="O19" t="n">
-        <v>42598114.13999093</v>
-      </c>
-      <c r="P19" t="n">
-        <v>-2400705.095852669</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>42.50484818121875</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>20230300034</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>CCGT</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>natural_gas</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>6</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="J20" t="n">
-        <v>300</v>
-      </c>
-      <c r="K20" t="n">
-        <v>6223436.407949474</v>
-      </c>
-      <c r="L20" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="M20" t="n">
-        <v>37952859.51566431</v>
-      </c>
-      <c r="N20" t="n">
-        <v>980935.1844371364</v>
-      </c>
-      <c r="O20" t="n">
-        <v>41775590.82776111</v>
-      </c>
-      <c r="P20" t="n">
-        <v>-2400705.095852669</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>42.58751392604199</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>20231700037</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>OCGT</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>natural_gas</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>6</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="J21" t="n">
-        <v>100</v>
-      </c>
-      <c r="K21" t="n">
-        <v>577943.8246950679</v>
-      </c>
-      <c r="L21" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1056093.73174194</v>
-      </c>
-      <c r="N21" t="n">
-        <v>19766.53674706761</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1416927.310022338</v>
-      </c>
-      <c r="P21" t="n">
-        <v>-217110.2464146693</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>71.68313438784571</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>20231700041</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>OCGT</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>natural_gas</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>6</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="J22" t="n">
-        <v>100</v>
-      </c>
-      <c r="K22" t="n">
-        <v>577943.8246950679</v>
-      </c>
-      <c r="L22" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1020832.801147785</v>
-      </c>
-      <c r="N22" t="n">
-        <v>19106.57025036704</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1381666.379428183</v>
-      </c>
-      <c r="P22" t="n">
-        <v>-217110.2464146696</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>72.31367855785847</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>20231700046</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>OCGT</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>natural_gas</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>6</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="J23" t="n">
-        <v>100</v>
-      </c>
-      <c r="K23" t="n">
-        <v>577943.8246950679</v>
-      </c>
-      <c r="L23" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1005366.928434421</v>
-      </c>
-      <c r="N23" t="n">
-        <v>18817.10092380458</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1366200.50671482</v>
-      </c>
-      <c r="P23" t="n">
-        <v>-217110.2464146691</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>72.60419722713543</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>20231700052</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>OCGT</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>natural_gas</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>6</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="J24" t="n">
-        <v>100</v>
-      </c>
-      <c r="K24" t="n">
-        <v>577943.8246950679</v>
-      </c>
-      <c r="L24" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M24" t="n">
-        <v>972305.3322537336</v>
-      </c>
-      <c r="N24" t="n">
-        <v>18198.29859955978</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1333138.910534133</v>
-      </c>
-      <c r="P24" t="n">
-        <v>-217110.2464146691</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>73.25623894128108</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>20231700059</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>OCGT</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>natural_gas</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>6</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="J25" t="n">
-        <v>100</v>
-      </c>
-      <c r="K25" t="n">
-        <v>577943.8246950679</v>
-      </c>
-      <c r="L25" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M25" t="n">
-        <v>950606.9785079286</v>
-      </c>
-      <c r="N25" t="n">
-        <v>17792.17810686461</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1311440.556788327</v>
-      </c>
-      <c r="P25" t="n">
-        <v>-217110.2464146693</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>73.70882580600657</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>20231700067</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>OCGT</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>natural_gas</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>6</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="J26" t="n">
-        <v>100</v>
-      </c>
-      <c r="K26" t="n">
-        <v>577943.8246950679</v>
-      </c>
-      <c r="L26" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M26" t="n">
-        <v>922379.1325129126</v>
-      </c>
-      <c r="N26" t="n">
-        <v>17263.84739304555</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1283212.710793311</v>
-      </c>
-      <c r="P26" t="n">
-        <v>-217110.2464146693</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>74.32947486029282</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>20231700076</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>OCGT</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>natural_gas</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>6</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="J27" t="n">
-        <v>100</v>
-      </c>
-      <c r="K27" t="n">
-        <v>577943.8246950679</v>
-      </c>
-      <c r="L27" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M27" t="n">
-        <v>893515.6907541691</v>
-      </c>
-      <c r="N27" t="n">
-        <v>16723.62045577361</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1254349.269034568</v>
-      </c>
-      <c r="P27" t="n">
-        <v>-217110.2464146693</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>75.00464820711238</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>20232100373</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>PV_utility_systems</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>6</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="n">
-        <v>150</v>
-      </c>
-      <c r="K28" t="n">
-        <v>811509.2438423324</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>142499.9999999999</v>
-      </c>
-      <c r="O28" t="n">
-        <v>5157709.386361896</v>
-      </c>
-      <c r="P28" t="n">
-        <v>4346200.142519563</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>36.19445183411858</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>20232100377</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>PV_utility_systems</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>6</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="n">
-        <v>150</v>
-      </c>
-      <c r="K29" t="n">
-        <v>811509.2438423324</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>142499.9999999999</v>
-      </c>
-      <c r="O29" t="n">
-        <v>5157709.386361896</v>
-      </c>
-      <c r="P29" t="n">
-        <v>4346200.142519563</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>36.19445183411858</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>20232100382</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>PV_utility_systems</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>6</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="n">
-        <v>150</v>
-      </c>
-      <c r="K30" t="n">
-        <v>811509.2438423324</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>142499.9999999999</v>
-      </c>
-      <c r="O30" t="n">
-        <v>5157709.386361896</v>
-      </c>
-      <c r="P30" t="n">
-        <v>4346200.142519563</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>36.19445183411858</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>20232100388</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>PV_utility_systems</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>6</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="n">
-        <v>150</v>
-      </c>
-      <c r="K31" t="n">
-        <v>811509.2438423324</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>142499.9999999999</v>
-      </c>
-      <c r="O31" t="n">
-        <v>5157709.386361896</v>
-      </c>
-      <c r="P31" t="n">
-        <v>4346200.142519563</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>36.19445183411858</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>20232100395</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>PV_utility_systems</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
-        <v>6</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" t="n">
-        <v>150</v>
-      </c>
-      <c r="K32" t="n">
-        <v>811509.2438423324</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>142499.9999999999</v>
-      </c>
-      <c r="O32" t="n">
-        <v>5157709.386361896</v>
-      </c>
-      <c r="P32" t="n">
-        <v>4346200.142519563</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>36.19445183411858</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>20240100086</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Biomass_CHP_wood_pellets_DH</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>wood_pellets</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
-        <v>5</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
-        <v>0.309</v>
-      </c>
-      <c r="J33" t="n">
-        <v>100</v>
-      </c>
-      <c r="K33" t="n">
-        <v>9167256.147680968</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1028394</v>
-      </c>
-      <c r="N33" t="n">
-        <v>541260</v>
-      </c>
-      <c r="O33" t="n">
-        <v>21184807.81328348</v>
-      </c>
-      <c r="P33" t="n">
-        <v>10989157.66560251</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>39.13979938159753</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>20240100097</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Biomass_CHP_wood_pellets_DH</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>wood_pellets</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
-        <v>5</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>0.309</v>
-      </c>
-      <c r="J34" t="n">
-        <v>100</v>
-      </c>
-      <c r="K34" t="n">
-        <v>9167256.147680968</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1030867.8</v>
-      </c>
-      <c r="N34" t="n">
-        <v>542562</v>
-      </c>
-      <c r="O34" t="n">
-        <v>21187281.61328348</v>
-      </c>
-      <c r="P34" t="n">
-        <v>10989157.66560251</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>39.05043407625946</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>20240100109</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Biomass_CHP_wood_pellets_DH</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>wood_pellets</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
-        <v>5</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>0.309</v>
-      </c>
-      <c r="J35" t="n">
-        <v>100</v>
-      </c>
-      <c r="K35" t="n">
-        <v>9167256.147680968</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1028581.781029664</v>
-      </c>
-      <c r="N35" t="n">
-        <v>541358.8321208756</v>
-      </c>
-      <c r="O35" t="n">
-        <v>21184995.59431314</v>
-      </c>
-      <c r="P35" t="n">
-        <v>10989157.66560251</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>39.13300077014891</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>20240100122</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Biomass_CHP_wood_pellets_DH</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>wood_pellets</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
-        <v>5</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
-        <v>0.309</v>
-      </c>
-      <c r="J36" t="n">
-        <v>100</v>
-      </c>
-      <c r="K36" t="n">
-        <v>9167256.147680968</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1030867.8</v>
-      </c>
-      <c r="N36" t="n">
-        <v>542562</v>
-      </c>
-      <c r="O36" t="n">
-        <v>21187281.61328348</v>
-      </c>
-      <c r="P36" t="n">
-        <v>10989157.66560251</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>39.05043407625946</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>20240100136</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Biomass_CHP_wood_pellets_DH</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>wood_pellets</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
-        <v>5</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
-        <v>0.309</v>
-      </c>
-      <c r="J37" t="n">
-        <v>100</v>
-      </c>
-      <c r="K37" t="n">
-        <v>9167256.147680968</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1028394</v>
-      </c>
-      <c r="N37" t="n">
-        <v>541260</v>
-      </c>
-      <c r="O37" t="n">
-        <v>21184807.81328348</v>
-      </c>
-      <c r="P37" t="n">
-        <v>10989157.66560251</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>39.13979938159753</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>20240100151</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Biomass_CHP_wood_pellets_DH</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>wood_pellets</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
-        <v>5</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
-        <v>0.309</v>
-      </c>
-      <c r="J38" t="n">
-        <v>100</v>
-      </c>
-      <c r="K38" t="n">
-        <v>9167256.147680968</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1028394</v>
-      </c>
-      <c r="N38" t="n">
-        <v>541260</v>
-      </c>
-      <c r="O38" t="n">
-        <v>21184807.81328348</v>
-      </c>
-      <c r="P38" t="n">
-        <v>10989157.66560251</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>39.13979938159753</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>20240100167</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Biomass_CHP_wood_pellets_DH</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>wood_pellets</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G39" t="n">
-        <v>5</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>0.309</v>
-      </c>
-      <c r="J39" t="n">
-        <v>100</v>
-      </c>
-      <c r="K39" t="n">
-        <v>9167256.147680968</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1028500.901435296</v>
-      </c>
-      <c r="N39" t="n">
-        <v>541316.263913314</v>
-      </c>
-      <c r="O39" t="n">
-        <v>21184914.71471877</v>
-      </c>
-      <c r="P39" t="n">
-        <v>10989157.66560251</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>39.13592871118927</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>20242100395</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>PV_utility_systems</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
-        <v>5</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="n">
-        <v>150</v>
-      </c>
-      <c r="K40" t="n">
-        <v>852084.7060344489</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>142499.9999999999</v>
-      </c>
-      <c r="O40" t="n">
-        <v>5157709.386361896</v>
-      </c>
-      <c r="P40" t="n">
-        <v>4305624.680327447</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>36.19445183411858</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>20242100396</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>PV_utility_systems</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G41" t="n">
-        <v>5</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>150</v>
-      </c>
-      <c r="K41" t="n">
-        <v>852084.7060344489</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>142499.9999999999</v>
-      </c>
-      <c r="O41" t="n">
-        <v>5157709.386361896</v>
-      </c>
-      <c r="P41" t="n">
-        <v>4305624.680327447</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>36.19445183411858</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>20242100398</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>PV_utility_systems</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
-        <v>5</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="n">
-        <v>150</v>
-      </c>
-      <c r="K42" t="n">
-        <v>852084.7060344489</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>142499.9999999999</v>
-      </c>
-      <c r="O42" t="n">
-        <v>5157709.386361896</v>
-      </c>
-      <c r="P42" t="n">
-        <v>4305624.680327447</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>36.19445183411858</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>20242100401</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>PV_utility_systems</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
-        <v>5</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="n">
-        <v>150</v>
-      </c>
-      <c r="K43" t="n">
-        <v>852084.7060344489</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>142499.9999999999</v>
-      </c>
-      <c r="O43" t="n">
-        <v>5157709.386361896</v>
-      </c>
-      <c r="P43" t="n">
-        <v>4305624.680327447</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>36.19445183411858</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>20242100405</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>PV_utility_systems</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G44" t="n">
-        <v>5</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="n">
-        <v>150</v>
-      </c>
-      <c r="K44" t="n">
-        <v>852084.7060344489</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>142499.9999999999</v>
-      </c>
-      <c r="O44" t="n">
-        <v>5157709.386361896</v>
-      </c>
-      <c r="P44" t="n">
-        <v>4305624.680327447</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>36.19445183411858</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>20242300337</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>WTG_offshore</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G45" t="n">
-        <v>5</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="n">
-        <v>200</v>
-      </c>
-      <c r="K45" t="n">
-        <v>5649693.775937469</v>
-      </c>
-      <c r="L45" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="M45" t="n">
-        <v>2148832.947558926</v>
-      </c>
-      <c r="N45" t="n">
-        <v>795864.0546514541</v>
-      </c>
-      <c r="O45" t="n">
-        <v>30078207.90459761</v>
-      </c>
-      <c r="P45" t="n">
-        <v>22279681.18110121</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>37.79314787343959</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>20242300341</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>WTG_offshore</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G46" t="n">
-        <v>5</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>200</v>
-      </c>
-      <c r="K46" t="n">
-        <v>5649693.775937469</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="M46" t="n">
-        <v>2122098.474571235</v>
-      </c>
-      <c r="N46" t="n">
-        <v>785962.3979893465</v>
-      </c>
-      <c r="O46" t="n">
-        <v>30051473.43160992</v>
-      </c>
-      <c r="P46" t="n">
-        <v>22279681.18110122</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>38.23525592126006</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>20242300346</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>WTG_offshore</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G47" t="n">
-        <v>5</v>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="n">
-        <v>200</v>
-      </c>
-      <c r="K47" t="n">
-        <v>5649693.775937469</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="M47" t="n">
-        <v>2123667.525651718</v>
-      </c>
-      <c r="N47" t="n">
-        <v>786543.5280191546</v>
-      </c>
-      <c r="O47" t="n">
-        <v>30053042.4826904</v>
-      </c>
-      <c r="P47" t="n">
-        <v>22279681.18110122</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>38.2090010433072</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>20242300352</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>WTG_offshore</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G48" t="n">
-        <v>5</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>200</v>
-      </c>
-      <c r="K48" t="n">
-        <v>5649693.775937469</v>
-      </c>
-      <c r="L48" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="M48" t="n">
-        <v>2121466.446741099</v>
-      </c>
-      <c r="N48" t="n">
-        <v>785728.3136078145</v>
-      </c>
-      <c r="O48" t="n">
-        <v>30050841.40377693</v>
-      </c>
-      <c r="P48" t="n">
-        <v>22279681.18109836</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>38.24584259385158</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>20242400367</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>WTG_onshore</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G49" t="n">
-        <v>5</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" t="n">
-        <v>300</v>
-      </c>
-      <c r="K49" t="n">
-        <v>2961728.909250774</v>
-      </c>
-      <c r="L49" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M49" t="n">
-        <v>688499.9999999987</v>
-      </c>
-      <c r="N49" t="n">
-        <v>509999.9999999991</v>
-      </c>
-      <c r="O49" t="n">
-        <v>18858992.88454101</v>
-      </c>
-      <c r="P49" t="n">
-        <v>15208763.97529024</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>36.97841742066871</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>20242400368</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>WTG_onshore</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G50" t="n">
-        <v>5</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="n">
-        <v>300</v>
-      </c>
-      <c r="K50" t="n">
-        <v>2961728.909250774</v>
-      </c>
-      <c r="L50" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M50" t="n">
-        <v>687333.6232397885</v>
-      </c>
-      <c r="N50" t="n">
-        <v>509136.0172146581</v>
-      </c>
-      <c r="O50" t="n">
-        <v>18857826.5077808</v>
-      </c>
-      <c r="P50" t="n">
-        <v>15208763.97529024</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>37.03887737297931</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>20242400370</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>WTG_onshore</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G51" t="n">
-        <v>5</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="n">
-        <v>300</v>
-      </c>
-      <c r="K51" t="n">
-        <v>2961728.909250774</v>
-      </c>
-      <c r="L51" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M51" t="n">
-        <v>687333.6232397885</v>
-      </c>
-      <c r="N51" t="n">
-        <v>509136.0172146581</v>
-      </c>
-      <c r="O51" t="n">
-        <v>18857826.5077808</v>
-      </c>
-      <c r="P51" t="n">
-        <v>15208763.97529024</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>37.03887737297931</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>20252100405</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>PV_utility_systems</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G52" t="n">
-        <v>4</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="n">
-        <v>150</v>
-      </c>
-      <c r="K52" t="n">
-        <v>894688.9413361716</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" t="n">
-        <v>142499.9999999999</v>
-      </c>
-      <c r="O52" t="n">
-        <v>5157709.386361896</v>
-      </c>
-      <c r="P52" t="n">
-        <v>4263020.445025724</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>36.19445183411858</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>20252100406</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>PV_utility_systems</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G53" t="n">
-        <v>4</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="n">
-        <v>150</v>
-      </c>
-      <c r="K53" t="n">
-        <v>894688.9413361716</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" t="n">
-        <v>142499.9999999999</v>
-      </c>
-      <c r="O53" t="n">
-        <v>5157709.386361896</v>
-      </c>
-      <c r="P53" t="n">
-        <v>4263020.445025724</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>36.19445183411858</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>20252100408</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>PV_utility_systems</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G54" t="n">
-        <v>4</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="n">
-        <v>150</v>
-      </c>
-      <c r="K54" t="n">
-        <v>894688.9413361716</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" t="n">
-        <v>142499.9999999999</v>
-      </c>
-      <c r="O54" t="n">
-        <v>5157709.386361896</v>
-      </c>
-      <c r="P54" t="n">
-        <v>4263020.445025724</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>36.19445183411858</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>20252100411</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>PV_utility_systems</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G55" t="n">
-        <v>4</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="n">
-        <v>150</v>
-      </c>
-      <c r="K55" t="n">
-        <v>894688.9413361716</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" t="n">
-        <v>142499.9999999999</v>
-      </c>
-      <c r="O55" t="n">
-        <v>5157709.386361896</v>
-      </c>
-      <c r="P55" t="n">
-        <v>4263020.445025724</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>36.19445183411858</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>20252100415</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>PV_utility_systems</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G56" t="n">
-        <v>4</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="n">
-        <v>150</v>
-      </c>
-      <c r="K56" t="n">
-        <v>894688.9413361716</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" t="n">
-        <v>142499.9999999999</v>
-      </c>
-      <c r="O56" t="n">
-        <v>5157709.386361896</v>
-      </c>
-      <c r="P56" t="n">
-        <v>4263020.445025724</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>36.19445183411858</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>20262100415</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>PV_utility_systems</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G57" t="n">
-        <v>3</v>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" t="n">
-        <v>150</v>
-      </c>
-      <c r="K57" t="n">
-        <v>939423.3884029802</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" t="n">
-        <v>142499.9999999999</v>
-      </c>
-      <c r="O57" t="n">
-        <v>5157709.386361896</v>
-      </c>
-      <c r="P57" t="n">
-        <v>4218285.997958916</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>36.19445183411858</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>20262100416</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>PV_utility_systems</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G58" t="n">
-        <v>3</v>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" t="n">
-        <v>150</v>
-      </c>
-      <c r="K58" t="n">
-        <v>939423.3884029802</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" t="n">
-        <v>142499.9999999999</v>
-      </c>
-      <c r="O58" t="n">
-        <v>5157709.386361896</v>
-      </c>
-      <c r="P58" t="n">
-        <v>4218285.997958916</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>36.19445183411858</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>20262100418</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>PV_utility_systems</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G59" t="n">
-        <v>3</v>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" t="n">
-        <v>150</v>
-      </c>
-      <c r="K59" t="n">
-        <v>939423.3884029802</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" t="n">
-        <v>142499.9999999999</v>
-      </c>
-      <c r="O59" t="n">
-        <v>5157709.386361896</v>
-      </c>
-      <c r="P59" t="n">
-        <v>4218285.997958916</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>36.19445183411858</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>20262100421</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>PV_utility_systems</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G60" t="n">
-        <v>3</v>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" t="n">
-        <v>150</v>
-      </c>
-      <c r="K60" t="n">
-        <v>939423.3884029802</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" t="n">
-        <v>142499.9999999999</v>
-      </c>
-      <c r="O60" t="n">
-        <v>5157709.386361896</v>
-      </c>
-      <c r="P60" t="n">
-        <v>4218285.997958916</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>36.19445183411858</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>20262100425</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>PV_utility_systems</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G61" t="n">
-        <v>3</v>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" t="n">
-        <v>150</v>
-      </c>
-      <c r="K61" t="n">
-        <v>939423.3884029802</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" t="n">
-        <v>142499.9999999999</v>
-      </c>
-      <c r="O61" t="n">
-        <v>5157709.386361896</v>
-      </c>
-      <c r="P61" t="n">
-        <v>4218285.997958916</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>36.19445183411858</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>20272100425</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>PV_utility_systems</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G62" t="n">
-        <v>2</v>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" t="n">
-        <v>150</v>
-      </c>
-      <c r="K62" t="n">
-        <v>986394.5578231291</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" t="n">
-        <v>142499.9999999999</v>
-      </c>
-      <c r="O62" t="n">
-        <v>5157709.386361896</v>
-      </c>
-      <c r="P62" t="n">
-        <v>4171314.828538767</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>36.19445183411858</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>20272100426</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>PV_utility_systems</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G63" t="n">
-        <v>2</v>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
-      <c r="J63" t="n">
-        <v>150</v>
-      </c>
-      <c r="K63" t="n">
-        <v>986394.5578231291</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" t="n">
-        <v>142499.9999999999</v>
-      </c>
-      <c r="O63" t="n">
-        <v>5157709.386361896</v>
-      </c>
-      <c r="P63" t="n">
-        <v>4171314.828538767</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>36.19445183411858</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>20272100428</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>PV_utility_systems</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G64" t="n">
-        <v>2</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="n">
-        <v>150</v>
-      </c>
-      <c r="K64" t="n">
-        <v>986394.5578231291</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" t="n">
-        <v>142499.9999999999</v>
-      </c>
-      <c r="O64" t="n">
-        <v>5157709.386361896</v>
-      </c>
-      <c r="P64" t="n">
-        <v>4171314.828538767</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>36.19445183411858</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>20272100431</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>PV_utility_systems</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G65" t="n">
-        <v>2</v>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" t="n">
-        <v>150</v>
-      </c>
-      <c r="K65" t="n">
-        <v>986394.5578231291</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" t="n">
-        <v>142499.9999999999</v>
-      </c>
-      <c r="O65" t="n">
-        <v>5157709.386361896</v>
-      </c>
-      <c r="P65" t="n">
-        <v>4171314.828538767</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>36.19445183411858</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>20272100435</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>PV_utility_systems</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G66" t="n">
-        <v>2</v>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J66" t="n">
-        <v>150</v>
-      </c>
-      <c r="K66" t="n">
-        <v>986394.5578231291</v>
-      </c>
-      <c r="L66" t="n">
-        <v>0</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" t="n">
-        <v>142499.9999999999</v>
-      </c>
-      <c r="O66" t="n">
-        <v>5157709.386361896</v>
-      </c>
-      <c r="P66" t="n">
-        <v>4171314.828538767</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>36.19445183411858</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>20282100435</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>PV_utility_systems</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G67" t="n">
-        <v>1</v>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>150</v>
-      </c>
-      <c r="K67" t="n">
-        <v>1035714.285714286</v>
-      </c>
-      <c r="L67" t="n">
-        <v>0</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0</v>
-      </c>
-      <c r="N67" t="n">
-        <v>142499.9999999999</v>
-      </c>
-      <c r="O67" t="n">
-        <v>5157709.386361896</v>
-      </c>
-      <c r="P67" t="n">
-        <v>4121995.100647611</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>36.19445183411858</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>20282100436</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>PV_utility_systems</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G68" t="n">
-        <v>1</v>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
-      <c r="J68" t="n">
-        <v>150</v>
-      </c>
-      <c r="K68" t="n">
-        <v>1035714.285714286</v>
-      </c>
-      <c r="L68" t="n">
-        <v>0</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0</v>
-      </c>
-      <c r="N68" t="n">
-        <v>142499.9999999999</v>
-      </c>
-      <c r="O68" t="n">
-        <v>5157709.386361896</v>
-      </c>
-      <c r="P68" t="n">
-        <v>4121995.100647611</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>36.19445183411858</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>20282100438</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>PV_utility_systems</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G69" t="n">
-        <v>1</v>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>150</v>
-      </c>
-      <c r="K69" t="n">
-        <v>1035714.285714286</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0</v>
-      </c>
-      <c r="N69" t="n">
-        <v>142499.9999999999</v>
-      </c>
-      <c r="O69" t="n">
-        <v>5157709.386361896</v>
-      </c>
-      <c r="P69" t="n">
-        <v>4121995.100647611</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>36.19445183411858</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>20282100441</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>PV_utility_systems</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G70" t="n">
-        <v>1</v>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="n">
-        <v>150</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1035714.285714286</v>
-      </c>
-      <c r="L70" t="n">
-        <v>0</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0</v>
-      </c>
-      <c r="N70" t="n">
-        <v>142499.9999999999</v>
-      </c>
-      <c r="O70" t="n">
-        <v>5157709.386361896</v>
-      </c>
-      <c r="P70" t="n">
-        <v>4121995.100647611</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>36.19445183411858</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>20282100445</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>PV_utility_systems</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G71" t="n">
-        <v>1</v>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="n">
-        <v>150</v>
-      </c>
-      <c r="K71" t="n">
-        <v>1035714.285714286</v>
-      </c>
-      <c r="L71" t="n">
-        <v>0</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0</v>
-      </c>
-      <c r="N71" t="n">
-        <v>142499.9999999999</v>
-      </c>
-      <c r="O71" t="n">
-        <v>5157709.386361896</v>
-      </c>
-      <c r="P71" t="n">
-        <v>4121995.100647611</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>36.19445183411858</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>20292100445</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>PV_utility_systems</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="n">
-        <v>150</v>
-      </c>
-      <c r="K72" t="n">
-        <v>1087500</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N72" t="n">
-        <v>142499.9999999999</v>
-      </c>
-      <c r="O72" t="n">
-        <v>5157709.386361896</v>
-      </c>
-      <c r="P72" t="n">
-        <v>4070209.386361896</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>36.19445183411858</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>20292100446</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>PV_utility_systems</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="n">
-        <v>150</v>
-      </c>
-      <c r="K73" t="n">
-        <v>1087500</v>
-      </c>
-      <c r="L73" t="n">
-        <v>0</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0</v>
-      </c>
-      <c r="N73" t="n">
-        <v>142499.9999999999</v>
-      </c>
-      <c r="O73" t="n">
-        <v>5157709.386361896</v>
-      </c>
-      <c r="P73" t="n">
-        <v>4070209.386361896</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>36.19445183411858</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>20292100448</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>PV_utility_systems</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="n">
-        <v>150</v>
-      </c>
-      <c r="K74" t="n">
-        <v>1087500</v>
-      </c>
-      <c r="L74" t="n">
-        <v>0</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0</v>
-      </c>
-      <c r="N74" t="n">
-        <v>142499.9999999999</v>
-      </c>
-      <c r="O74" t="n">
-        <v>5157709.386361896</v>
-      </c>
-      <c r="P74" t="n">
-        <v>4070209.386361896</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>36.19445183411858</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>20292100451</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>PV_utility_systems</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G75" t="n">
-        <v>0</v>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>150</v>
-      </c>
-      <c r="K75" t="n">
-        <v>1087500</v>
-      </c>
-      <c r="L75" t="n">
-        <v>0</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0</v>
-      </c>
-      <c r="N75" t="n">
-        <v>142499.9999999999</v>
-      </c>
-      <c r="O75" t="n">
-        <v>5157709.386361896</v>
-      </c>
-      <c r="P75" t="n">
-        <v>4070209.386361896</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>36.19445183411858</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>20292100455</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>PV_utility_systems</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G76" t="n">
-        <v>0</v>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="n">
-        <v>150</v>
-      </c>
-      <c r="K76" t="n">
-        <v>1087500</v>
-      </c>
-      <c r="L76" t="n">
-        <v>0</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0</v>
-      </c>
-      <c r="N76" t="n">
-        <v>142499.9999999999</v>
-      </c>
-      <c r="O76" t="n">
-        <v>5157709.386361896</v>
-      </c>
-      <c r="P76" t="n">
-        <v>4070209.386361896</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>36.19445183411858</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Fuel oil PGT</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>heavy_oil</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G77" t="n">
-        <v>46</v>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>TobeDecommissioned</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
-        <v>0.3539907794712127</v>
-      </c>
-      <c r="J77" t="n">
-        <v>3652.9</v>
-      </c>
-      <c r="K77" t="n">
-        <v>3320199.3089279</v>
-      </c>
-      <c r="L77" t="n">
-        <v>6</v>
-      </c>
-      <c r="M77" t="n">
-        <v>2099025.556927946</v>
-      </c>
-      <c r="N77" t="n">
-        <v>16533.26517996501</v>
-      </c>
-      <c r="O77" t="n">
-        <v>12593961.72241366</v>
-      </c>
-      <c r="P77" t="n">
-        <v>7174736.856557814</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>761.7346957983233</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Hydropower_reservoir_medium</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G78" t="n">
-        <v>66</v>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>TobeDecommissioned</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
-        <v>0.7811457116585705</v>
-      </c>
-      <c r="J78" t="n">
-        <v>8858.749999999998</v>
-      </c>
-      <c r="K78" t="n">
-        <v>4759934.663566637</v>
-      </c>
-      <c r="L78" t="n">
-        <v>0</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0</v>
-      </c>
-      <c r="N78" t="n">
-        <v>18624635.99999999</v>
-      </c>
-      <c r="O78" t="n">
-        <v>726578726.2763199</v>
-      </c>
-      <c r="P78" t="n">
-        <v>721818791.6127533</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>39.01170075357823</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Lignite PSC</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>lignite</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G79" t="n">
-        <v>48</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>TobeDecommissioned</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
-        <v>0.360040798965821</v>
-      </c>
-      <c r="J79" t="n">
-        <v>20779.02</v>
-      </c>
-      <c r="K79" t="n">
-        <v>122917192.8620334</v>
-      </c>
-      <c r="L79" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M79" t="n">
-        <v>1170160425.438427</v>
-      </c>
-      <c r="N79" t="n">
-        <v>28742310.41270419</v>
-      </c>
-      <c r="O79" t="n">
-        <v>1299041246.176494</v>
-      </c>
-      <c r="P79" t="n">
-        <v>5963627.876033515</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>45.19613167918169</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Nuclear</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>nuclear</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G80" t="n">
-        <v>45</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>TobeDecommissioned</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="J80" t="n">
-        <v>8599</v>
-      </c>
-      <c r="K80" t="n">
-        <v>106390449.0313633</v>
-      </c>
-      <c r="L80" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M80" t="n">
-        <v>704008344.0939267</v>
-      </c>
-      <c r="N80" t="n">
-        <v>73636371.96545032</v>
-      </c>
-      <c r="O80" t="n">
-        <v>2928449415.44114</v>
-      </c>
-      <c r="P80" t="n">
-        <v>2118050622.31585</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>39.76906163729996</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>OCGT</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>natural_gas</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G81" t="n">
-        <v>38</v>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>TobeDecommissioned</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
-        <v>0.3741421697393409</v>
-      </c>
-      <c r="J81" t="n">
-        <v>8194.3025</v>
-      </c>
-      <c r="K81" t="n">
-        <v>9938939.562559243</v>
-      </c>
-      <c r="L81" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M81" t="n">
-        <v>27864470.32717168</v>
-      </c>
-      <c r="N81" t="n">
-        <v>521529.5386245131</v>
-      </c>
-      <c r="O81" t="n">
-        <v>57432265.25304184</v>
-      </c>
-      <c r="P81" t="n">
-        <v>19628855.36331092</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>110.1227466511566</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>PV_utility_systems</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G82" t="n">
-        <v>20</v>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="n">
-        <v>53555.51607579708</v>
-      </c>
-      <c r="K82" t="n">
-        <v>146337703.0013277</v>
-      </c>
-      <c r="L82" t="n">
-        <v>0</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0</v>
-      </c>
-      <c r="N82" t="n">
-        <v>50877740.2720072</v>
-      </c>
-      <c r="O82" t="n">
-        <v>1841491919.70396</v>
-      </c>
-      <c r="P82" t="n">
-        <v>1695154216.702632</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>36.19445183411859</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>ProducerDE</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>WTG_offshore</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="G83" t="n">
-        <v>16</v>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Operational</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>10271.8</v>
-      </c>
-      <c r="K83" t="n">
-        <v>169652075.9236598</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="M83" t="n">
-        <v>109799825.445763</v>
-      </c>
-      <c r="N83" t="n">
-        <v>40666602.01694923</v>
-      </c>
-      <c r="O83" t="n">
-        <v>1544224593.864313</v>
-      </c>
-      <c r="P83" t="n">
-        <v>1264772692.494891</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>37.9727962818409</v>
+        <v>38.47131180759017</v>
       </c>
     </row>
   </sheetData>

--- a/emlabpy/Yearly_results.xlsx
+++ b/emlabpy/Yearly_results.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Capacity" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Powerplants2020" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Powerplants2023" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1724,6 +1724,165 @@
       </c>
       <c r="Q24" t="n">
         <v>39.2141766002183</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C25" t="n">
+        <v>544999999.1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>21549872051.55128</v>
+      </c>
+      <c r="E25" t="n">
+        <v>39.54104970117106</v>
+      </c>
+      <c r="F25" t="n">
+        <v>25</v>
+      </c>
+      <c r="G25" t="n">
+        <v>222607.2994627971</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.563752531856369</v>
+      </c>
+      <c r="J25" t="n">
+        <v>189884.0157171822</v>
+      </c>
+      <c r="K25" t="n">
+        <v>206721.3605178526</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.0886717333056</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>39.20665550703523</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C26" t="n">
+        <v>544999999.0999999</v>
+      </c>
+      <c r="D26" t="n">
+        <v>21526591146.52967</v>
+      </c>
+      <c r="E26" t="n">
+        <v>39.49833244418013</v>
+      </c>
+      <c r="F26" t="n">
+        <v>28</v>
+      </c>
+      <c r="G26" t="n">
+        <v>223657.2994627971</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.57584530763212</v>
+      </c>
+      <c r="J26" t="n">
+        <v>284879.5272730819</v>
+      </c>
+      <c r="K26" t="n">
+        <v>308520.2515240397</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.082984988346657</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>39.16211275670448</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C27" t="n">
+        <v>544999999.1000001</v>
+      </c>
+      <c r="D27" t="n">
+        <v>21466629606.62168</v>
+      </c>
+      <c r="E27" t="n">
+        <v>39.38831126985533</v>
+      </c>
+      <c r="F27" t="n">
+        <v>35</v>
+      </c>
+      <c r="G27" t="n">
+        <v>225107.2994627971</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.592544855131968</v>
+      </c>
+      <c r="J27" t="n">
+        <v>379910.2374719926</v>
+      </c>
+      <c r="K27" t="n">
+        <v>475619.455146966</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.251925871521241</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>39.05671789277514</v>
       </c>
     </row>
   </sheetData>
@@ -1737,7 +1896,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB24"/>
+  <dimension ref="A1:BB27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5781,6 +5940,498 @@
         <v>0</v>
       </c>
       <c r="BB24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4644.4034</v>
+      </c>
+      <c r="D25" t="n">
+        <v>25208092.43182288</v>
+      </c>
+      <c r="E25" t="n">
+        <v>988950297.3756192</v>
+      </c>
+      <c r="F25" t="n">
+        <v>39.23146108934291</v>
+      </c>
+      <c r="G25" t="n">
+        <v>24845.77</v>
+      </c>
+      <c r="H25" t="n">
+        <v>58993.3532021554</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3390543.678933145</v>
+      </c>
+      <c r="J25" t="n">
+        <v>57.47331682121211</v>
+      </c>
+      <c r="K25" t="n">
+        <v>31358.329</v>
+      </c>
+      <c r="L25" t="n">
+        <v>216915397.8033532</v>
+      </c>
+      <c r="M25" t="n">
+        <v>8749191760.354513</v>
+      </c>
+      <c r="N25" t="n">
+        <v>40.33458135731876</v>
+      </c>
+      <c r="O25" t="n">
+        <v>8194.3025</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1005799.970999238</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>54732614.41050276</v>
+      </c>
+      <c r="R25" t="n">
+        <v>54.4169974036957</v>
+      </c>
+      <c r="S25" t="n">
+        <v>8858.749999999998</v>
+      </c>
+      <c r="T25" t="n">
+        <v>18624635.99999999</v>
+      </c>
+      <c r="U25" t="n">
+        <v>730209687.5959246</v>
+      </c>
+      <c r="V25" t="n">
+        <v>39.20665550703514</v>
+      </c>
+      <c r="W25" t="n">
+        <v>8599</v>
+      </c>
+      <c r="X25" t="n">
+        <v>74248378.40868516</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>2946569196.446678</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>39.68530033380507</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>47547.50848700004</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>80822858.88382252</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>3052501118.361236</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>37.76779441505532</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>10271.8</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>40867199.95874851</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>1571985765.814188</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>38.46570764331679</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>53855.51607579708</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>51162740.2720072</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>1908286631.62227</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>37.29836637906503</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>20779.02</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>36085902.01735923</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>1544054435.891416</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>42.78830095887985</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>3652.9</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4644.4034</v>
+      </c>
+      <c r="D26" t="n">
+        <v>25205889.39936129</v>
+      </c>
+      <c r="E26" t="n">
+        <v>987822534.8236688</v>
+      </c>
+      <c r="F26" t="n">
+        <v>39.19014795203774</v>
+      </c>
+      <c r="G26" t="n">
+        <v>24845.77</v>
+      </c>
+      <c r="H26" t="n">
+        <v>58184.62993594786</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3344063.670433715</v>
+      </c>
+      <c r="J26" t="n">
+        <v>57.47331682121212</v>
+      </c>
+      <c r="K26" t="n">
+        <v>31358.329</v>
+      </c>
+      <c r="L26" t="n">
+        <v>215947544.8650484</v>
+      </c>
+      <c r="M26" t="n">
+        <v>8707487425.110815</v>
+      </c>
+      <c r="N26" t="n">
+        <v>40.3222339506215</v>
+      </c>
+      <c r="O26" t="n">
+        <v>8194.3025</v>
+      </c>
+      <c r="P26" t="n">
+        <v>993771.973100805</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>54089978.15365694</v>
+      </c>
+      <c r="R26" t="n">
+        <v>54.42896320056536</v>
+      </c>
+      <c r="S26" t="n">
+        <v>8858.749999999998</v>
+      </c>
+      <c r="T26" t="n">
+        <v>18624635.99999999</v>
+      </c>
+      <c r="U26" t="n">
+        <v>729380095.0845757</v>
+      </c>
+      <c r="V26" t="n">
+        <v>39.1621127567044</v>
+      </c>
+      <c r="W26" t="n">
+        <v>8599</v>
+      </c>
+      <c r="X26" t="n">
+        <v>74190689.47931445</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>2942846235.129028</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>39.66597770936662</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>48147.50848700004</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>81841187.21046899</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>3084722295.877285</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>37.69156339270078</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>10271.8</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>40846471.98636796</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>1569893510.75753</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>38.43400505388724</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>54305.51607579708</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>51590240.2720072</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>1919662069.59683</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>37.20979122166323</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>20779.02</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>35701383.28439499</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>1527342938.325851</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>42.78105770185802</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>3652.9</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4644.4034</v>
+      </c>
+      <c r="D27" t="n">
+        <v>25205054.8504356</v>
+      </c>
+      <c r="E27" t="n">
+        <v>985162397.0696316</v>
+      </c>
+      <c r="F27" t="n">
+        <v>39.0859057008799</v>
+      </c>
+      <c r="G27" t="n">
+        <v>24845.77</v>
+      </c>
+      <c r="H27" t="n">
+        <v>33470.76679059917</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1923675.984005011</v>
+      </c>
+      <c r="J27" t="n">
+        <v>57.4733168212121</v>
+      </c>
+      <c r="K27" t="n">
+        <v>31958.329</v>
+      </c>
+      <c r="L27" t="n">
+        <v>217873567.7329212</v>
+      </c>
+      <c r="M27" t="n">
+        <v>8765047446.779198</v>
+      </c>
+      <c r="N27" t="n">
+        <v>40.22997162062252</v>
+      </c>
+      <c r="O27" t="n">
+        <v>8594.3025</v>
+      </c>
+      <c r="P27" t="n">
+        <v>863399.8836023856</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>46790551.07717997</v>
+      </c>
+      <c r="R27" t="n">
+        <v>54.19337200041601</v>
+      </c>
+      <c r="S27" t="n">
+        <v>8858.749999999998</v>
+      </c>
+      <c r="T27" t="n">
+        <v>18624635.99999999</v>
+      </c>
+      <c r="U27" t="n">
+        <v>727417154.1076224</v>
+      </c>
+      <c r="V27" t="n">
+        <v>39.05671789277508</v>
+      </c>
+      <c r="W27" t="n">
+        <v>8599</v>
+      </c>
+      <c r="X27" t="n">
+        <v>74173112.16663647</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>2934798075.508452</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>39.56687254695702</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>48147.50848700004</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>81840431.07775201</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>3078802226.627638</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>37.61957489816544</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>10271.8</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>40837482.49876035</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>1566740709.835154</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>38.36526186164178</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>54755.51607579708</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>52017740.2720072</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>1929019901.269473</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>37.08388505887394</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>20779.02</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>33531103.85109426</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>1430927468.363327</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>42.6746305375995</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>3652.9</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5795,7 +6446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5915,7 +6566,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -5929,25 +6580,25 @@
         <v>4644.4034</v>
       </c>
       <c r="K2" t="n">
-        <v>669675862.1922266</v>
+        <v>689967710.4925133</v>
       </c>
       <c r="L2" t="n">
         <v>1.9</v>
       </c>
       <c r="M2" t="n">
-        <v>47896307.39275556</v>
+        <v>47889604.21582765</v>
       </c>
       <c r="N2" t="n">
-        <v>25208582.8382924</v>
+        <v>25205054.8504356</v>
       </c>
       <c r="O2" t="n">
-        <v>989140946.3448792</v>
+        <v>985162397.0696316</v>
       </c>
       <c r="P2" t="n">
-        <v>271568776.759897</v>
+        <v>247305082.3612906</v>
       </c>
       <c r="Q2" t="n">
-        <v>39.23826074198633</v>
+        <v>39.0859057008799</v>
       </c>
     </row>
     <row r="3">
@@ -5980,7 +6631,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -5994,25 +6645,25 @@
         <v>31358.329</v>
       </c>
       <c r="K3" t="n">
-        <v>1163369162.846145</v>
+        <v>1198620411.849547</v>
       </c>
       <c r="L3" t="n">
         <v>4.2</v>
       </c>
       <c r="M3" t="n">
-        <v>8400024324.166846</v>
+        <v>8231837182.634344</v>
       </c>
       <c r="N3" t="n">
-        <v>217108263.1152519</v>
+        <v>212761273.5391161</v>
       </c>
       <c r="O3" t="n">
-        <v>8757160973.791931</v>
+        <v>8560953101.038298</v>
       </c>
       <c r="P3" t="n">
-        <v>-806232513.2210605</v>
+        <v>-869504493.4455931</v>
       </c>
       <c r="Q3" t="n">
-        <v>40.3354568275607</v>
+        <v>40.23736537497444</v>
       </c>
     </row>
     <row r="4">
@@ -6041,7 +6692,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -6055,25 +6706,25 @@
         <v>47547.50848700004</v>
       </c>
       <c r="K4" t="n">
-        <v>695534883.8583421</v>
+        <v>716610286.3741337</v>
       </c>
       <c r="L4" t="n">
         <v>1.35</v>
       </c>
       <c r="M4" t="n">
-        <v>109111540.0126057</v>
+        <v>109108199.9448949</v>
       </c>
       <c r="N4" t="n">
-        <v>80823362.9723005</v>
+        <v>80820888.84807028</v>
       </c>
       <c r="O4" t="n">
-        <v>3053718290.852691</v>
+        <v>3040435548.696347</v>
       </c>
       <c r="P4" t="n">
-        <v>2249071866.981743</v>
+        <v>2214717062.377319</v>
       </c>
       <c r="Q4" t="n">
-        <v>37.78261852206337</v>
+        <v>37.61942725490011</v>
       </c>
     </row>
     <row r="5">
@@ -6106,7 +6757,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -6120,25 +6771,25 @@
         <v>24845.77</v>
       </c>
       <c r="K5" t="n">
-        <v>2101891768.249022</v>
+        <v>2165581190.718736</v>
       </c>
       <c r="L5" t="n">
         <v>3.5</v>
       </c>
       <c r="M5" t="n">
-        <v>3391133.528571123</v>
+        <v>1923675.984005012</v>
       </c>
       <c r="N5" t="n">
-        <v>59003.61621933627</v>
+        <v>33470.76679059917</v>
       </c>
       <c r="O5" t="n">
-        <v>3391133.528571123</v>
+        <v>1923675.984005011</v>
       </c>
       <c r="P5" t="n">
-        <v>-2101891768.249022</v>
+        <v>-2165581190.718736</v>
       </c>
       <c r="Q5" t="n">
-        <v>57.47331682121211</v>
+        <v>57.4733168212121</v>
       </c>
     </row>
     <row r="6">
@@ -6147,7 +6798,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>20212100109</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -6157,53 +6808,49 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Fuel oil PGT</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>heavy_oil</t>
-        </is>
-      </c>
+          <t>PV_utility_systems</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>TobeDecommissioned</t>
+          <t>Operational</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0.3539907794712127</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>3652.9</v>
+        <v>150</v>
       </c>
       <c r="K6" t="n">
-        <v>45265022.64924459</v>
+        <v>1109358.75</v>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>142499.9999999999</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>5284453.620889533</v>
       </c>
       <c r="P6" t="n">
-        <v>-45265022.64924459</v>
+        <v>4175094.870889533</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>37.08388505887393</v>
       </c>
     </row>
     <row r="7">
@@ -6212,7 +6859,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>20212100122</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -6222,7 +6869,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Hydropower_reservoir_medium</t>
+          <t>PV_utility_systems</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -6232,7 +6879,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -6240,13 +6887,13 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0.7811457116585705</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>8858.749999999998</v>
+        <v>150</v>
       </c>
       <c r="K7" t="n">
-        <v>210093702.9708235</v>
+        <v>1109358.75</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -6255,16 +6902,16 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>18624635.99999999</v>
+        <v>142499.9999999999</v>
       </c>
       <c r="O7" t="n">
-        <v>730349765.2187814</v>
+        <v>5284453.620889533</v>
       </c>
       <c r="P7" t="n">
-        <v>520256062.2479579</v>
+        <v>4175094.870889533</v>
       </c>
       <c r="Q7" t="n">
-        <v>39.21417660021822</v>
+        <v>37.08388505887393</v>
       </c>
     </row>
     <row r="8">
@@ -6273,7 +6920,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20222100136</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -6283,21 +6930,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Lignite PSC</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>lignite</t>
-        </is>
-      </c>
+          <t>PV_utility_systems</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -6305,31 +6948,31 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0.360040798965821</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>20779.02</v>
+        <v>150</v>
       </c>
       <c r="K8" t="n">
-        <v>1884658060.750033</v>
+        <v>1098375</v>
       </c>
       <c r="L8" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1472112866.909959</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>36159080.46745713</v>
+        <v>142499.9999999999</v>
       </c>
       <c r="O8" t="n">
-        <v>1547033685.821918</v>
+        <v>5284453.620889533</v>
       </c>
       <c r="P8" t="n">
-        <v>-1809737241.838075</v>
+        <v>4186078.620889533</v>
       </c>
       <c r="Q8" t="n">
-        <v>42.78409920335875</v>
+        <v>37.08388505887393</v>
       </c>
     </row>
     <row r="9">
@@ -6338,7 +6981,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>20222100151</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -6348,21 +6991,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Nuclear</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>nuclear</t>
-        </is>
-      </c>
+          <t>PV_utility_systems</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -6370,31 +7009,31 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>8599</v>
+        <v>150</v>
       </c>
       <c r="K9" t="n">
-        <v>1367699084.443613</v>
+        <v>1098375</v>
       </c>
       <c r="L9" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>709963382.5338277</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>74259244.44886312</v>
+        <v>142499.9999999999</v>
       </c>
       <c r="O9" t="n">
-        <v>2947062642.512977</v>
+        <v>5284453.620889533</v>
       </c>
       <c r="P9" t="n">
-        <v>869400175.5355361</v>
+        <v>4186078.620889533</v>
       </c>
       <c r="Q9" t="n">
-        <v>39.68613826312766</v>
+        <v>37.08388505887393</v>
       </c>
     </row>
     <row r="10">
@@ -6403,7 +7042,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>20222100167</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -6413,53 +7052,49 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>OCGT</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>natural_gas</t>
-        </is>
-      </c>
+          <t>PV_utility_systems</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>TobeDecommissioned</t>
+          <t>Operational</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0.3741421697393409</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>8194.3025</v>
+        <v>150</v>
       </c>
       <c r="K10" t="n">
-        <v>84694118.86085288</v>
+        <v>1098375</v>
       </c>
       <c r="L10" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>53806695.52248025</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1007081.087896535</v>
+        <v>142499.9999999999</v>
       </c>
       <c r="O10" t="n">
-        <v>54801062.39115697</v>
+        <v>5284453.620889533</v>
       </c>
       <c r="P10" t="n">
-        <v>-83699751.99217616</v>
+        <v>4186078.620889533</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.41573975499686</v>
+        <v>37.08388505887393</v>
       </c>
     </row>
     <row r="11">
@@ -6468,7 +7103,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>20222400086</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -6478,7 +7113,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PV_utility_systems</t>
+          <t>WTG_onshore</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -6488,7 +7123,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -6499,28 +7134,28 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>53555.51607579708</v>
+        <v>300</v>
       </c>
       <c r="K11" t="n">
-        <v>433188907.0444192</v>
+        <v>3817800</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>687882.0100703272</v>
       </c>
       <c r="N11" t="n">
-        <v>50877740.2720072</v>
+        <v>509542.2296817238</v>
       </c>
       <c r="O11" t="n">
-        <v>1898471070.403504</v>
+        <v>19183029.97068053</v>
       </c>
       <c r="P11" t="n">
-        <v>1465282163.359085</v>
+        <v>14677347.9606102</v>
       </c>
       <c r="Q11" t="n">
-        <v>37.31437481801915</v>
+        <v>37.64757630130649</v>
       </c>
     </row>
     <row r="12">
@@ -6529,7 +7164,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>20222400097</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -6539,7 +7174,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>WTG_offshore</t>
+          <t>WTG_onshore</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -6549,7 +7184,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -6560,28 +7195,1548 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
+        <v>300</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3817800</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M12" t="n">
+        <v>688499.9999999987</v>
+      </c>
+      <c r="N12" t="n">
+        <v>509999.9999999991</v>
+      </c>
+      <c r="O12" t="n">
+        <v>19183647.9606102</v>
+      </c>
+      <c r="P12" t="n">
+        <v>14677347.9606102</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>37.61499600119654</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>20230300031</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CCGT</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>natural_gas</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J13" t="n">
+        <v>300</v>
+      </c>
+      <c r="K13" t="n">
+        <v>8340000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="M13" t="n">
+        <v>98940003.51914394</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2557217.870769535</v>
+      </c>
+      <c r="O13" t="n">
+        <v>102088601.6323018</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-5191401.886842102</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>39.9217457375193</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>20230300032</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CCGT</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>natural_gas</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J14" t="n">
+        <v>300</v>
+      </c>
+      <c r="K14" t="n">
+        <v>8340000</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="M14" t="n">
+        <v>98857145.99544162</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2555076.323035526</v>
+      </c>
+      <c r="O14" t="n">
+        <v>102005744.1085995</v>
+      </c>
+      <c r="P14" t="n">
+        <v>-5191401.886842102</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>39.92277772251159</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>20231700034</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>OCGT</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>natural_gas</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+      <c r="K15" t="n">
+        <v>774500</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1287254.866000819</v>
+      </c>
+      <c r="N15" t="n">
+        <v>24093.09879122005</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1294940.275265309</v>
+      </c>
+      <c r="P15" t="n">
+        <v>-766814.5907355109</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>53.74735257123536</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>20231700037</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>OCGT</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>natural_gas</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+      <c r="K16" t="n">
+        <v>774500</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1268538.083651047</v>
+      </c>
+      <c r="N16" t="n">
+        <v>23742.78332680248</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1276223.492915535</v>
+      </c>
+      <c r="P16" t="n">
+        <v>-766814.5907355114</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>53.75205911409917</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>20231700041</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>OCGT</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>natural_gas</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+      <c r="K17" t="n">
+        <v>774500</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1248460.111147372</v>
+      </c>
+      <c r="N17" t="n">
+        <v>23366.99094268721</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1256145.520411861</v>
+      </c>
+      <c r="P17" t="n">
+        <v>-766814.5907355109</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>53.75726483109612</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>20231700046</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>OCGT</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>natural_gas</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="J18" t="n">
+        <v>100</v>
+      </c>
+      <c r="K18" t="n">
+        <v>774500</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1236257.476836234</v>
+      </c>
+      <c r="N18" t="n">
+        <v>23138.59850717461</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1243942.886100723</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-766814.5907355109</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>53.76051128226339</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>20232100170</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>PV_utility_systems</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>150</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1087500</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>142499.9999999999</v>
+      </c>
+      <c r="O19" t="n">
+        <v>5284453.620889533</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4196953.620889533</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>37.08388505887393</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>20232100182</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>PV_utility_systems</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>150</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1087500</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>142499.9999999999</v>
+      </c>
+      <c r="O20" t="n">
+        <v>5284453.620889533</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4196953.620889533</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>37.08388505887393</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>20232100188</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>PV_utility_systems</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>150</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1087500</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>142499.9999999999</v>
+      </c>
+      <c r="O21" t="n">
+        <v>5284453.620889533</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4196953.620889533</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>37.08388505887393</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>20240100052</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Biomass_CHP_wood_pellets_DH</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>wood_pellets</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>InPipeline</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="J22" t="n">
+        <v>100</v>
+      </c>
+      <c r="K22" t="n">
+        <v>11584158.41584158</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>-11584158.41584158</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>20240100059</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Biomass_CHP_wood_pellets_DH</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>wood_pellets</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>InPipeline</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="J23" t="n">
+        <v>100</v>
+      </c>
+      <c r="K23" t="n">
+        <v>11584158.41584158</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-11584158.41584158</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>20240100067</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Biomass_CHP_wood_pellets_DH</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>wood_pellets</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>InPipeline</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="J24" t="n">
+        <v>100</v>
+      </c>
+      <c r="K24" t="n">
+        <v>11584158.41584158</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>-11584158.41584158</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>20240100076</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Biomass_CHP_wood_pellets_DH</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>wood_pellets</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>InPipeline</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="J25" t="n">
+        <v>100</v>
+      </c>
+      <c r="K25" t="n">
+        <v>11584158.41584158</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>-11584158.41584158</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>20242400167</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>WTG_onshore</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>InPipeline</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>300</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3742574.257425742</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>-3742574.257425742</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>20242400168</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>WTG_onshore</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>InPipeline</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>300</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3742574.257425742</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>-3742574.257425742</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>20252300173</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>WTG_offshore</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>InPipeline</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>200</v>
+      </c>
+      <c r="K28" t="n">
+        <v>7068522.693853543</v>
+      </c>
+      <c r="L28" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>-7068522.693853543</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>20252300177</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>WTG_offshore</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>InPipeline</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>200</v>
+      </c>
+      <c r="K29" t="n">
+        <v>7068522.693853543</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>-7068522.693853543</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Fuel oil PGT</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>heavy_oil</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>40</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>TobeDecommissioned</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>0.3539907794712127</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3652.9</v>
+      </c>
+      <c r="K30" t="n">
+        <v>46636598.10053935</v>
+      </c>
+      <c r="L30" t="n">
+        <v>6</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>-46636598.10053935</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Hydropower_reservoir_medium</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>60</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>TobeDecommissioned</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>0.7811457116585705</v>
+      </c>
+      <c r="J31" t="n">
+        <v>8858.749999999998</v>
+      </c>
+      <c r="K31" t="n">
+        <v>216459752.2645424</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>18624635.99999999</v>
+      </c>
+      <c r="O31" t="n">
+        <v>727417154.1076224</v>
+      </c>
+      <c r="P31" t="n">
+        <v>510957401.8430799</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>39.05671789277508</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Lignite PSC</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>lignite</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>42</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>TobeDecommissioned</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>0.360040798965821</v>
+      </c>
+      <c r="J32" t="n">
+        <v>20779.02</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1941765084.64882</v>
+      </c>
+      <c r="L32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1365122364.361974</v>
+      </c>
+      <c r="N32" t="n">
+        <v>33531103.85109426</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1430927468.363327</v>
+      </c>
+      <c r="P32" t="n">
+        <v>-1875959980.647466</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>42.6746305375995</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Nuclear</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>nuclear</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>39</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="J33" t="n">
+        <v>8599</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1409141734.401339</v>
+      </c>
+      <c r="L33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M33" t="n">
+        <v>709139905.7143579</v>
+      </c>
+      <c r="N33" t="n">
+        <v>74173112.16663647</v>
+      </c>
+      <c r="O33" t="n">
+        <v>2934798075.508452</v>
+      </c>
+      <c r="P33" t="n">
+        <v>816516435.3927557</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>39.56687254695702</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>OCGT</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>natural_gas</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>32</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>TobeDecommissioned</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>0.3741421697393409</v>
+      </c>
+      <c r="J34" t="n">
+        <v>8194.3025</v>
+      </c>
+      <c r="K34" t="n">
+        <v>87260435.35645558</v>
+      </c>
+      <c r="L34" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M34" t="n">
+        <v>41089533.21899129</v>
+      </c>
+      <c r="N34" t="n">
+        <v>769058.4120345013</v>
+      </c>
+      <c r="O34" t="n">
+        <v>41719298.90248654</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-86630669.67296033</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>54.24724344685399</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>PV_utility_systems</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>14</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>53555.51607579708</v>
+      </c>
+      <c r="K35" t="n">
+        <v>446314964.1167723</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>50877740.2720072</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1886744272.302356</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1440429308.185584</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>37.08388505887394</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>WTG_offshore</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>10</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
         <v>10271.8</v>
       </c>
-      <c r="K12" t="n">
-        <v>397043033.0270382</v>
-      </c>
-      <c r="L12" t="n">
+      <c r="K36" t="n">
+        <v>409073833.9707905</v>
+      </c>
+      <c r="L36" t="n">
         <v>2.7</v>
       </c>
-      <c r="M12" t="n">
-        <v>110357111.5606221</v>
-      </c>
-      <c r="N12" t="n">
-        <v>40873004.28171189</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1572438092.234706</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1065037947.647046</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>38.47131180759017</v>
+      <c r="M36" t="n">
+        <v>110261202.746653</v>
+      </c>
+      <c r="N36" t="n">
+        <v>40837482.49876035</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1566740709.835154</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1047405673.11771</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>38.36526186164178</v>
       </c>
     </row>
   </sheetData>

--- a/emlabpy/Yearly_results.xlsx
+++ b/emlabpy/Yearly_results.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Capacity" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Powerplants2023" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Powerplants2024" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1883,6 +1883,112 @@
       </c>
       <c r="Q27" t="n">
         <v>39.05671789277514</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C28" t="n">
+        <v>544999999.1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>21402432866.22358</v>
+      </c>
+      <c r="E28" t="n">
+        <v>39.27051908544411</v>
+      </c>
+      <c r="F28" t="n">
+        <v>38</v>
+      </c>
+      <c r="G28" t="n">
+        <v>226957.2994627971</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.613851174355911</v>
+      </c>
+      <c r="J28" t="n">
+        <v>380047.5813644884</v>
+      </c>
+      <c r="K28" t="n">
+        <v>469200.086490413</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.234582482556104</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>38.93518391089225</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C29" t="n">
+        <v>544999999.0999999</v>
+      </c>
+      <c r="D29" t="n">
+        <v>24695281853.69377</v>
+      </c>
+      <c r="E29" t="n">
+        <v>45.31244384307335</v>
+      </c>
+      <c r="F29" t="n">
+        <v>39</v>
+      </c>
+      <c r="G29" t="n">
+        <v>206178.2794627971</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.374540669879857</v>
+      </c>
+      <c r="J29" t="n">
+        <v>473365.9009549022</v>
+      </c>
+      <c r="K29" t="n">
+        <v>517734.4866003929</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.093729999469729</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>44.4770432656561</v>
       </c>
     </row>
   </sheetData>
@@ -1896,7 +2002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB27"/>
+  <dimension ref="A1:BB29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6432,6 +6538,334 @@
         <v>0</v>
       </c>
       <c r="BB27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C28" t="n">
+        <v>5044.4034</v>
+      </c>
+      <c r="D28" t="n">
+        <v>27372590.47430226</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1066677240.723435</v>
+      </c>
+      <c r="F28" t="n">
+        <v>38.96880866006617</v>
+      </c>
+      <c r="G28" t="n">
+        <v>24845.77</v>
+      </c>
+      <c r="H28" t="n">
+        <v>27842.75093926491</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1600215.245906473</v>
+      </c>
+      <c r="J28" t="n">
+        <v>57.47331682121211</v>
+      </c>
+      <c r="K28" t="n">
+        <v>31958.329</v>
+      </c>
+      <c r="L28" t="n">
+        <v>214606614.1895525</v>
+      </c>
+      <c r="M28" t="n">
+        <v>8625546618.779846</v>
+      </c>
+      <c r="N28" t="n">
+        <v>40.19236150457731</v>
+      </c>
+      <c r="O28" t="n">
+        <v>8594.3025</v>
+      </c>
+      <c r="P28" t="n">
+        <v>781748.8767160481</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>42323780.68363744</v>
+      </c>
+      <c r="R28" t="n">
+        <v>54.13986760227935</v>
+      </c>
+      <c r="S28" t="n">
+        <v>8858.749999999998</v>
+      </c>
+      <c r="T28" t="n">
+        <v>18624635.99999999</v>
+      </c>
+      <c r="U28" t="n">
+        <v>725153627.9334232</v>
+      </c>
+      <c r="V28" t="n">
+        <v>38.9351839108922</v>
+      </c>
+      <c r="W28" t="n">
+        <v>8599</v>
+      </c>
+      <c r="X28" t="n">
+        <v>74015398.90281951</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>2924755461.716269</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>39.51549954566082</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>48747.50848700004</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>82858334.92190105</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>3099240652.323266</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>37.40409043030476</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>10671.8</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>42381843.93461459</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>1620553999.528897</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>38.23698662165425</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>55205.51607579708</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>52445240.2720072</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>1936326850.541416</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>36.92092629376199</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>20779.02</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>31885748.77714756</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>1360254418.747491</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>42.66026268520255</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>3652.9</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C29" t="n">
+        <v>5044.4034</v>
+      </c>
+      <c r="D29" t="n">
+        <v>27372590.47430226</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1218508468.923648</v>
+      </c>
+      <c r="F29" t="n">
+        <v>44.51564312364221</v>
+      </c>
+      <c r="G29" t="n">
+        <v>24845.77</v>
+      </c>
+      <c r="H29" t="n">
+        <v>10739328.99908755</v>
+      </c>
+      <c r="I29" t="n">
+        <v>620677644.7277727</v>
+      </c>
+      <c r="J29" t="n">
+        <v>57.79482542908479</v>
+      </c>
+      <c r="K29" t="n">
+        <v>31958.329</v>
+      </c>
+      <c r="L29" t="n">
+        <v>214606614.1895525</v>
+      </c>
+      <c r="M29" t="n">
+        <v>10177017644.07378</v>
+      </c>
+      <c r="N29" t="n">
+        <v>47.42173340046672</v>
+      </c>
+      <c r="O29" t="n">
+        <v>8594.3025</v>
+      </c>
+      <c r="P29" t="n">
+        <v>21954960.33357887</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1232336609.040772</v>
+      </c>
+      <c r="R29" t="n">
+        <v>56.1302134149604</v>
+      </c>
+      <c r="S29" t="n">
+        <v>8858.749999999998</v>
+      </c>
+      <c r="T29" t="n">
+        <v>18624635.99999999</v>
+      </c>
+      <c r="U29" t="n">
+        <v>828368741.1790966</v>
+      </c>
+      <c r="V29" t="n">
+        <v>44.47704326565615</v>
+      </c>
+      <c r="W29" t="n">
+        <v>8599</v>
+      </c>
+      <c r="X29" t="n">
+        <v>74015398.90281951</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>3342208431.37881</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>45.15558222913926</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>48747.50848700004</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>82858334.92190105</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>3381735983.67715</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>40.8134677925237</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>10671.8</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>42381843.93461459</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>1798056961.192167</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>42.4251706453866</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>55205.51607579708</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>52445240.2720072</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>2096237927.784592</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>39.97003192115158</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>3652.9</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>1051.072136440591</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>133441.7159918998</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>126.9577142857143</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6446,7 +6880,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6566,11 +7000,11 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Operational</t>
+          <t>TobeDecommissioned</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -6580,25 +7014,25 @@
         <v>4644.4034</v>
       </c>
       <c r="K2" t="n">
-        <v>689967710.4925133</v>
+        <v>739738774.2313583</v>
       </c>
       <c r="L2" t="n">
         <v>1.9</v>
       </c>
       <c r="M2" t="n">
-        <v>47889604.21582765</v>
+        <v>47885454.07397433</v>
       </c>
       <c r="N2" t="n">
-        <v>25205054.8504356</v>
+        <v>25202870.56524965</v>
       </c>
       <c r="O2" t="n">
-        <v>985162397.0696316</v>
+        <v>1121887407.742675</v>
       </c>
       <c r="P2" t="n">
-        <v>247305082.3612906</v>
+        <v>334263179.4373424</v>
       </c>
       <c r="Q2" t="n">
-        <v>39.0859057008799</v>
+        <v>44.51427089775883</v>
       </c>
     </row>
     <row r="3">
@@ -6631,7 +7065,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -6645,25 +7079,25 @@
         <v>31358.329</v>
       </c>
       <c r="K3" t="n">
-        <v>1198620411.849547</v>
+        <v>1259762099.108875</v>
       </c>
       <c r="L3" t="n">
         <v>4.2</v>
       </c>
       <c r="M3" t="n">
-        <v>8231837182.634344</v>
+        <v>8106049022.341767</v>
       </c>
       <c r="N3" t="n">
-        <v>212761273.5391161</v>
+        <v>209510134.2628863</v>
       </c>
       <c r="O3" t="n">
-        <v>8560953101.038298</v>
+        <v>9944653107.660641</v>
       </c>
       <c r="P3" t="n">
-        <v>-869504493.4455931</v>
+        <v>578841986.2099986</v>
       </c>
       <c r="Q3" t="n">
-        <v>40.23736537497444</v>
+        <v>47.4662151434757</v>
       </c>
     </row>
     <row r="4">
@@ -6692,7 +7126,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -6706,25 +7140,25 @@
         <v>47547.50848700004</v>
       </c>
       <c r="K4" t="n">
-        <v>716610286.3741337</v>
+        <v>753164612.9842536</v>
       </c>
       <c r="L4" t="n">
         <v>1.35</v>
       </c>
       <c r="M4" t="n">
-        <v>109108199.9448949</v>
+        <v>109104752.1445664</v>
       </c>
       <c r="N4" t="n">
-        <v>80820888.84807028</v>
+        <v>80818334.92190105</v>
       </c>
       <c r="O4" t="n">
-        <v>3040435548.696347</v>
+        <v>3298488584.124525</v>
       </c>
       <c r="P4" t="n">
-        <v>2214717062.377319</v>
+        <v>2436219218.995705</v>
       </c>
       <c r="Q4" t="n">
-        <v>37.61942725490011</v>
+        <v>40.8136171985234</v>
       </c>
     </row>
     <row r="5">
@@ -6757,11 +7191,11 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Operational</t>
+          <t>TobeDecommissioned</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -6771,25 +7205,25 @@
         <v>24845.77</v>
       </c>
       <c r="K5" t="n">
-        <v>2165581190.718736</v>
+        <v>2276047595.752916</v>
       </c>
       <c r="L5" t="n">
         <v>3.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1923675.984005012</v>
+        <v>617224858.0117896</v>
       </c>
       <c r="N5" t="n">
-        <v>33470.76679059917</v>
+        <v>10739328.99908755</v>
       </c>
       <c r="O5" t="n">
-        <v>1923675.984005011</v>
+        <v>620677644.7277727</v>
       </c>
       <c r="P5" t="n">
-        <v>-2165581190.718736</v>
+        <v>-2272594809.036933</v>
       </c>
       <c r="Q5" t="n">
-        <v>57.4733168212121</v>
+        <v>57.79482542908479</v>
       </c>
     </row>
     <row r="6">
@@ -6818,7 +7252,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -6832,7 +7266,7 @@
         <v>150</v>
       </c>
       <c r="K6" t="n">
-        <v>1109358.75</v>
+        <v>1165947.195416373</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -6844,13 +7278,13 @@
         <v>142499.9999999999</v>
       </c>
       <c r="O6" t="n">
-        <v>5284453.620889533</v>
+        <v>5695729.548764098</v>
       </c>
       <c r="P6" t="n">
-        <v>4175094.870889533</v>
+        <v>4529782.353347724</v>
       </c>
       <c r="Q6" t="n">
-        <v>37.08388505887393</v>
+        <v>39.97003192115158</v>
       </c>
     </row>
     <row r="7">
@@ -6879,7 +7313,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -6893,7 +7327,7 @@
         <v>150</v>
       </c>
       <c r="K7" t="n">
-        <v>1109358.75</v>
+        <v>1165947.195416373</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -6905,13 +7339,13 @@
         <v>142499.9999999999</v>
       </c>
       <c r="O7" t="n">
-        <v>5284453.620889533</v>
+        <v>5695729.548764098</v>
       </c>
       <c r="P7" t="n">
-        <v>4175094.870889533</v>
+        <v>4529782.353347724</v>
       </c>
       <c r="Q7" t="n">
-        <v>37.08388505887393</v>
+        <v>39.97003192115158</v>
       </c>
     </row>
     <row r="8">
@@ -6940,7 +7374,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -6954,7 +7388,7 @@
         <v>150</v>
       </c>
       <c r="K8" t="n">
-        <v>1098375</v>
+        <v>1154403.163778588</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -6966,13 +7400,13 @@
         <v>142499.9999999999</v>
       </c>
       <c r="O8" t="n">
-        <v>5284453.620889533</v>
+        <v>5695729.548764098</v>
       </c>
       <c r="P8" t="n">
-        <v>4186078.620889533</v>
+        <v>4541326.38498551</v>
       </c>
       <c r="Q8" t="n">
-        <v>37.08388505887393</v>
+        <v>39.97003192115158</v>
       </c>
     </row>
     <row r="9">
@@ -7001,7 +7435,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -7015,7 +7449,7 @@
         <v>150</v>
       </c>
       <c r="K9" t="n">
-        <v>1098375</v>
+        <v>1154403.163778588</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -7027,13 +7461,13 @@
         <v>142499.9999999999</v>
       </c>
       <c r="O9" t="n">
-        <v>5284453.620889533</v>
+        <v>5695729.548764098</v>
       </c>
       <c r="P9" t="n">
-        <v>4186078.620889533</v>
+        <v>4541326.38498551</v>
       </c>
       <c r="Q9" t="n">
-        <v>37.08388505887393</v>
+        <v>39.97003192115158</v>
       </c>
     </row>
     <row r="10">
@@ -7062,7 +7496,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -7076,7 +7510,7 @@
         <v>150</v>
       </c>
       <c r="K10" t="n">
-        <v>1098375</v>
+        <v>1154403.163778588</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -7088,13 +7522,13 @@
         <v>142499.9999999999</v>
       </c>
       <c r="O10" t="n">
-        <v>5284453.620889533</v>
+        <v>5695729.548764098</v>
       </c>
       <c r="P10" t="n">
-        <v>4186078.620889533</v>
+        <v>4541326.38498551</v>
       </c>
       <c r="Q10" t="n">
-        <v>37.08388505887393</v>
+        <v>39.97003192115158</v>
       </c>
     </row>
     <row r="11">
@@ -7123,7 +7557,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -7137,25 +7571,25 @@
         <v>300</v>
       </c>
       <c r="K11" t="n">
-        <v>3817800</v>
+        <v>4012546.169271781</v>
       </c>
       <c r="L11" t="n">
         <v>1.35</v>
       </c>
       <c r="M11" t="n">
-        <v>687882.0100703272</v>
+        <v>688499.9999999987</v>
       </c>
       <c r="N11" t="n">
-        <v>509542.2296817238</v>
+        <v>509999.9999999991</v>
       </c>
       <c r="O11" t="n">
-        <v>19183029.97068053</v>
+        <v>20811849.88815639</v>
       </c>
       <c r="P11" t="n">
-        <v>14677347.9606102</v>
+        <v>16110803.71888461</v>
       </c>
       <c r="Q11" t="n">
-        <v>37.64757630130649</v>
+        <v>40.80754880030671</v>
       </c>
     </row>
     <row r="12">
@@ -7184,7 +7618,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -7198,7 +7632,7 @@
         <v>300</v>
       </c>
       <c r="K12" t="n">
-        <v>3817800</v>
+        <v>4012546.169271781</v>
       </c>
       <c r="L12" t="n">
         <v>1.35</v>
@@ -7210,13 +7644,13 @@
         <v>509999.9999999991</v>
       </c>
       <c r="O12" t="n">
-        <v>19183647.9606102</v>
+        <v>20811849.88815639</v>
       </c>
       <c r="P12" t="n">
-        <v>14677347.9606102</v>
+        <v>16110803.71888461</v>
       </c>
       <c r="Q12" t="n">
-        <v>37.61499600119654</v>
+        <v>40.80754880030671</v>
       </c>
     </row>
     <row r="13">
@@ -7249,7 +7683,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -7263,25 +7697,25 @@
         <v>300</v>
       </c>
       <c r="K13" t="n">
-        <v>8340000</v>
+        <v>8765423.817834001</v>
       </c>
       <c r="L13" t="n">
         <v>4.2</v>
       </c>
       <c r="M13" t="n">
-        <v>98940003.51914394</v>
+        <v>98642924.57841197</v>
       </c>
       <c r="N13" t="n">
-        <v>2557217.870769535</v>
+        <v>2549539.524809884</v>
       </c>
       <c r="O13" t="n">
-        <v>102088601.6323018</v>
+        <v>116232548.8723487</v>
       </c>
       <c r="P13" t="n">
-        <v>-5191401.886842102</v>
+        <v>8824200.476102758</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.9217457375193</v>
+        <v>45.58962422087418</v>
       </c>
     </row>
     <row r="14">
@@ -7314,7 +7748,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -7328,25 +7762,25 @@
         <v>300</v>
       </c>
       <c r="K14" t="n">
-        <v>8340000</v>
+        <v>8765423.817834001</v>
       </c>
       <c r="L14" t="n">
         <v>4.2</v>
       </c>
       <c r="M14" t="n">
-        <v>98857145.99544162</v>
+        <v>98542363.24685246</v>
       </c>
       <c r="N14" t="n">
-        <v>2555076.323035526</v>
+        <v>2546940.401856319</v>
       </c>
       <c r="O14" t="n">
-        <v>102005744.1085995</v>
+        <v>116131987.5407892</v>
       </c>
       <c r="P14" t="n">
-        <v>-5191401.886842102</v>
+        <v>8824200.476102743</v>
       </c>
       <c r="Q14" t="n">
-        <v>39.92277772251159</v>
+        <v>45.59666471039026</v>
       </c>
     </row>
     <row r="15">
@@ -7379,7 +7813,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -7393,25 +7827,25 @@
         <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>774500</v>
+        <v>814007.2838024501</v>
       </c>
       <c r="L15" t="n">
         <v>4.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1287254.866000819</v>
+        <v>18680359.06685985</v>
       </c>
       <c r="N15" t="n">
-        <v>24093.09879122005</v>
+        <v>349633.7425793277</v>
       </c>
       <c r="O15" t="n">
-        <v>1294940.275265309</v>
+        <v>19370571.96162779</v>
       </c>
       <c r="P15" t="n">
-        <v>-766814.5907355109</v>
+        <v>-123794.38903451</v>
       </c>
       <c r="Q15" t="n">
-        <v>53.74735257123536</v>
+        <v>55.40246721820003</v>
       </c>
     </row>
     <row r="16">
@@ -7444,7 +7878,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -7458,25 +7892,25 @@
         <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>774500</v>
+        <v>814007.2838024501</v>
       </c>
       <c r="L16" t="n">
         <v>4.5</v>
       </c>
       <c r="M16" t="n">
-        <v>1268538.083651047</v>
+        <v>18537830.47280242</v>
       </c>
       <c r="N16" t="n">
-        <v>23742.78332680248</v>
+        <v>346966.0847689768</v>
       </c>
       <c r="O16" t="n">
-        <v>1276223.492915535</v>
+        <v>19228043.36757036</v>
       </c>
       <c r="P16" t="n">
-        <v>-766814.5907355114</v>
+        <v>-123794.38903451</v>
       </c>
       <c r="Q16" t="n">
-        <v>53.75205911409917</v>
+        <v>55.41764515795001</v>
       </c>
     </row>
     <row r="17">
@@ -7509,7 +7943,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -7523,25 +7957,25 @@
         <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>774500</v>
+        <v>814007.2838024501</v>
       </c>
       <c r="L17" t="n">
         <v>4.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1248460.111147372</v>
+        <v>18406682.2442195</v>
       </c>
       <c r="N17" t="n">
-        <v>23366.99094268721</v>
+        <v>344511.429276115</v>
       </c>
       <c r="O17" t="n">
-        <v>1256145.520411861</v>
+        <v>19096895.13898744</v>
       </c>
       <c r="P17" t="n">
-        <v>-766814.5907355109</v>
+        <v>-123794.3890345063</v>
       </c>
       <c r="Q17" t="n">
-        <v>53.75726483109612</v>
+        <v>55.43181884883675</v>
       </c>
     </row>
     <row r="18">
@@ -7574,7 +8008,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -7588,25 +8022,25 @@
         <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>774500</v>
+        <v>814007.2838024501</v>
       </c>
       <c r="L18" t="n">
         <v>4.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1236257.476836234</v>
+        <v>18275507.0854902</v>
       </c>
       <c r="N18" t="n">
-        <v>23138.59850717461</v>
+        <v>342056.2697411292</v>
       </c>
       <c r="O18" t="n">
-        <v>1243942.886100723</v>
+        <v>18965719.98025814</v>
       </c>
       <c r="P18" t="n">
-        <v>-766814.5907355109</v>
+        <v>-123794.3890345175</v>
       </c>
       <c r="Q18" t="n">
-        <v>53.76051128226339</v>
+        <v>55.44619893858849</v>
       </c>
     </row>
     <row r="19">
@@ -7635,7 +8069,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -7649,7 +8083,7 @@
         <v>150</v>
       </c>
       <c r="K19" t="n">
-        <v>1087500</v>
+        <v>1142973.42948375</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -7661,13 +8095,13 @@
         <v>142499.9999999999</v>
       </c>
       <c r="O19" t="n">
-        <v>5284453.620889533</v>
+        <v>5695729.548764098</v>
       </c>
       <c r="P19" t="n">
-        <v>4196953.620889533</v>
+        <v>4552756.119280348</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.08388505887393</v>
+        <v>39.97003192115158</v>
       </c>
     </row>
     <row r="20">
@@ -7696,7 +8130,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -7710,7 +8144,7 @@
         <v>150</v>
       </c>
       <c r="K20" t="n">
-        <v>1087500</v>
+        <v>1142973.42948375</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -7722,13 +8156,13 @@
         <v>142499.9999999999</v>
       </c>
       <c r="O20" t="n">
-        <v>5284453.620889533</v>
+        <v>5695729.548764098</v>
       </c>
       <c r="P20" t="n">
-        <v>4196953.620889533</v>
+        <v>4552756.119280348</v>
       </c>
       <c r="Q20" t="n">
-        <v>37.08388505887393</v>
+        <v>39.97003192115158</v>
       </c>
     </row>
     <row r="21">
@@ -7757,7 +8191,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -7771,7 +8205,7 @@
         <v>150</v>
       </c>
       <c r="K21" t="n">
-        <v>1087500</v>
+        <v>1142973.42948375</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -7783,13 +8217,13 @@
         <v>142499.9999999999</v>
       </c>
       <c r="O21" t="n">
-        <v>5284453.620889533</v>
+        <v>5695729.548764098</v>
       </c>
       <c r="P21" t="n">
-        <v>4196953.620889533</v>
+        <v>4552756.119280348</v>
       </c>
       <c r="Q21" t="n">
-        <v>37.08388505887393</v>
+        <v>39.97003192115158</v>
       </c>
     </row>
     <row r="22">
@@ -7822,11 +8256,11 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>InPipeline</t>
+          <t>Operational</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -7836,25 +8270,25 @@
         <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>11584158.41584158</v>
+        <v>12175066.917</v>
       </c>
       <c r="L22" t="n">
         <v>1.9</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1030609.123551547</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>542425.8545008145</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>24155257.46199475</v>
       </c>
       <c r="P22" t="n">
-        <v>-11584158.41584158</v>
+        <v>10949581.4214432</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>44.53190654826813</v>
       </c>
     </row>
     <row r="23">
@@ -7887,11 +8321,11 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>InPipeline</t>
+          <t>Operational</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -7901,25 +8335,25 @@
         <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>11584158.41584158</v>
+        <v>12175066.917</v>
       </c>
       <c r="L23" t="n">
         <v>1.9</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1030514.4</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>542376</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>24155162.73844321</v>
       </c>
       <c r="P23" t="n">
-        <v>-11584158.41584158</v>
+        <v>10949581.42144321</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>44.53582521800966</v>
       </c>
     </row>
     <row r="24">
@@ -7952,11 +8386,11 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>InPipeline</t>
+          <t>Operational</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -7966,25 +8400,25 @@
         <v>100</v>
       </c>
       <c r="K24" t="n">
-        <v>11584158.41584158</v>
+        <v>12175066.917</v>
       </c>
       <c r="L24" t="n">
         <v>1.9</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1030712.10364841</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>542480.0545517951</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>24155360.44209162</v>
       </c>
       <c r="P24" t="n">
-        <v>-11584158.41584158</v>
+        <v>10949581.42144321</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>44.52764712621394</v>
       </c>
     </row>
     <row r="25">
@@ -8017,11 +8451,11 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>InPipeline</t>
+          <t>Operational</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -8031,25 +8465,25 @@
         <v>100</v>
       </c>
       <c r="K25" t="n">
-        <v>11584158.41584158</v>
+        <v>12175066.917</v>
       </c>
       <c r="L25" t="n">
         <v>1.9</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1030632.2</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>542438</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>24155280.5384432</v>
       </c>
       <c r="P25" t="n">
-        <v>-11584158.41584158</v>
+        <v>10949581.4214432</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>44.53095199533072</v>
       </c>
     </row>
     <row r="26">
@@ -8058,7 +8492,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>20242400167</t>
+          <t>20242100195</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -8068,7 +8502,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>WTG_onshore</t>
+          <t>PV_utility_systems</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -8078,39 +8512,39 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>InPipeline</t>
+          <t>Operational</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K26" t="n">
-        <v>3742574.257425742</v>
+        <v>1131656.860875</v>
       </c>
       <c r="L26" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>142499.9999999999</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>5695729.548764098</v>
       </c>
       <c r="P26" t="n">
-        <v>-3742574.257425742</v>
+        <v>4564072.687889097</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>39.97003192115158</v>
       </c>
     </row>
     <row r="27">
@@ -8119,7 +8553,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>20242400168</t>
+          <t>20242100203</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -8129,7 +8563,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>WTG_onshore</t>
+          <t>PV_utility_systems</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -8139,39 +8573,39 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>InPipeline</t>
+          <t>Operational</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K27" t="n">
-        <v>3742574.257425742</v>
+        <v>1131656.860875</v>
       </c>
       <c r="L27" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>142499.9999999999</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>5695729.548764098</v>
       </c>
       <c r="P27" t="n">
-        <v>-3742574.257425742</v>
+        <v>4564072.687889097</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>39.97003192115158</v>
       </c>
     </row>
     <row r="28">
@@ -8180,7 +8614,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>20252300173</t>
+          <t>20242100212</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -8190,7 +8624,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>WTG_offshore</t>
+          <t>PV_utility_systems</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -8200,39 +8634,39 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>InPipeline</t>
+          <t>Operational</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K28" t="n">
-        <v>7068522.693853543</v>
+        <v>1131656.860875</v>
       </c>
       <c r="L28" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>142499.9999999999</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>5695729.548764098</v>
       </c>
       <c r="P28" t="n">
-        <v>-7068522.693853543</v>
+        <v>4564072.687889097</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>39.97003192115158</v>
       </c>
     </row>
     <row r="29">
@@ -8241,7 +8675,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>20252300177</t>
+          <t>20242400167</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -8251,7 +8685,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>WTG_offshore</t>
+          <t>WTG_onshore</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -8261,39 +8695,39 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>InPipeline</t>
+          <t>Operational</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K29" t="n">
-        <v>7068522.693853543</v>
+        <v>3933483.1578</v>
       </c>
       <c r="L29" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>688499.9999999987</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>509999.9999999991</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>20811849.88815639</v>
       </c>
       <c r="P29" t="n">
-        <v>-7068522.693853543</v>
+        <v>16189866.73035639</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>40.80754880030671</v>
       </c>
     </row>
     <row r="30">
@@ -8302,7 +8736,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>20242400168</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -8312,53 +8746,49 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Fuel oil PGT</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>heavy_oil</t>
-        </is>
-      </c>
+          <t>WTG_onshore</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>TobeDecommissioned</t>
+          <t>Operational</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0.3539907794712127</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>3652.9</v>
+        <v>300</v>
       </c>
       <c r="K30" t="n">
-        <v>46636598.10053935</v>
+        <v>3933483.1578</v>
       </c>
       <c r="L30" t="n">
-        <v>6</v>
+        <v>1.35</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>688499.9999999987</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>509999.9999999991</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>20811849.88815639</v>
       </c>
       <c r="P30" t="n">
-        <v>-46636598.10053935</v>
+        <v>16189866.73035639</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>40.80754880030671</v>
       </c>
     </row>
     <row r="31">
@@ -8367,7 +8797,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>20252300173</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -8377,7 +8807,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Hydropower_reservoir_medium</t>
+          <t>WTG_offshore</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -8387,39 +8817,39 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>TobeDecommissioned</t>
+          <t>Operational</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0.7811457116585705</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>8858.749999999998</v>
+        <v>200</v>
       </c>
       <c r="K31" t="n">
-        <v>216459752.2645424</v>
+        <v>7429088.390600001</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>2154789.208631992</v>
       </c>
       <c r="N31" t="n">
-        <v>18624635.99999999</v>
+        <v>798070.0772711082</v>
       </c>
       <c r="O31" t="n">
-        <v>727417154.1076224</v>
+        <v>33707591.59564652</v>
       </c>
       <c r="P31" t="n">
-        <v>510957401.8430799</v>
+        <v>24123713.99641452</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.05671789277508</v>
+        <v>42.2363806833919</v>
       </c>
     </row>
     <row r="32">
@@ -8428,7 +8858,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20252300177</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -8438,53 +8868,49 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Lignite PSC</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>lignite</t>
-        </is>
-      </c>
+          <t>WTG_offshore</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>TobeDecommissioned</t>
+          <t>Operational</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0.360040798965821</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>20779.02</v>
+        <v>200</v>
       </c>
       <c r="K32" t="n">
-        <v>1941765084.64882</v>
+        <v>7429088.390600001</v>
       </c>
       <c r="L32" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="M32" t="n">
-        <v>1365122364.361974</v>
+        <v>2131011.753069582</v>
       </c>
       <c r="N32" t="n">
-        <v>33531103.85109426</v>
+        <v>789263.6122479931</v>
       </c>
       <c r="O32" t="n">
-        <v>1430927468.363327</v>
+        <v>33683814.14008293</v>
       </c>
       <c r="P32" t="n">
-        <v>-1875959980.647466</v>
+        <v>24123713.99641334</v>
       </c>
       <c r="Q32" t="n">
-        <v>42.6746305375995</v>
+        <v>42.67752068810591</v>
       </c>
     </row>
     <row r="33">
@@ -8493,7 +8919,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>20260300212</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -8503,12 +8929,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Nuclear</t>
+          <t>CCGT</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>nuclear</t>
+          <t>natural_gas</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -8517,39 +8943,39 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>39</v>
+        <v>-2</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Operational</t>
+          <t>InPipeline</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0.33</v>
+        <v>0.61</v>
       </c>
       <c r="J33" t="n">
-        <v>8599</v>
+        <v>300</v>
       </c>
       <c r="K33" t="n">
-        <v>1409141734.401339</v>
+        <v>8175669.05205372</v>
       </c>
       <c r="L33" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M33" t="n">
-        <v>709139905.7143579</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>74173112.16663647</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>2934798075.508452</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>816516435.3927557</v>
+        <v>-8175669.05205372</v>
       </c>
       <c r="Q33" t="n">
-        <v>39.56687254695702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -8558,7 +8984,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>20260300213</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -8568,7 +8994,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>OCGT</t>
+          <t>CCGT</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -8582,39 +9008,39 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>32</v>
+        <v>-2</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>TobeDecommissioned</t>
+          <t>InPipeline</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0.3741421697393409</v>
+        <v>0.61</v>
       </c>
       <c r="J34" t="n">
-        <v>8194.3025</v>
+        <v>300</v>
       </c>
       <c r="K34" t="n">
-        <v>87260435.35645558</v>
+        <v>8175669.05205372</v>
       </c>
       <c r="L34" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M34" t="n">
-        <v>41089533.21899129</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>769058.4120345013</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>41719298.90248654</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>-86630669.67296033</v>
+        <v>-8175669.05205372</v>
       </c>
       <c r="Q34" t="n">
-        <v>54.24724344685399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -8623,7 +9049,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -8633,49 +9059,53 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>PV_utility_systems</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
+          <t>Fuel oil PGT</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>heavy_oil</t>
+        </is>
+      </c>
       <c r="F35" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Operational</t>
+          <t>TobeDecommissioned</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0.3539907794712127</v>
       </c>
       <c r="J35" t="n">
-        <v>53555.51607579708</v>
+        <v>3652.9</v>
       </c>
       <c r="K35" t="n">
-        <v>446314964.1167723</v>
+        <v>49015533.30614143</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>133441.7159918998</v>
       </c>
       <c r="N35" t="n">
-        <v>50877740.2720072</v>
+        <v>1051.072136440591</v>
       </c>
       <c r="O35" t="n">
-        <v>1886744272.302356</v>
+        <v>133441.7159918998</v>
       </c>
       <c r="P35" t="n">
-        <v>1440429308.185584</v>
+        <v>-49015533.30614143</v>
       </c>
       <c r="Q35" t="n">
-        <v>37.08388505887394</v>
+        <v>126.9577142857143</v>
       </c>
     </row>
     <row r="36">
@@ -8684,7 +9114,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -8694,7 +9124,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>WTG_offshore</t>
+          <t>Hydropower_reservoir_medium</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -8704,39 +9134,291 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
+          <t>TobeDecommissioned</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>0.7811457116585705</v>
+      </c>
+      <c r="J36" t="n">
+        <v>8858.749999999998</v>
+      </c>
+      <c r="K36" t="n">
+        <v>227501375.0721903</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>18624635.99999999</v>
+      </c>
+      <c r="O36" t="n">
+        <v>828368741.1790966</v>
+      </c>
+      <c r="P36" t="n">
+        <v>600867366.1069063</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>44.47704326565615</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Nuclear</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>nuclear</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>44</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>TobeDecommissioned</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="J37" t="n">
+        <v>8599</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1481022124.871152</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M37" t="n">
+        <v>707632071.3284714</v>
+      </c>
+      <c r="N37" t="n">
+        <v>74015398.90281951</v>
+      </c>
+      <c r="O37" t="n">
+        <v>3342208431.37881</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1153554235.179187</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>45.15558222913926</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>OCGT</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>natural_gas</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>37</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>TobeDecommissioned</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>0.3741421697393409</v>
+      </c>
+      <c r="J38" t="n">
+        <v>8194.3025</v>
+      </c>
+      <c r="K38" t="n">
+        <v>91711594.5357362</v>
+      </c>
+      <c r="L38" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1099117246.101038</v>
+      </c>
+      <c r="N38" t="n">
+        <v>20571792.80721333</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1155675378.592329</v>
+      </c>
+      <c r="P38" t="n">
+        <v>-35153462.04444492</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>56.17766956057913</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>PV_utility_systems</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>19</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
           <t>Operational</t>
         </is>
       </c>
-      <c r="I36" t="n">
+      <c r="I39" t="n">
         <v>1</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J39" t="n">
+        <v>53555.51607579708</v>
+      </c>
+      <c r="K39" t="n">
+        <v>469081512.7967485</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>50877740.2720072</v>
+      </c>
+      <c r="O39" t="n">
+        <v>2033584902.748187</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1564503389.951438</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>39.97003192115158</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>WTG_offshore</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>15</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
         <v>10271.8</v>
       </c>
-      <c r="K36" t="n">
-        <v>409073833.9707905</v>
-      </c>
-      <c r="L36" t="n">
+      <c r="K40" t="n">
+        <v>429940710.7362396</v>
+      </c>
+      <c r="L40" t="n">
         <v>2.7</v>
       </c>
-      <c r="M36" t="n">
-        <v>110261202.746653</v>
-      </c>
-      <c r="N36" t="n">
-        <v>40837482.49876035</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1566740709.835154</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1047405673.11771</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>38.36526186164178</v>
+      <c r="M40" t="n">
+        <v>110145177.6617579</v>
+      </c>
+      <c r="N40" t="n">
+        <v>40794510.24509549</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1730665555.456438</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1190579667.05844</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>42.42398168426367</v>
       </c>
     </row>
   </sheetData>

--- a/emlabpy/Yearly_results.xlsx
+++ b/emlabpy/Yearly_results.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1989,6 +1989,324 @@
       </c>
       <c r="Q29" t="n">
         <v>44.4770432656561</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C30" t="n">
+        <v>544999999.1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>21553567663.10111</v>
+      </c>
+      <c r="E30" t="n">
+        <v>39.5478306398058</v>
+      </c>
+      <c r="F30" t="n">
+        <v>11</v>
+      </c>
+      <c r="G30" t="n">
+        <v>222307.2994627971</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.560297453063297</v>
+      </c>
+      <c r="J30" t="n">
+        <v>93721.28185203875</v>
+      </c>
+      <c r="K30" t="n">
+        <v>146444.618942048</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.562554587902943</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>39.2141766002183</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C31" t="n">
+        <v>544999999.1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>21541074295.59454</v>
+      </c>
+      <c r="E31" t="n">
+        <v>39.52490702966414</v>
+      </c>
+      <c r="F31" t="n">
+        <v>36</v>
+      </c>
+      <c r="G31" t="n">
+        <v>223057.2994627971</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.568935150045977</v>
+      </c>
+      <c r="J31" t="n">
+        <v>187447.3881722572</v>
+      </c>
+      <c r="K31" t="n">
+        <v>292827.2230299574</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.562183532591342</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>39.19008378518849</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C32" t="n">
+        <v>544999999.1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>21508674780.85587</v>
+      </c>
+      <c r="E32" t="n">
+        <v>39.46545837866933</v>
+      </c>
+      <c r="F32" t="n">
+        <v>45</v>
+      </c>
+      <c r="G32" t="n">
+        <v>224707.2994627971</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.587938083407872</v>
+      </c>
+      <c r="J32" t="n">
+        <v>281178.314141007</v>
+      </c>
+      <c r="K32" t="n">
+        <v>439266.4011848114</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.562234280146247</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>39.12629221564828</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C33" t="n">
+        <v>544999999.1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>21430933354.96905</v>
+      </c>
+      <c r="E33" t="n">
+        <v>39.32281356029281</v>
+      </c>
+      <c r="F33" t="n">
+        <v>53</v>
+      </c>
+      <c r="G33" t="n">
+        <v>227057.2994627971</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2.615002867286935</v>
+      </c>
+      <c r="J33" t="n">
+        <v>374914.0549434543</v>
+      </c>
+      <c r="K33" t="n">
+        <v>693981.1361869189</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.851040597268585</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>38.99434423606265</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C34" t="n">
+        <v>544999819.5732863</v>
+      </c>
+      <c r="D34" t="n">
+        <v>24617424641.69973</v>
+      </c>
+      <c r="E34" t="n">
+        <v>45.16960145229812</v>
+      </c>
+      <c r="F34" t="n">
+        <v>56</v>
+      </c>
+      <c r="G34" t="n">
+        <v>205775.3794627971</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2.369900499060761</v>
+      </c>
+      <c r="J34" t="n">
+        <v>465559.4745338681</v>
+      </c>
+      <c r="K34" t="n">
+        <v>750392.2194672843</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.611807428510824</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>44.24295820119381</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C35" t="n">
+        <v>544999819.5732863</v>
+      </c>
+      <c r="D35" t="n">
+        <v>24617424641.69973</v>
+      </c>
+      <c r="E35" t="n">
+        <v>45.16960145229812</v>
+      </c>
+      <c r="F35" t="n">
+        <v>56</v>
+      </c>
+      <c r="G35" t="n">
+        <v>205775.3794627971</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2.369900499060761</v>
+      </c>
+      <c r="J35" t="n">
+        <v>465559.4745338681</v>
+      </c>
+      <c r="K35" t="n">
+        <v>750392.2194672843</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.611807428510824</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>44.24295820119381</v>
       </c>
     </row>
   </sheetData>
@@ -2002,7 +2320,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB29"/>
+  <dimension ref="A1:BB35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6866,6 +7184,990 @@
         <v>0</v>
       </c>
       <c r="BB29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4644.4034</v>
+      </c>
+      <c r="D30" t="n">
+        <v>25208582.8382924</v>
+      </c>
+      <c r="E30" t="n">
+        <v>989140946.3448792</v>
+      </c>
+      <c r="F30" t="n">
+        <v>39.23826074198633</v>
+      </c>
+      <c r="G30" t="n">
+        <v>24845.77</v>
+      </c>
+      <c r="H30" t="n">
+        <v>59003.61621933627</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3391133.528571123</v>
+      </c>
+      <c r="J30" t="n">
+        <v>57.47331682121211</v>
+      </c>
+      <c r="K30" t="n">
+        <v>31358.329</v>
+      </c>
+      <c r="L30" t="n">
+        <v>217108263.1152519</v>
+      </c>
+      <c r="M30" t="n">
+        <v>8757160973.791931</v>
+      </c>
+      <c r="N30" t="n">
+        <v>40.3354568275607</v>
+      </c>
+      <c r="O30" t="n">
+        <v>8194.3025</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1007081.087896535</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>54801062.39115697</v>
+      </c>
+      <c r="R30" t="n">
+        <v>54.41573975499686</v>
+      </c>
+      <c r="S30" t="n">
+        <v>8858.749999999998</v>
+      </c>
+      <c r="T30" t="n">
+        <v>18624635.99999999</v>
+      </c>
+      <c r="U30" t="n">
+        <v>730349765.2187814</v>
+      </c>
+      <c r="V30" t="n">
+        <v>39.21417660021822</v>
+      </c>
+      <c r="W30" t="n">
+        <v>8599</v>
+      </c>
+      <c r="X30" t="n">
+        <v>74259244.44886312</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>2947062642.512977</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>39.68613826312766</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>47547.50848700004</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>80823362.9723005</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>3053718290.852691</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>37.78261852206337</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>10271.8</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>40873004.28171189</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>1572438092.234706</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>38.47131180759017</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>53555.51607579708</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>50877740.2720072</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>1898471070.403504</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>37.31437481801915</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>20779.02</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>36159080.46745713</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>1547033685.821918</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>42.78409920335875</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>3652.9</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4644.4034</v>
+      </c>
+      <c r="D31" t="n">
+        <v>25207356.82211861</v>
+      </c>
+      <c r="E31" t="n">
+        <v>988530883.2744693</v>
+      </c>
+      <c r="F31" t="n">
+        <v>39.21596739595746</v>
+      </c>
+      <c r="G31" t="n">
+        <v>24845.77</v>
+      </c>
+      <c r="H31" t="n">
+        <v>58977.95867638414</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3389658.904476181</v>
+      </c>
+      <c r="J31" t="n">
+        <v>57.47331682121211</v>
+      </c>
+      <c r="K31" t="n">
+        <v>31358.329</v>
+      </c>
+      <c r="L31" t="n">
+        <v>216624824.4448164</v>
+      </c>
+      <c r="M31" t="n">
+        <v>8736137494.080956</v>
+      </c>
+      <c r="N31" t="n">
+        <v>40.32842273026942</v>
+      </c>
+      <c r="O31" t="n">
+        <v>8194.3025</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1003927.045819152</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>54632547.08115615</v>
+      </c>
+      <c r="R31" t="n">
+        <v>54.41884179599808</v>
+      </c>
+      <c r="S31" t="n">
+        <v>8858.749999999998</v>
+      </c>
+      <c r="T31" t="n">
+        <v>18624635.99999999</v>
+      </c>
+      <c r="U31" t="n">
+        <v>729901045.3086358</v>
+      </c>
+      <c r="V31" t="n">
+        <v>39.19008378518841</v>
+      </c>
+      <c r="W31" t="n">
+        <v>8599</v>
+      </c>
+      <c r="X31" t="n">
+        <v>74231874.27031302</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>2945163104.81257</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>39.67518177013626</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>47547.50848700004</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>80822102.75110553</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>3051482248.813363</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>37.75554142918687</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>10271.8</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>40858386.95223302</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>1571454382.547147</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>38.46099906940313</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>54305.51607579708</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>51590240.2720072</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>1921263206.884742</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>37.24082688421238</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>20779.02</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>35977672.58291067</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>1539119723.887031</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>42.77985798942731</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>3652.9</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4644.4034</v>
+      </c>
+      <c r="D32" t="n">
+        <v>25203787.65212668</v>
+      </c>
+      <c r="E32" t="n">
+        <v>986916563.4257262</v>
+      </c>
+      <c r="F32" t="n">
+        <v>39.15747018057623</v>
+      </c>
+      <c r="G32" t="n">
+        <v>24845.77</v>
+      </c>
+      <c r="H32" t="n">
+        <v>57762.30802277762</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3319791.42931754</v>
+      </c>
+      <c r="J32" t="n">
+        <v>57.47331682121212</v>
+      </c>
+      <c r="K32" t="n">
+        <v>31358.329</v>
+      </c>
+      <c r="L32" t="n">
+        <v>215118757.5888806</v>
+      </c>
+      <c r="M32" t="n">
+        <v>8672233098.248011</v>
+      </c>
+      <c r="N32" t="n">
+        <v>40.31370018797595</v>
+      </c>
+      <c r="O32" t="n">
+        <v>8194.3025</v>
+      </c>
+      <c r="P32" t="n">
+        <v>985746.1707156644</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>53661172.65780276</v>
+      </c>
+      <c r="R32" t="n">
+        <v>54.43710992947004</v>
+      </c>
+      <c r="S32" t="n">
+        <v>8858.749999999998</v>
+      </c>
+      <c r="T32" t="n">
+        <v>18624635.99999999</v>
+      </c>
+      <c r="U32" t="n">
+        <v>728712950.5460808</v>
+      </c>
+      <c r="V32" t="n">
+        <v>39.1262922156482</v>
+      </c>
+      <c r="W32" t="n">
+        <v>8599</v>
+      </c>
+      <c r="X32" t="n">
+        <v>74140207.28901775</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>2939735935.302969</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>39.65103474614141</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>48447.50848700004</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>82349290.00868553</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>3100410196.723855</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>37.64950731690399</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>10271.8</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>40825235.17961561</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>1568154249.468453</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>38.41139536782009</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>55055.51607579708</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>52302740.2720072</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>1941054416.67975</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>37.11190669140937</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>20779.02</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>35391836.63092816</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>1514476406.373905</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>42.7916873082093</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>3652.9</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C33" t="n">
+        <v>4644.4034</v>
+      </c>
+      <c r="D33" t="n">
+        <v>25202415.9600338</v>
+      </c>
+      <c r="E33" t="n">
+        <v>983587194.896328</v>
+      </c>
+      <c r="F33" t="n">
+        <v>39.02749627083803</v>
+      </c>
+      <c r="G33" t="n">
+        <v>24845.77</v>
+      </c>
+      <c r="H33" t="n">
+        <v>23563.40232420609</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1354266.887164783</v>
+      </c>
+      <c r="J33" t="n">
+        <v>57.47331682121213</v>
+      </c>
+      <c r="K33" t="n">
+        <v>32258.329</v>
+      </c>
+      <c r="L33" t="n">
+        <v>217891164.597305</v>
+      </c>
+      <c r="M33" t="n">
+        <v>8757171833.58441</v>
+      </c>
+      <c r="N33" t="n">
+        <v>40.19057794183144</v>
+      </c>
+      <c r="O33" t="n">
+        <v>8894.3025</v>
+      </c>
+      <c r="P33" t="n">
+        <v>794467.0332978114</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>42950752.70328476</v>
+      </c>
+      <c r="R33" t="n">
+        <v>54.06234733868985</v>
+      </c>
+      <c r="S33" t="n">
+        <v>8858.749999999998</v>
+      </c>
+      <c r="T33" t="n">
+        <v>18624635.99999999</v>
+      </c>
+      <c r="U33" t="n">
+        <v>726255467.4553635</v>
+      </c>
+      <c r="V33" t="n">
+        <v>38.9943442360626</v>
+      </c>
+      <c r="W33" t="n">
+        <v>8599</v>
+      </c>
+      <c r="X33" t="n">
+        <v>74109738.4371037</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>2929569081.288454</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>39.53015005949258</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>48447.50848700004</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>82347588.96571407</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>3092917988.74371</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>37.55930231341036</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>10271.8</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>40810404.51395587</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>1564296234.927088</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>38.33081915157564</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>55805.51607579708</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>53015240.2720072</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>1960468641.369481</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>36.9793408708672</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>20779.02</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>32180779.91825838</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>1372361893.11377</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>42.64538947159371</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>3652.9</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C34" t="n">
+        <v>5344.4034</v>
+      </c>
+      <c r="D34" t="n">
+        <v>28991679.62190349</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1284164007.637204</v>
+      </c>
+      <c r="F34" t="n">
+        <v>44.2942259429152</v>
+      </c>
+      <c r="G34" t="n">
+        <v>24845.77</v>
+      </c>
+      <c r="H34" t="n">
+        <v>9155751.309830276</v>
+      </c>
+      <c r="I34" t="n">
+        <v>599320736.9552263</v>
+      </c>
+      <c r="J34" t="n">
+        <v>65.45838966942584</v>
+      </c>
+      <c r="K34" t="n">
+        <v>32258.329</v>
+      </c>
+      <c r="L34" t="n">
+        <v>211992167.4248869</v>
+      </c>
+      <c r="M34" t="n">
+        <v>10062337268.54038</v>
+      </c>
+      <c r="N34" t="n">
+        <v>47.4656087098391</v>
+      </c>
+      <c r="O34" t="n">
+        <v>8894.3025</v>
+      </c>
+      <c r="P34" t="n">
+        <v>20915695.63913273</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1197304884.4491</v>
+      </c>
+      <c r="R34" t="n">
+        <v>57.24432527163827</v>
+      </c>
+      <c r="S34" t="n">
+        <v>8858.749999999998</v>
+      </c>
+      <c r="T34" t="n">
+        <v>18624635.99999999</v>
+      </c>
+      <c r="U34" t="n">
+        <v>824008992.0604498</v>
+      </c>
+      <c r="V34" t="n">
+        <v>44.24295820119386</v>
+      </c>
+      <c r="W34" t="n">
+        <v>8599</v>
+      </c>
+      <c r="X34" t="n">
+        <v>73816934.96640722</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>3323499974.204066</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>45.02354338765938</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>49347.50848700004</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>83873559.70443331</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>3373905999.834194</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>40.22609761316544</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>11071.8</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>43901654.63468529</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>1838941187.942113</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>41.88774211915978</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>56555.51607579708</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>53727740.2720072</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>2113941590.076972</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>39.34544016507542</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C35" t="n">
+        <v>5344.4034</v>
+      </c>
+      <c r="D35" t="n">
+        <v>28991679.62190349</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1284164007.637204</v>
+      </c>
+      <c r="F35" t="n">
+        <v>44.2942259429152</v>
+      </c>
+      <c r="G35" t="n">
+        <v>24845.77</v>
+      </c>
+      <c r="H35" t="n">
+        <v>9155751.309830276</v>
+      </c>
+      <c r="I35" t="n">
+        <v>599320736.9552263</v>
+      </c>
+      <c r="J35" t="n">
+        <v>65.45838966942584</v>
+      </c>
+      <c r="K35" t="n">
+        <v>32258.329</v>
+      </c>
+      <c r="L35" t="n">
+        <v>211992167.4248869</v>
+      </c>
+      <c r="M35" t="n">
+        <v>10062337268.54038</v>
+      </c>
+      <c r="N35" t="n">
+        <v>47.4656087098391</v>
+      </c>
+      <c r="O35" t="n">
+        <v>8894.3025</v>
+      </c>
+      <c r="P35" t="n">
+        <v>20915695.63913273</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1197304884.4491</v>
+      </c>
+      <c r="R35" t="n">
+        <v>57.24432527163827</v>
+      </c>
+      <c r="S35" t="n">
+        <v>8858.749999999998</v>
+      </c>
+      <c r="T35" t="n">
+        <v>18624635.99999999</v>
+      </c>
+      <c r="U35" t="n">
+        <v>824008992.0604498</v>
+      </c>
+      <c r="V35" t="n">
+        <v>44.24295820119386</v>
+      </c>
+      <c r="W35" t="n">
+        <v>8599</v>
+      </c>
+      <c r="X35" t="n">
+        <v>73816934.96640722</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>3323499974.204066</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>45.02354338765938</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>49347.50848700004</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>83873559.70443331</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>3373905999.834194</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>40.22609761316544</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>11071.8</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>43901654.63468529</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>1838941187.942113</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>41.88774211915978</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>56555.51607579708</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>53727740.2720072</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>2113941590.076972</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>39.34544016507542</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6880,7 +8182,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7000,7 +8302,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -7014,25 +8316,25 @@
         <v>4644.4034</v>
       </c>
       <c r="K2" t="n">
-        <v>739738774.2313583</v>
+        <v>557144353.0162097</v>
       </c>
       <c r="L2" t="n">
         <v>1.9</v>
       </c>
       <c r="M2" t="n">
-        <v>47885454.07397433</v>
+        <v>47870961.67393735</v>
       </c>
       <c r="N2" t="n">
-        <v>25202870.56524965</v>
+        <v>25195242.98628281</v>
       </c>
       <c r="O2" t="n">
-        <v>1121887407.742675</v>
+        <v>1115968193.621897</v>
       </c>
       <c r="P2" t="n">
-        <v>334263179.4373424</v>
+        <v>510952878.9317502</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.51427089775883</v>
+        <v>44.29281329929901</v>
       </c>
     </row>
     <row r="3">
@@ -7065,7 +8367,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -7079,25 +8381,25 @@
         <v>31358.329</v>
       </c>
       <c r="K3" t="n">
-        <v>1259762099.108875</v>
+        <v>3874635468.548343</v>
       </c>
       <c r="L3" t="n">
         <v>4.2</v>
       </c>
       <c r="M3" t="n">
-        <v>8106049022.341767</v>
+        <v>7907703881.79737</v>
       </c>
       <c r="N3" t="n">
-        <v>209510134.2628863</v>
+        <v>204383676.6123943</v>
       </c>
       <c r="O3" t="n">
-        <v>9944653107.660641</v>
+        <v>9716060307.770746</v>
       </c>
       <c r="P3" t="n">
-        <v>578841986.2099986</v>
+        <v>-2066279042.574967</v>
       </c>
       <c r="Q3" t="n">
-        <v>47.4662151434757</v>
+        <v>47.53833803565868</v>
       </c>
     </row>
     <row r="4">
@@ -7126,7 +8428,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -7140,25 +8442,25 @@
         <v>47547.50848700004</v>
       </c>
       <c r="K4" t="n">
-        <v>753164612.9842536</v>
+        <v>610584509.185412</v>
       </c>
       <c r="L4" t="n">
         <v>1.35</v>
       </c>
       <c r="M4" t="n">
-        <v>109104752.1445664</v>
+        <v>109102240.3790212</v>
       </c>
       <c r="N4" t="n">
-        <v>80818334.92190105</v>
+        <v>80816474.35483049</v>
       </c>
       <c r="O4" t="n">
-        <v>3298488584.124525</v>
+        <v>3250842472.98386</v>
       </c>
       <c r="P4" t="n">
-        <v>2436219218.995705</v>
+        <v>2531155723.419427</v>
       </c>
       <c r="Q4" t="n">
-        <v>40.8136171985234</v>
+        <v>40.22499742701971</v>
       </c>
     </row>
     <row r="5">
@@ -7191,11 +8493,11 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>TobeDecommissioned</t>
+          <t>Operational</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -7205,25 +8507,25 @@
         <v>24845.77</v>
       </c>
       <c r="K5" t="n">
-        <v>2276047595.752916</v>
+        <v>1584722330.103322</v>
       </c>
       <c r="L5" t="n">
         <v>3.5</v>
       </c>
       <c r="M5" t="n">
-        <v>617224858.0117896</v>
+        <v>526211395.7661033</v>
       </c>
       <c r="N5" t="n">
-        <v>10739328.99908755</v>
+        <v>9155751.309830276</v>
       </c>
       <c r="O5" t="n">
-        <v>620677644.7277727</v>
+        <v>599320736.9552263</v>
       </c>
       <c r="P5" t="n">
-        <v>-2272594809.036933</v>
+        <v>-1511612988.914199</v>
       </c>
       <c r="Q5" t="n">
-        <v>57.79482542908479</v>
+        <v>65.45838966942584</v>
       </c>
     </row>
     <row r="6">
@@ -7232,7 +8534,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>20212100109</t>
+          <t>20212100241</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -7252,7 +8554,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -7266,7 +8568,7 @@
         <v>150</v>
       </c>
       <c r="K6" t="n">
-        <v>1165947.195416373</v>
+        <v>1090765.7635875</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -7278,13 +8580,13 @@
         <v>142499.9999999999</v>
       </c>
       <c r="O6" t="n">
-        <v>5695729.548764098</v>
+        <v>5606725.223523242</v>
       </c>
       <c r="P6" t="n">
-        <v>4529782.353347724</v>
+        <v>4515959.459935742</v>
       </c>
       <c r="Q6" t="n">
-        <v>39.97003192115158</v>
+        <v>39.3454401650754</v>
       </c>
     </row>
     <row r="7">
@@ -7293,7 +8595,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>20212100122</t>
+          <t>20212100262</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -7313,7 +8615,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -7327,7 +8629,7 @@
         <v>150</v>
       </c>
       <c r="K7" t="n">
-        <v>1165947.195416373</v>
+        <v>1090765.7635875</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -7339,13 +8641,13 @@
         <v>142499.9999999999</v>
       </c>
       <c r="O7" t="n">
-        <v>5695729.548764098</v>
+        <v>5606725.223523242</v>
       </c>
       <c r="P7" t="n">
-        <v>4529782.353347724</v>
+        <v>4515959.459935742</v>
       </c>
       <c r="Q7" t="n">
-        <v>39.97003192115158</v>
+        <v>39.3454401650754</v>
       </c>
     </row>
     <row r="8">
@@ -7354,7 +8656,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>20222100136</t>
+          <t>20212100284</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -7374,7 +8676,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -7388,7 +8690,7 @@
         <v>150</v>
       </c>
       <c r="K8" t="n">
-        <v>1154403.163778588</v>
+        <v>1090765.7635875</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -7400,13 +8702,13 @@
         <v>142499.9999999999</v>
       </c>
       <c r="O8" t="n">
-        <v>5695729.548764098</v>
+        <v>5606725.223523242</v>
       </c>
       <c r="P8" t="n">
-        <v>4541326.38498551</v>
+        <v>4515959.459935742</v>
       </c>
       <c r="Q8" t="n">
-        <v>39.97003192115158</v>
+        <v>39.3454401650754</v>
       </c>
     </row>
     <row r="9">
@@ -7415,7 +8717,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>20222100151</t>
+          <t>20212100307</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -7435,7 +8737,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -7449,7 +8751,7 @@
         <v>150</v>
       </c>
       <c r="K9" t="n">
-        <v>1154403.163778588</v>
+        <v>1090765.7635875</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -7461,13 +8763,13 @@
         <v>142499.9999999999</v>
       </c>
       <c r="O9" t="n">
-        <v>5695729.548764098</v>
+        <v>5606725.223523242</v>
       </c>
       <c r="P9" t="n">
-        <v>4541326.38498551</v>
+        <v>4515959.459935742</v>
       </c>
       <c r="Q9" t="n">
-        <v>39.97003192115158</v>
+        <v>39.3454401650754</v>
       </c>
     </row>
     <row r="10">
@@ -7476,7 +8778,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>20222100167</t>
+          <t>20212100331</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -7496,7 +8798,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -7510,7 +8812,7 @@
         <v>150</v>
       </c>
       <c r="K10" t="n">
-        <v>1154403.163778588</v>
+        <v>1090765.7635875</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -7522,13 +8824,13 @@
         <v>142499.9999999999</v>
       </c>
       <c r="O10" t="n">
-        <v>5695729.548764098</v>
+        <v>5606725.223523242</v>
       </c>
       <c r="P10" t="n">
-        <v>4541326.38498551</v>
+        <v>4515959.459935742</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.97003192115158</v>
+        <v>39.3454401650754</v>
       </c>
     </row>
     <row r="11">
@@ -7537,7 +8839,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>20222400086</t>
+          <t>20222100331</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -7547,7 +8849,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>WTG_onshore</t>
+          <t>PV_utility_systems</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -7557,7 +8859,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -7568,28 +8870,28 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K11" t="n">
-        <v>4012546.169271781</v>
+        <v>1089676.0875</v>
       </c>
       <c r="L11" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>688499.9999999987</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>509999.9999999991</v>
+        <v>142499.9999999999</v>
       </c>
       <c r="O11" t="n">
-        <v>20811849.88815639</v>
+        <v>5606725.223523242</v>
       </c>
       <c r="P11" t="n">
-        <v>16110803.71888461</v>
+        <v>4517049.136023243</v>
       </c>
       <c r="Q11" t="n">
-        <v>40.80754880030671</v>
+        <v>39.3454401650754</v>
       </c>
     </row>
     <row r="12">
@@ -7598,7 +8900,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>20222400097</t>
+          <t>20222100332</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -7608,7 +8910,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>WTG_onshore</t>
+          <t>PV_utility_systems</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -7618,7 +8920,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -7629,28 +8931,28 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K12" t="n">
-        <v>4012546.169271781</v>
+        <v>1089676.0875</v>
       </c>
       <c r="L12" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>688499.9999999987</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>509999.9999999991</v>
+        <v>142499.9999999999</v>
       </c>
       <c r="O12" t="n">
-        <v>20811849.88815639</v>
+        <v>5606725.223523242</v>
       </c>
       <c r="P12" t="n">
-        <v>16110803.71888461</v>
+        <v>4517049.136023243</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.80754880030671</v>
+        <v>39.3454401650754</v>
       </c>
     </row>
     <row r="13">
@@ -7659,7 +8961,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>20230300031</t>
+          <t>20222100334</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -7669,21 +8971,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CCGT</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>natural_gas</t>
-        </is>
-      </c>
+          <t>PV_utility_systems</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -7691,31 +8989,31 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0.61</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K13" t="n">
-        <v>8765423.817834001</v>
+        <v>1089676.0875</v>
       </c>
       <c r="L13" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>98642924.57841197</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>2549539.524809884</v>
+        <v>142499.9999999999</v>
       </c>
       <c r="O13" t="n">
-        <v>116232548.8723487</v>
+        <v>5606725.223523242</v>
       </c>
       <c r="P13" t="n">
-        <v>8824200.476102758</v>
+        <v>4517049.136023243</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.58962422087418</v>
+        <v>39.3454401650754</v>
       </c>
     </row>
     <row r="14">
@@ -7724,7 +9022,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>20230300032</t>
+          <t>20222100359</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -7734,21 +9032,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CCGT</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>natural_gas</t>
-        </is>
-      </c>
+          <t>PV_utility_systems</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -7756,31 +9050,31 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0.61</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K14" t="n">
-        <v>8765423.817834001</v>
+        <v>1089676.0875</v>
       </c>
       <c r="L14" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>98542363.24685246</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>2546940.401856319</v>
+        <v>142499.9999999999</v>
       </c>
       <c r="O14" t="n">
-        <v>116131987.5407892</v>
+        <v>5606725.223523242</v>
       </c>
       <c r="P14" t="n">
-        <v>8824200.476102743</v>
+        <v>4517049.136023243</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.59666471039026</v>
+        <v>39.3454401650754</v>
       </c>
     </row>
     <row r="15">
@@ -7789,7 +9083,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>20231700034</t>
+          <t>20222100367</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -7799,21 +9093,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>OCGT</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>natural_gas</t>
-        </is>
-      </c>
+          <t>PV_utility_systems</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -7821,31 +9111,31 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0.43</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K15" t="n">
-        <v>814007.2838024501</v>
+        <v>1089676.0875</v>
       </c>
       <c r="L15" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>18680359.06685985</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>349633.7425793277</v>
+        <v>142499.9999999999</v>
       </c>
       <c r="O15" t="n">
-        <v>19370571.96162779</v>
+        <v>5606725.223523242</v>
       </c>
       <c r="P15" t="n">
-        <v>-123794.38903451</v>
+        <v>4517049.136023243</v>
       </c>
       <c r="Q15" t="n">
-        <v>55.40246721820003</v>
+        <v>39.3454401650754</v>
       </c>
     </row>
     <row r="16">
@@ -7854,7 +9144,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>20231700037</t>
+          <t>20222400184</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -7864,21 +9154,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>OCGT</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>natural_gas</t>
-        </is>
-      </c>
+          <t>WTG_onshore</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -7886,31 +9172,31 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0.43</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K16" t="n">
-        <v>814007.2838024501</v>
+        <v>3787563.779999998</v>
       </c>
       <c r="L16" t="n">
-        <v>4.5</v>
+        <v>1.35</v>
       </c>
       <c r="M16" t="n">
-        <v>18537830.47280242</v>
+        <v>687516.3054909463</v>
       </c>
       <c r="N16" t="n">
-        <v>346966.0847689768</v>
+        <v>509271.3374007009</v>
       </c>
       <c r="O16" t="n">
-        <v>19228043.36757036</v>
+        <v>20510259.91021938</v>
       </c>
       <c r="P16" t="n">
-        <v>-123794.38903451</v>
+        <v>16035179.82472844</v>
       </c>
       <c r="Q16" t="n">
-        <v>55.41764515795001</v>
+        <v>40.27373701198829</v>
       </c>
     </row>
     <row r="17">
@@ -7919,7 +9205,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>20231700041</t>
+          <t>20222400202</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -7929,21 +9215,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>OCGT</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>natural_gas</t>
-        </is>
-      </c>
+          <t>WTG_onshore</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -7951,31 +9233,31 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0.43</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K17" t="n">
-        <v>814007.2838024501</v>
+        <v>3787563.779999998</v>
       </c>
       <c r="L17" t="n">
-        <v>4.5</v>
+        <v>1.35</v>
       </c>
       <c r="M17" t="n">
-        <v>18406682.2442195</v>
+        <v>687516.3054909463</v>
       </c>
       <c r="N17" t="n">
-        <v>344511.429276115</v>
+        <v>509271.3374007009</v>
       </c>
       <c r="O17" t="n">
-        <v>19096895.13898744</v>
+        <v>20510259.91021938</v>
       </c>
       <c r="P17" t="n">
-        <v>-123794.3890345063</v>
+        <v>16035179.82472844</v>
       </c>
       <c r="Q17" t="n">
-        <v>55.43181884883675</v>
+        <v>40.27373701198829</v>
       </c>
     </row>
     <row r="18">
@@ -7984,7 +9266,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>20231700046</t>
+          <t>20222400221</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -7994,21 +9276,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>OCGT</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>natural_gas</t>
-        </is>
-      </c>
+          <t>WTG_onshore</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -8016,31 +9294,31 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0.43</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K18" t="n">
-        <v>814007.2838024501</v>
+        <v>3787563.779999998</v>
       </c>
       <c r="L18" t="n">
-        <v>4.5</v>
+        <v>1.35</v>
       </c>
       <c r="M18" t="n">
-        <v>18275507.0854902</v>
+        <v>688499.9999999987</v>
       </c>
       <c r="N18" t="n">
-        <v>342056.2697411292</v>
+        <v>509999.9999999991</v>
       </c>
       <c r="O18" t="n">
-        <v>18965719.98025814</v>
+        <v>20511243.60472844</v>
       </c>
       <c r="P18" t="n">
-        <v>-123794.3890345175</v>
+        <v>16035179.82472844</v>
       </c>
       <c r="Q18" t="n">
-        <v>55.44619893858849</v>
+        <v>40.21812471515388</v>
       </c>
     </row>
     <row r="19">
@@ -8049,7 +9327,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>20232100170</t>
+          <t>20230300031</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -8059,17 +9337,21 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>PV_utility_systems</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>CCGT</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>natural_gas</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -8077,31 +9359,31 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0.61</v>
       </c>
       <c r="J19" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K19" t="n">
-        <v>1142973.42948375</v>
+        <v>8348339.999999999</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>98264042.751533</v>
       </c>
       <c r="N19" t="n">
-        <v>142499.9999999999</v>
+        <v>2539746.889433464</v>
       </c>
       <c r="O19" t="n">
-        <v>5695729.548764098</v>
+        <v>115564292.6402312</v>
       </c>
       <c r="P19" t="n">
-        <v>4552756.119280348</v>
+        <v>8951909.88869822</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.97003192115158</v>
+        <v>45.50228730312961</v>
       </c>
     </row>
     <row r="20">
@@ -8110,7 +9392,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>20232100182</t>
+          <t>20230300032</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -8120,17 +9402,21 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>PV_utility_systems</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>CCGT</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>natural_gas</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -8138,31 +9424,31 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0.61</v>
       </c>
       <c r="J20" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K20" t="n">
-        <v>1142973.42948375</v>
+        <v>8348339.999999999</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>98139303.95778675</v>
       </c>
       <c r="N20" t="n">
-        <v>142499.9999999999</v>
+        <v>2536522.872239201</v>
       </c>
       <c r="O20" t="n">
-        <v>5695729.548764098</v>
+        <v>115439553.846485</v>
       </c>
       <c r="P20" t="n">
-        <v>4552756.119280348</v>
+        <v>8951909.888698205</v>
       </c>
       <c r="Q20" t="n">
-        <v>39.97003192115158</v>
+        <v>45.51094536142574</v>
       </c>
     </row>
     <row r="21">
@@ -8171,7 +9457,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>20232100188</t>
+          <t>20230300034</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -8181,17 +9467,21 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>PV_utility_systems</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>CCGT</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>natural_gas</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -8199,31 +9489,31 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0.61</v>
       </c>
       <c r="J21" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K21" t="n">
-        <v>1142973.42948375</v>
+        <v>8348339.999999999</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>97972864.39421996</v>
       </c>
       <c r="N21" t="n">
-        <v>142499.9999999999</v>
+        <v>2532221.050819983</v>
       </c>
       <c r="O21" t="n">
-        <v>5695729.548764098</v>
+        <v>115273114.2829182</v>
       </c>
       <c r="P21" t="n">
-        <v>4552756.119280348</v>
+        <v>8951909.88869819</v>
       </c>
       <c r="Q21" t="n">
-        <v>39.97003192115158</v>
+        <v>45.52253218398546</v>
       </c>
     </row>
     <row r="22">
@@ -8232,7 +9522,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>20240100052</t>
+          <t>20231700037</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -8242,12 +9532,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Biomass_CHP_wood_pellets_DH</t>
+          <t>OCGT</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>wood_pellets</t>
+          <t>natural_gas</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -8256,7 +9546,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -8264,31 +9554,31 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0.309</v>
+        <v>0.43</v>
       </c>
       <c r="J22" t="n">
         <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>12175066.917</v>
+        <v>775274.4999999999</v>
       </c>
       <c r="L22" t="n">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1030609.123551547</v>
+        <v>17599820.89456689</v>
       </c>
       <c r="N22" t="n">
-        <v>542425.8545008145</v>
+        <v>329409.6877939546</v>
       </c>
       <c r="O22" t="n">
-        <v>24155257.46199475</v>
+        <v>18497175.94253493</v>
       </c>
       <c r="P22" t="n">
-        <v>10949581.4214432</v>
+        <v>122080.5479680413</v>
       </c>
       <c r="Q22" t="n">
-        <v>44.53190654826813</v>
+        <v>56.15249529062088</v>
       </c>
     </row>
     <row r="23">
@@ -8297,7 +9587,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>20240100059</t>
+          <t>20231700041</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -8307,12 +9597,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Biomass_CHP_wood_pellets_DH</t>
+          <t>OCGT</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>wood_pellets</t>
+          <t>natural_gas</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -8321,7 +9611,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -8329,31 +9619,31 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0.309</v>
+        <v>0.43</v>
       </c>
       <c r="J23" t="n">
         <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>12175066.917</v>
+        <v>775274.4999999999</v>
       </c>
       <c r="L23" t="n">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1030514.4</v>
+        <v>17478200.51888176</v>
       </c>
       <c r="N23" t="n">
-        <v>542376</v>
+        <v>327133.3617890582</v>
       </c>
       <c r="O23" t="n">
-        <v>24155162.73844321</v>
+        <v>18375555.56684981</v>
       </c>
       <c r="P23" t="n">
-        <v>10949581.42144321</v>
+        <v>122080.5479680487</v>
       </c>
       <c r="Q23" t="n">
-        <v>44.53582521800966</v>
+        <v>56.17145089194148</v>
       </c>
     </row>
     <row r="24">
@@ -8362,7 +9652,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>20240100067</t>
+          <t>20231700046</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -8372,12 +9662,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Biomass_CHP_wood_pellets_DH</t>
+          <t>OCGT</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>wood_pellets</t>
+          <t>natural_gas</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -8386,7 +9676,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -8394,31 +9684,31 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0.309</v>
+        <v>0.43</v>
       </c>
       <c r="J24" t="n">
         <v>100</v>
       </c>
       <c r="K24" t="n">
-        <v>12175066.917</v>
+        <v>775274.4999999999</v>
       </c>
       <c r="L24" t="n">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="M24" t="n">
-        <v>1030712.10364841</v>
+        <v>17386121.84630129</v>
       </c>
       <c r="N24" t="n">
-        <v>542480.0545517951</v>
+        <v>325409.9575016556</v>
       </c>
       <c r="O24" t="n">
-        <v>24155360.44209162</v>
+        <v>18283476.89426933</v>
       </c>
       <c r="P24" t="n">
-        <v>10949581.42144321</v>
+        <v>122080.5479680413</v>
       </c>
       <c r="Q24" t="n">
-        <v>44.52764712621394</v>
+        <v>56.1859785565299</v>
       </c>
     </row>
     <row r="25">
@@ -8427,7 +9717,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>20240100076</t>
+          <t>20231700052</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -8437,12 +9727,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Biomass_CHP_wood_pellets_DH</t>
+          <t>OCGT</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>wood_pellets</t>
+          <t>natural_gas</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -8451,7 +9741,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -8459,31 +9749,31 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0.309</v>
+        <v>0.43</v>
       </c>
       <c r="J25" t="n">
         <v>100</v>
       </c>
       <c r="K25" t="n">
-        <v>12175066.917</v>
+        <v>775274.4999999999</v>
       </c>
       <c r="L25" t="n">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1030632.2</v>
+        <v>17259757.52597982</v>
       </c>
       <c r="N25" t="n">
-        <v>542438</v>
+        <v>323044.8407453686</v>
       </c>
       <c r="O25" t="n">
-        <v>24155280.5384432</v>
+        <v>18157112.57394787</v>
       </c>
       <c r="P25" t="n">
-        <v>10949581.4214432</v>
+        <v>122080.547968045</v>
       </c>
       <c r="Q25" t="n">
-        <v>44.53095199533072</v>
+        <v>56.20616794886293</v>
       </c>
     </row>
     <row r="26">
@@ -8492,7 +9782,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>20242100195</t>
+          <t>20231700059</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -8502,17 +9792,21 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>PV_utility_systems</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
+          <t>OCGT</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>natural_gas</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -8520,31 +9814,31 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0.43</v>
       </c>
       <c r="J26" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>1131656.860875</v>
+        <v>775274.4999999999</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>17130363.48718049</v>
       </c>
       <c r="N26" t="n">
-        <v>142499.9999999999</v>
+        <v>320623.0178087247</v>
       </c>
       <c r="O26" t="n">
-        <v>5695729.548764098</v>
+        <v>18027718.53514853</v>
       </c>
       <c r="P26" t="n">
-        <v>4564072.687889097</v>
+        <v>122080.547968045</v>
       </c>
       <c r="Q26" t="n">
-        <v>39.97003192115158</v>
+        <v>56.22715006039709</v>
       </c>
     </row>
     <row r="27">
@@ -8553,7 +9847,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>20242100203</t>
+          <t>20231700067</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -8563,17 +9857,21 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>PV_utility_systems</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
+          <t>OCGT</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>natural_gas</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -8581,31 +9879,31 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0.43</v>
       </c>
       <c r="J27" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K27" t="n">
-        <v>1131656.860875</v>
+        <v>775274.4999999999</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>17013232.82556729</v>
       </c>
       <c r="N27" t="n">
-        <v>142499.9999999999</v>
+        <v>318430.7242107248</v>
       </c>
       <c r="O27" t="n">
-        <v>5695729.548764098</v>
+        <v>17910587.87353533</v>
       </c>
       <c r="P27" t="n">
-        <v>4564072.687889097</v>
+        <v>122080.547968045</v>
       </c>
       <c r="Q27" t="n">
-        <v>39.97003192115158</v>
+        <v>56.24641880248596</v>
       </c>
     </row>
     <row r="28">
@@ -8614,7 +9912,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>20242100212</t>
+          <t>20231700076</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -8624,17 +9922,21 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>PV_utility_systems</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
+          <t>OCGT</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>natural_gas</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -8642,31 +9944,31 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0.43</v>
       </c>
       <c r="J28" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K28" t="n">
-        <v>1131656.860875</v>
+        <v>775274.4999999999</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>16899430.23660897</v>
       </c>
       <c r="N28" t="n">
-        <v>142499.9999999999</v>
+        <v>316300.7209837899</v>
       </c>
       <c r="O28" t="n">
-        <v>5695729.548764098</v>
+        <v>17796785.28457702</v>
       </c>
       <c r="P28" t="n">
-        <v>4564072.687889097</v>
+        <v>122080.5479680487</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.97003192115158</v>
+        <v>56.26539588409312</v>
       </c>
     </row>
     <row r="29">
@@ -8675,7 +9977,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>20242400167</t>
+          <t>20232100373</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -8685,7 +9987,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>WTG_onshore</t>
+          <t>PV_utility_systems</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -8695,7 +9997,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -8706,28 +10008,28 @@
         <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K29" t="n">
-        <v>3933483.1578</v>
+        <v>1088587.5</v>
       </c>
       <c r="L29" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>688499.9999999987</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>509999.9999999991</v>
+        <v>142499.9999999999</v>
       </c>
       <c r="O29" t="n">
-        <v>20811849.88815639</v>
+        <v>5606725.223523242</v>
       </c>
       <c r="P29" t="n">
-        <v>16189866.73035639</v>
+        <v>4518137.723523242</v>
       </c>
       <c r="Q29" t="n">
-        <v>40.80754880030671</v>
+        <v>39.3454401650754</v>
       </c>
     </row>
     <row r="30">
@@ -8736,7 +10038,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>20242400168</t>
+          <t>20232100377</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -8746,7 +10048,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>WTG_onshore</t>
+          <t>PV_utility_systems</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -8756,7 +10058,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -8767,28 +10069,28 @@
         <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K30" t="n">
-        <v>3933483.1578</v>
+        <v>1088587.5</v>
       </c>
       <c r="L30" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>688499.9999999987</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>509999.9999999991</v>
+        <v>142499.9999999999</v>
       </c>
       <c r="O30" t="n">
-        <v>20811849.88815639</v>
+        <v>5606725.223523242</v>
       </c>
       <c r="P30" t="n">
-        <v>16189866.73035639</v>
+        <v>4518137.723523242</v>
       </c>
       <c r="Q30" t="n">
-        <v>40.80754880030671</v>
+        <v>39.3454401650754</v>
       </c>
     </row>
     <row r="31">
@@ -8797,7 +10099,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>20252300173</t>
+          <t>20232100382</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -8807,7 +10109,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>WTG_offshore</t>
+          <t>PV_utility_systems</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -8817,7 +10119,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -8828,28 +10130,28 @@
         <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K31" t="n">
-        <v>7429088.390600001</v>
+        <v>1088587.5</v>
       </c>
       <c r="L31" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>2154789.208631992</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>798070.0772711082</v>
+        <v>142499.9999999999</v>
       </c>
       <c r="O31" t="n">
-        <v>33707591.59564652</v>
+        <v>5606725.223523242</v>
       </c>
       <c r="P31" t="n">
-        <v>24123713.99641452</v>
+        <v>4518137.723523242</v>
       </c>
       <c r="Q31" t="n">
-        <v>42.2363806833919</v>
+        <v>39.3454401650754</v>
       </c>
     </row>
     <row r="32">
@@ -8858,7 +10160,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>20252300177</t>
+          <t>20232100388</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -8868,7 +10170,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>WTG_offshore</t>
+          <t>PV_utility_systems</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -8878,7 +10180,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -8889,28 +10191,28 @@
         <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K32" t="n">
-        <v>7429088.390600001</v>
+        <v>1088587.5</v>
       </c>
       <c r="L32" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>2131011.753069582</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>789263.6122479931</v>
+        <v>142499.9999999999</v>
       </c>
       <c r="O32" t="n">
-        <v>33683814.14008293</v>
+        <v>5606725.223523242</v>
       </c>
       <c r="P32" t="n">
-        <v>24123713.99641334</v>
+        <v>4518137.723523242</v>
       </c>
       <c r="Q32" t="n">
-        <v>42.67752068810591</v>
+        <v>39.3454401650754</v>
       </c>
     </row>
     <row r="33">
@@ -8919,7 +10221,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>20260300212</t>
+          <t>20232100395</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -8929,53 +10231,49 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>CCGT</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>natural_gas</t>
-        </is>
-      </c>
+          <t>PV_utility_systems</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>InPipeline</t>
+          <t>Operational</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0.61</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K33" t="n">
-        <v>8175669.05205372</v>
+        <v>1088587.5</v>
       </c>
       <c r="L33" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>142499.9999999999</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>5606725.223523242</v>
       </c>
       <c r="P33" t="n">
-        <v>-8175669.05205372</v>
+        <v>4518137.723523242</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>39.3454401650754</v>
       </c>
     </row>
     <row r="34">
@@ -8984,7 +10282,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>20260300213</t>
+          <t>20240100086</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -8994,12 +10292,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>CCGT</t>
+          <t>Biomass_CHP_wood_pellets_DH</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>natural_gas</t>
+          <t>wood_pellets</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -9008,39 +10306,39 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>InPipeline</t>
+          <t>Operational</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0.61</v>
+        <v>0.309</v>
       </c>
       <c r="J34" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K34" t="n">
-        <v>8175669.05205372</v>
+        <v>11700000</v>
       </c>
       <c r="L34" t="n">
-        <v>4.2</v>
+        <v>1.9</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1029572</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>541880</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>24027084.05823244</v>
       </c>
       <c r="P34" t="n">
-        <v>-8175669.05205372</v>
+        <v>11297512.05823244</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>44.34023041675729</v>
       </c>
     </row>
     <row r="35">
@@ -9049,7 +10347,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>20240100097</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -9059,12 +10357,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Fuel oil PGT</t>
+          <t>Biomass_CHP_wood_pellets_DH</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>heavy_oil</t>
+          <t>wood_pellets</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -9073,39 +10371,39 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>TobeDecommissioned</t>
+          <t>Operational</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0.3539907794712127</v>
+        <v>0.309</v>
       </c>
       <c r="J35" t="n">
-        <v>3652.9</v>
+        <v>100</v>
       </c>
       <c r="K35" t="n">
-        <v>49015533.30614143</v>
+        <v>11700000</v>
       </c>
       <c r="L35" t="n">
-        <v>6</v>
+        <v>1.9</v>
       </c>
       <c r="M35" t="n">
-        <v>133441.7159918998</v>
+        <v>1029638.050023459</v>
       </c>
       <c r="N35" t="n">
-        <v>1051.072136440591</v>
+        <v>541914.7631702416</v>
       </c>
       <c r="O35" t="n">
-        <v>133441.7159918998</v>
+        <v>24027150.1082559</v>
       </c>
       <c r="P35" t="n">
-        <v>-49015533.30614143</v>
+        <v>11297512.05823244</v>
       </c>
       <c r="Q35" t="n">
-        <v>126.9577142857143</v>
+        <v>44.33750792780637</v>
       </c>
     </row>
     <row r="36">
@@ -9114,7 +10412,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>20240100109</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -9124,49 +10422,53 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Hydropower_reservoir_medium</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
+          <t>Biomass_CHP_wood_pellets_DH</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>wood_pellets</t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>TobeDecommissioned</t>
+          <t>Operational</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>0.7811457116585705</v>
+        <v>0.309</v>
       </c>
       <c r="J36" t="n">
-        <v>8858.749999999998</v>
+        <v>100</v>
       </c>
       <c r="K36" t="n">
-        <v>227501375.0721903</v>
+        <v>11700000</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1029572</v>
       </c>
       <c r="N36" t="n">
-        <v>18624635.99999999</v>
+        <v>541880</v>
       </c>
       <c r="O36" t="n">
-        <v>828368741.1790966</v>
+        <v>24027084.05823244</v>
       </c>
       <c r="P36" t="n">
-        <v>600867366.1069063</v>
+        <v>11297512.05823244</v>
       </c>
       <c r="Q36" t="n">
-        <v>44.47704326565615</v>
+        <v>44.34023041675729</v>
       </c>
     </row>
     <row r="37">
@@ -9175,7 +10477,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>20240100122</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -9185,12 +10487,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Nuclear</t>
+          <t>Biomass_CHP_wood_pellets_DH</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>nuclear</t>
+          <t>wood_pellets</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -9199,39 +10501,39 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>TobeDecommissioned</t>
+          <t>Operational</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0.33</v>
+        <v>0.309</v>
       </c>
       <c r="J37" t="n">
-        <v>8599</v>
+        <v>100</v>
       </c>
       <c r="K37" t="n">
-        <v>1481022124.871152</v>
+        <v>11700000</v>
       </c>
       <c r="L37" t="n">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="M37" t="n">
-        <v>707632071.3284714</v>
+        <v>1031137.357655841</v>
       </c>
       <c r="N37" t="n">
-        <v>74015398.90281951</v>
+        <v>542703.8724504426</v>
       </c>
       <c r="O37" t="n">
-        <v>3342208431.37881</v>
+        <v>24028649.41588828</v>
       </c>
       <c r="P37" t="n">
-        <v>1153554235.179187</v>
+        <v>11297512.05823244</v>
       </c>
       <c r="Q37" t="n">
-        <v>45.15558222913926</v>
+        <v>44.27580239549972</v>
       </c>
     </row>
     <row r="38">
@@ -9240,7 +10542,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>20240100136</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -9250,12 +10552,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>OCGT</t>
+          <t>Biomass_CHP_wood_pellets_DH</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>natural_gas</t>
+          <t>wood_pellets</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -9264,39 +10566,39 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>TobeDecommissioned</t>
+          <t>Operational</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0.3741421697393409</v>
+        <v>0.309</v>
       </c>
       <c r="J38" t="n">
-        <v>8194.3025</v>
+        <v>100</v>
       </c>
       <c r="K38" t="n">
-        <v>91711594.5357362</v>
+        <v>11700000</v>
       </c>
       <c r="L38" t="n">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
       <c r="M38" t="n">
-        <v>1099117246.101038</v>
+        <v>1031103.4</v>
       </c>
       <c r="N38" t="n">
-        <v>20571792.80721333</v>
+        <v>542686</v>
       </c>
       <c r="O38" t="n">
-        <v>1155675378.592329</v>
+        <v>24028615.45823244</v>
       </c>
       <c r="P38" t="n">
-        <v>-35153462.04444492</v>
+        <v>11297512.05823244</v>
       </c>
       <c r="Q38" t="n">
-        <v>56.17766956057913</v>
+        <v>44.27719797126228</v>
       </c>
     </row>
     <row r="39">
@@ -9305,7 +10607,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>20240100151</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -9315,17 +10617,21 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>PV_utility_systems</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
+          <t>Biomass_CHP_wood_pellets_DH</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>wood_pellets</t>
+        </is>
+      </c>
       <c r="F39" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -9333,31 +10639,31 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0.309</v>
       </c>
       <c r="J39" t="n">
-        <v>53555.51607579708</v>
+        <v>100</v>
       </c>
       <c r="K39" t="n">
-        <v>469081512.7967485</v>
+        <v>11700000</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1031103.4</v>
       </c>
       <c r="N39" t="n">
-        <v>50877740.2720072</v>
+        <v>542686</v>
       </c>
       <c r="O39" t="n">
-        <v>2033584902.748187</v>
+        <v>24028615.45823244</v>
       </c>
       <c r="P39" t="n">
-        <v>1564503389.951438</v>
+        <v>11297512.05823244</v>
       </c>
       <c r="Q39" t="n">
-        <v>39.97003192115158</v>
+        <v>44.27719797126228</v>
       </c>
     </row>
     <row r="40">
@@ -9366,59 +10672,1108 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>20240100167</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Biomass_CHP_wood_pellets_DH</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>wood_pellets</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="J40" t="n">
+        <v>100</v>
+      </c>
+      <c r="K40" t="n">
+        <v>11700000</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1031103.4</v>
+      </c>
+      <c r="N40" t="n">
+        <v>542686</v>
+      </c>
+      <c r="O40" t="n">
+        <v>24028615.45823244</v>
+      </c>
+      <c r="P40" t="n">
+        <v>11297512.05823244</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>44.27719797126228</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>20242100395</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>PV_utility_systems</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>150</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1087500</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>142499.9999999999</v>
+      </c>
+      <c r="O41" t="n">
+        <v>5606725.223523242</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4519225.223523242</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>39.3454401650754</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>20242100396</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>PV_utility_systems</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>150</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1087500</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>142499.9999999999</v>
+      </c>
+      <c r="O42" t="n">
+        <v>5606725.223523242</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4519225.223523242</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>39.3454401650754</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>20242100398</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>PV_utility_systems</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>150</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1087500</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>142499.9999999999</v>
+      </c>
+      <c r="O43" t="n">
+        <v>5606725.223523242</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4519225.223523242</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>39.3454401650754</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>20242100401</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>PV_utility_systems</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>150</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1087500</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>142499.9999999999</v>
+      </c>
+      <c r="O44" t="n">
+        <v>5606725.223523242</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4519225.223523242</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>39.3454401650754</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>20242100405</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>PV_utility_systems</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>150</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1087500</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>142499.9999999999</v>
+      </c>
+      <c r="O45" t="n">
+        <v>5606725.223523242</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4519225.223523242</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>39.3454401650754</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>20242300337</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>WTG_offshore</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>200</v>
+      </c>
+      <c r="K46" t="n">
+        <v>7210600</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2151784.41751334</v>
+      </c>
+      <c r="N46" t="n">
+        <v>796957.1916716072</v>
+      </c>
+      <c r="O46" t="n">
+        <v>33229056.77482587</v>
+      </c>
+      <c r="P46" t="n">
+        <v>23866672.35731253</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>41.69490798511819</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>20242300341</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>WTG_offshore</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>200</v>
+      </c>
+      <c r="K47" t="n">
+        <v>7210600</v>
+      </c>
+      <c r="L47" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2151784.41751334</v>
+      </c>
+      <c r="N47" t="n">
+        <v>796957.1916716072</v>
+      </c>
+      <c r="O47" t="n">
+        <v>33229056.77482587</v>
+      </c>
+      <c r="P47" t="n">
+        <v>23866672.35731253</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>41.69490798511819</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>20242300346</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>WTG_offshore</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>200</v>
+      </c>
+      <c r="K48" t="n">
+        <v>7210600</v>
+      </c>
+      <c r="L48" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2151924.260484851</v>
+      </c>
+      <c r="N48" t="n">
+        <v>797008.9853647598</v>
+      </c>
+      <c r="O48" t="n">
+        <v>33229196.61779738</v>
+      </c>
+      <c r="P48" t="n">
+        <v>23866672.35731253</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>41.69237389787981</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>20242300352</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>WTG_offshore</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>200</v>
+      </c>
+      <c r="K49" t="n">
+        <v>7210600</v>
+      </c>
+      <c r="L49" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2151600.814842834</v>
+      </c>
+      <c r="N49" t="n">
+        <v>796889.1906825311</v>
+      </c>
+      <c r="O49" t="n">
+        <v>33228873.17215536</v>
+      </c>
+      <c r="P49" t="n">
+        <v>23866672.35731253</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>41.69823553974301</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>20242400367</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>WTG_onshore</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>300</v>
+      </c>
+      <c r="K50" t="n">
+        <v>3780000</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M50" t="n">
+        <v>688499.9999999987</v>
+      </c>
+      <c r="N50" t="n">
+        <v>509999.9999999991</v>
+      </c>
+      <c r="O50" t="n">
+        <v>20511243.60472844</v>
+      </c>
+      <c r="P50" t="n">
+        <v>16042743.60472844</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>40.21812471515388</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>20242400368</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>WTG_onshore</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>300</v>
+      </c>
+      <c r="K51" t="n">
+        <v>3780000</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M51" t="n">
+        <v>687516.3054909463</v>
+      </c>
+      <c r="N51" t="n">
+        <v>509271.3374007009</v>
+      </c>
+      <c r="O51" t="n">
+        <v>20510259.91021938</v>
+      </c>
+      <c r="P51" t="n">
+        <v>16042743.60472844</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>40.27373701198829</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>20242400370</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>WTG_onshore</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>300</v>
+      </c>
+      <c r="K52" t="n">
+        <v>3780000</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M52" t="n">
+        <v>687516.3054909463</v>
+      </c>
+      <c r="N52" t="n">
+        <v>509271.3374007009</v>
+      </c>
+      <c r="O52" t="n">
+        <v>20510259.91021938</v>
+      </c>
+      <c r="P52" t="n">
+        <v>16042743.60472844</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>40.27373701198829</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Hydropower_reservoir_medium</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>61</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>TobeDecommissioned</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>0.7811457116585705</v>
+      </c>
+      <c r="J53" t="n">
+        <v>8858.749999999998</v>
+      </c>
+      <c r="K53" t="n">
+        <v>132839942.1928359</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>18624635.99999999</v>
+      </c>
+      <c r="O53" t="n">
+        <v>824008992.0604498</v>
+      </c>
+      <c r="P53" t="n">
+        <v>691169049.8676139</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>44.24295820119386</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Nuclear</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>nuclear</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>40</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>TobeDecommissioned</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="J54" t="n">
+        <v>8599</v>
+      </c>
+      <c r="K54" t="n">
+        <v>994910923.5526651</v>
+      </c>
+      <c r="L54" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M54" t="n">
+        <v>705734635.8151965</v>
+      </c>
+      <c r="N54" t="n">
+        <v>73816934.96640722</v>
+      </c>
+      <c r="O54" t="n">
+        <v>3323499974.204066</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1622854414.836205</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>45.02354338765938</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>OCGT</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>natural_gas</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>33</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>TobeDecommissioned</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>0.3741421697393409</v>
+      </c>
+      <c r="J55" t="n">
+        <v>8194.3025</v>
+      </c>
+      <c r="K55" t="n">
+        <v>282076272.4300511</v>
+      </c>
+      <c r="L55" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M55" t="n">
+        <v>996724484.6487156</v>
+      </c>
+      <c r="N55" t="n">
+        <v>18655343.32829945</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1070256471.778237</v>
+      </c>
+      <c r="P55" t="n">
+        <v>-208544285.3005295</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>57.36996917953788</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>ProducerDE</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>PV_utility_systems</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>15</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>53555.51607579708</v>
+      </c>
+      <c r="K56" t="n">
+        <v>394142600.2568092</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>50877740.2720072</v>
+      </c>
+      <c r="O56" t="n">
+        <v>2001807085.606507</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1607664485.349698</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>39.34544016507541</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>ProducerDE</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>WTG_offshore</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
-      <c r="G40" t="n">
-        <v>15</v>
-      </c>
-      <c r="H40" t="inlineStr">
+      <c r="G57" t="n">
+        <v>11</v>
+      </c>
+      <c r="H57" t="inlineStr">
         <is>
           <t>Operational</t>
         </is>
       </c>
-      <c r="I40" t="n">
+      <c r="I57" t="n">
         <v>1</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J57" t="n">
         <v>10271.8</v>
       </c>
-      <c r="K40" t="n">
-        <v>429940710.7362396</v>
-      </c>
-      <c r="L40" t="n">
+      <c r="K57" t="n">
+        <v>374423255.9923953</v>
+      </c>
+      <c r="L57" t="n">
         <v>2.7</v>
       </c>
-      <c r="M40" t="n">
-        <v>110145177.6617579</v>
-      </c>
-      <c r="N40" t="n">
-        <v>40794510.24509549</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1730665555.456438</v>
-      </c>
-      <c r="P40" t="n">
-        <v>1190579667.05844</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>42.42398168426367</v>
+      <c r="M57" t="n">
+        <v>109927373.6032959</v>
+      </c>
+      <c r="N57" t="n">
+        <v>40713842.07529478</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1706025004.602509</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1221674375.006817</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>41.90282512388403</v>
       </c>
     </row>
   </sheetData>
